--- a/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
+++ b/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ProjectBlue1\ProjectBlue1\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ProjectBlue1\ProjectBlue1\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,13 +41,17 @@
     <t>CriticalDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,19 +379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +405,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -414,8 +422,11 @@
       <c r="D2" s="1">
         <v>1000</v>
       </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -427,6 +438,9 @@
       </c>
       <c r="D3" s="1">
         <v>2000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
+++ b/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
+++ b/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,20 +74,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -92,12 +117,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,67 +407,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>200</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.55000000000000004</v>
       </c>
     </row>

--- a/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
+++ b/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
+++ b/ProjectBlue1/Assets/StreamingAssets/Excel/PlayerStat.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:H1165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C2" s="2">
         <v>1000</v>
@@ -507,7 +507,7 @@
       </c>
       <c r="B3" s="2">
         <f>LOG(2)*A3+B2</f>
-        <v>10.602059991327963</v>
+        <v>250.60205999132796</v>
       </c>
       <c r="C3" s="2">
         <f>LOG(2)*A3*2.5+C2</f>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B67" si="0">LOG(2)*A4+B3</f>
-        <v>11.505149978319906</v>
+        <v>251.50514997831991</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C67" si="1">LOG(2)*A4*2.5+C3</f>
@@ -567,7 +567,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>12.709269960975831</v>
+        <v>252.70926996097583</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>14.214419939295738</v>
+        <v>254.21441993929574</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>16.020599913279625</v>
+        <v>256.02059991327963</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>18.127809882927494</v>
+        <v>258.12780988292747</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
@@ -687,7 +687,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>20.536049848239344</v>
+        <v>260.53604984823932</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>23.245319809215175</v>
+        <v>263.24531980921512</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
@@ -747,7 +747,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>26.255619765854988</v>
+        <v>266.25561976585493</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
@@ -777,7 +777,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>29.566949718158781</v>
+        <v>269.5669497181587</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>33.179309666126557</v>
+        <v>273.17930966612647</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>37.092699609758313</v>
+        <v>277.0926996097582</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>41.30711954905405</v>
+        <v>281.30711954905394</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>45.822569484013769</v>
+        <v>285.82256948401363</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>50.639049414637469</v>
+        <v>290.63904941463733</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
@@ -957,7 +957,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>55.756559340925151</v>
+        <v>295.75655934092498</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>61.175099262876813</v>
+        <v>301.17509926287664</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>66.894669180492457</v>
+        <v>306.89466918049226</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>72.915269093772082</v>
+        <v>312.91526909377188</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>79.236899002715688</v>
+        <v>319.23689900271546</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>85.859558907323276</v>
+        <v>325.85955890732305</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>92.783248807594845</v>
+        <v>332.78324880759459</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>100.00796870353039</v>
+        <v>340.00796870353014</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>107.53371859512993</v>
+        <v>347.53371859512964</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>115.36049848239344</v>
+        <v>355.36049848239315</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>123.48830836532093</v>
+        <v>363.48830836532062</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>131.91714824391241</v>
+        <v>371.9171482439121</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>140.64701811816786</v>
+        <v>380.64701811816752</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>149.6779179880873</v>
+        <v>389.67791798808696</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>159.00984785367072</v>
+        <v>399.00984785367035</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>168.64280771491812</v>
+        <v>408.64280771491775</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>178.5767975718295</v>
+        <v>418.5767975718291</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>188.81181742440486</v>
+        <v>428.81181742440447</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="1"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
-        <v>199.34786727264421</v>
+        <v>439.34786727264378</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="1"/>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>210.18494711654753</v>
+        <v>450.18494711654711</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="1"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>221.32305695611484</v>
+        <v>461.32305695611439</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="1"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>232.76219679134613</v>
+        <v>472.76219679134567</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="1"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>244.5023666222414</v>
+        <v>484.50236662224091</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="1"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>256.54356644880062</v>
+        <v>496.54356644880016</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>268.88579627102382</v>
+        <v>508.88579627102337</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="1"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>281.52905608891103</v>
+        <v>521.52905608891058</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="1"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>294.4733459024622</v>
+        <v>534.4733459024618</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="1"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>307.71866571167737</v>
+        <v>547.71866571167698</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="1"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>321.2650155165565</v>
+        <v>561.2650155165561</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="1"/>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>335.11239531709964</v>
+        <v>575.11239531709919</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="1"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>349.26080511330673</v>
+        <v>589.26080511330633</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="1"/>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>363.71024490517783</v>
+        <v>603.71024490517743</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="1"/>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>378.46071469271288</v>
+        <v>618.46071469271249</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="1"/>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>393.51221447591195</v>
+        <v>633.51221447591149</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="1"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>408.86474425477496</v>
+        <v>648.86474425477456</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="1"/>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>424.51830402930199</v>
+        <v>664.51830402930159</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="1"/>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>440.47289379949297</v>
+        <v>680.47289379949257</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" si="1"/>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>456.72851356534795</v>
+        <v>696.7285135653475</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" si="1"/>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>473.28516332686689</v>
+        <v>713.2851633268665</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="1"/>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>490.14284308404984</v>
+        <v>730.14284308404945</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="1"/>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>507.30155283689675</v>
+        <v>747.30155283689635</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="1"/>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>524.76129258540766</v>
+        <v>764.7612925854072</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="1"/>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>542.52206232958258</v>
+        <v>782.52206232958213</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="1"/>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>560.58386206942146</v>
+        <v>800.583862069421</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="1"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>578.94669180492428</v>
+        <v>818.94669180492383</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="1"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>597.61055153609107</v>
+        <v>837.61055153609061</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="1"/>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>616.57544126292191</v>
+        <v>856.57544126292146</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="1"/>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>635.84136098541671</v>
+        <v>875.84136098541626</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="1"/>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>655.40831070357547</v>
+        <v>895.40831070357501</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" si="1"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" si="0"/>
-        <v>675.27629041739817</v>
+        <v>915.27629041739772</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" si="1"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" ref="B68:B131" si="6">LOG(2)*A68+B67</f>
-        <v>695.44530012688494</v>
+        <v>935.44530012688449</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" ref="C68:C131" si="7">LOG(2)*A68*2.5+C67</f>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="6"/>
-        <v>715.91533983203567</v>
+        <v>955.91533983203522</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="7"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" si="6"/>
-        <v>736.68640953285035</v>
+        <v>976.68640953284989</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="7"/>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" si="6"/>
-        <v>757.75850922932898</v>
+        <v>997.75850922932852</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="7"/>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" si="6"/>
-        <v>779.13163892147168</v>
+        <v>1019.1316389214712</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="7"/>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" si="6"/>
-        <v>800.80579860927833</v>
+        <v>1040.8057986092779</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="7"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" si="6"/>
-        <v>822.78098829274893</v>
+        <v>1062.7809882927486</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="7"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" si="6"/>
-        <v>845.05720797188349</v>
+        <v>1085.0572079718831</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" si="7"/>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" si="6"/>
-        <v>867.63445764668211</v>
+        <v>1107.6344576466818</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" si="7"/>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" si="6"/>
-        <v>890.51273731714468</v>
+        <v>1130.5127373171442</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" si="7"/>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" si="6"/>
-        <v>913.69204698327121</v>
+        <v>1153.6920469832708</v>
       </c>
       <c r="C78" s="2">
         <f t="shared" si="7"/>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" si="6"/>
-        <v>937.17238664506169</v>
+        <v>1177.1723866450614</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" si="7"/>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" si="6"/>
-        <v>960.95375630251624</v>
+        <v>1200.9537563025158</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" si="7"/>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" si="6"/>
-        <v>985.03615595563474</v>
+        <v>1225.0361559556343</v>
       </c>
       <c r="C81" s="2">
         <f t="shared" si="7"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" si="6"/>
-        <v>1009.4195856044172</v>
+        <v>1249.4195856044169</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" si="7"/>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" si="6"/>
-        <v>1034.1040452488637</v>
+        <v>1274.1040452488633</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" si="7"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B84" s="2">
         <f t="shared" si="6"/>
-        <v>1059.0895348889742</v>
+        <v>1299.0895348889737</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" si="7"/>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B85" s="2">
         <f t="shared" si="6"/>
-        <v>1084.3760545247485</v>
+        <v>1324.376054524748</v>
       </c>
       <c r="C85" s="2">
         <f t="shared" si="7"/>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B86" s="2">
         <f t="shared" si="6"/>
-        <v>1109.9636041561869</v>
+        <v>1349.9636041561864</v>
       </c>
       <c r="C86" s="2">
         <f t="shared" si="7"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" si="6"/>
-        <v>1135.8521837832893</v>
+        <v>1375.8521837832889</v>
       </c>
       <c r="C87" s="2">
         <f t="shared" si="7"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B88" s="2">
         <f t="shared" si="6"/>
-        <v>1162.0417934060556</v>
+        <v>1402.0417934060551</v>
       </c>
       <c r="C88" s="2">
         <f t="shared" si="7"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" si="6"/>
-        <v>1188.532433024486</v>
+        <v>1428.5324330244855</v>
       </c>
       <c r="C89" s="2">
         <f t="shared" si="7"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" si="6"/>
-        <v>1215.3241026385804</v>
+        <v>1455.3241026385799</v>
       </c>
       <c r="C90" s="2">
         <f t="shared" si="7"/>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" si="6"/>
-        <v>1242.4168022483386</v>
+        <v>1482.4168022483382</v>
       </c>
       <c r="C91" s="2">
         <f t="shared" si="7"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" si="6"/>
-        <v>1269.8105318537609</v>
+        <v>1509.8105318537605</v>
       </c>
       <c r="C92" s="2">
         <f t="shared" si="7"/>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" si="6"/>
-        <v>1297.5052914548471</v>
+        <v>1537.5052914548467</v>
       </c>
       <c r="C93" s="2">
         <f t="shared" si="7"/>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" si="6"/>
-        <v>1325.5010810515973</v>
+        <v>1565.5010810515969</v>
       </c>
       <c r="C94" s="2">
         <f t="shared" si="7"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" si="6"/>
-        <v>1353.7979006440116</v>
+        <v>1593.7979006440112</v>
       </c>
       <c r="C95" s="2">
         <f t="shared" si="7"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B96" s="2">
         <f t="shared" si="6"/>
-        <v>1382.3957502320898</v>
+        <v>1622.3957502320893</v>
       </c>
       <c r="C96" s="2">
         <f t="shared" si="7"/>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B97" s="2">
         <f t="shared" si="6"/>
-        <v>1411.294629815832</v>
+        <v>1651.2946298158315</v>
       </c>
       <c r="C97" s="2">
         <f t="shared" si="7"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B98" s="2">
         <f t="shared" si="6"/>
-        <v>1440.4945393952382</v>
+        <v>1680.4945393952378</v>
       </c>
       <c r="C98" s="2">
         <f t="shared" si="7"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B99" s="2">
         <f t="shared" si="6"/>
-        <v>1469.9954789703083</v>
+        <v>1709.9954789703079</v>
       </c>
       <c r="C99" s="2">
         <f t="shared" si="7"/>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B100" s="2">
         <f t="shared" si="6"/>
-        <v>1499.7974485410425</v>
+        <v>1739.7974485410421</v>
       </c>
       <c r="C100" s="2">
         <f t="shared" si="7"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B101" s="2">
         <f t="shared" si="6"/>
-        <v>1529.9004481074405</v>
+        <v>1769.9004481074401</v>
       </c>
       <c r="C101" s="2">
         <f t="shared" si="7"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B102" s="2">
         <f t="shared" si="6"/>
-        <v>1560.3044776695026</v>
+        <v>1800.3044776695021</v>
       </c>
       <c r="C102" s="2">
         <f t="shared" si="7"/>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B103" s="2">
         <f t="shared" si="6"/>
-        <v>1591.0095372272287</v>
+        <v>1831.0095372272283</v>
       </c>
       <c r="C103" s="2">
         <f t="shared" si="7"/>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B104" s="2">
         <f t="shared" si="6"/>
-        <v>1622.0156267806187</v>
+        <v>1862.0156267806183</v>
       </c>
       <c r="C104" s="2">
         <f t="shared" si="7"/>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B105" s="2">
         <f t="shared" si="6"/>
-        <v>1653.3227463296728</v>
+        <v>1893.3227463296723</v>
       </c>
       <c r="C105" s="2">
         <f t="shared" si="7"/>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B106" s="2">
         <f t="shared" si="6"/>
-        <v>1684.9308958743909</v>
+        <v>1924.9308958743904</v>
       </c>
       <c r="C106" s="2">
         <f t="shared" si="7"/>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B107" s="2">
         <f t="shared" si="6"/>
-        <v>1716.8400754147729</v>
+        <v>1956.8400754147724</v>
       </c>
       <c r="C107" s="2">
         <f t="shared" si="7"/>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B108" s="2">
         <f t="shared" si="6"/>
-        <v>1749.0502849508189</v>
+        <v>1989.0502849508184</v>
       </c>
       <c r="C108" s="2">
         <f t="shared" si="7"/>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B109" s="2">
         <f t="shared" si="6"/>
-        <v>1781.5615244825287</v>
+        <v>2021.5615244825283</v>
       </c>
       <c r="C109" s="2">
         <f t="shared" si="7"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B110" s="2">
         <f t="shared" si="6"/>
-        <v>1814.3737940099027</v>
+        <v>2054.3737940099022</v>
       </c>
       <c r="C110" s="2">
         <f t="shared" si="7"/>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B111" s="2">
         <f t="shared" si="6"/>
-        <v>1847.4870935329407</v>
+        <v>2087.48709353294</v>
       </c>
       <c r="C111" s="2">
         <f t="shared" si="7"/>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B112" s="2">
         <f t="shared" si="6"/>
-        <v>1880.9014230516425</v>
+        <v>2120.9014230516418</v>
       </c>
       <c r="C112" s="2">
         <f t="shared" si="7"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B113" s="2">
         <f t="shared" si="6"/>
-        <v>1914.6167825660084</v>
+        <v>2154.6167825660077</v>
       </c>
       <c r="C113" s="2">
         <f t="shared" si="7"/>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B114" s="2">
         <f t="shared" si="6"/>
-        <v>1948.6331720760384</v>
+        <v>2188.6331720760377</v>
       </c>
       <c r="C114" s="2">
         <f t="shared" si="7"/>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B115" s="2">
         <f t="shared" si="6"/>
-        <v>1982.9505915817322</v>
+        <v>2222.9505915817317</v>
       </c>
       <c r="C115" s="2">
         <f t="shared" si="7"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B116" s="2">
         <f t="shared" si="6"/>
-        <v>2017.56904108309</v>
+        <v>2257.5690410830894</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" si="7"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B117" s="2">
         <f t="shared" si="6"/>
-        <v>2052.488520580112</v>
+        <v>2292.4885205801111</v>
       </c>
       <c r="C117" s="2">
         <f t="shared" si="7"/>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B118" s="2">
         <f t="shared" si="6"/>
-        <v>2087.7090300727978</v>
+        <v>2327.7090300727968</v>
       </c>
       <c r="C118" s="2">
         <f t="shared" si="7"/>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B119" s="2">
         <f t="shared" si="6"/>
-        <v>2123.2305695611476</v>
+        <v>2363.2305695611467</v>
       </c>
       <c r="C119" s="2">
         <f t="shared" si="7"/>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B120" s="2">
         <f t="shared" si="6"/>
-        <v>2159.0531390451615</v>
+        <v>2399.0531390451606</v>
       </c>
       <c r="C120" s="2">
         <f t="shared" si="7"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B121" s="2">
         <f t="shared" si="6"/>
-        <v>2195.176738524839</v>
+        <v>2435.1767385248381</v>
       </c>
       <c r="C121" s="2">
         <f t="shared" si="7"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B122" s="2">
         <f t="shared" si="6"/>
-        <v>2231.6013680001806</v>
+        <v>2471.6013680001797</v>
       </c>
       <c r="C122" s="2">
         <f t="shared" si="7"/>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B123" s="2">
         <f t="shared" si="6"/>
-        <v>2268.3270274711863</v>
+        <v>2508.3270274711854</v>
       </c>
       <c r="C123" s="2">
         <f t="shared" si="7"/>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B124" s="2">
         <f t="shared" si="6"/>
-        <v>2305.353716937856</v>
+        <v>2545.3537169378551</v>
       </c>
       <c r="C124" s="2">
         <f t="shared" si="7"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B125" s="2">
         <f t="shared" si="6"/>
-        <v>2342.6814364001898</v>
+        <v>2582.6814364001889</v>
       </c>
       <c r="C125" s="2">
         <f t="shared" si="7"/>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B126" s="2">
         <f t="shared" si="6"/>
-        <v>2380.3101858581877</v>
+        <v>2620.3101858581867</v>
       </c>
       <c r="C126" s="2">
         <f t="shared" si="7"/>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B127" s="2">
         <f t="shared" si="6"/>
-        <v>2418.2399653118491</v>
+        <v>2658.2399653118482</v>
       </c>
       <c r="C127" s="2">
         <f t="shared" si="7"/>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B128" s="2">
         <f t="shared" si="6"/>
-        <v>2456.4707747611747</v>
+        <v>2696.4707747611737</v>
       </c>
       <c r="C128" s="2">
         <f t="shared" si="7"/>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B129" s="2">
         <f t="shared" si="6"/>
-        <v>2495.0026142061643</v>
+        <v>2735.0026142061633</v>
       </c>
       <c r="C129" s="2">
         <f t="shared" si="7"/>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B130" s="2">
         <f t="shared" si="6"/>
-        <v>2533.8354836468179</v>
+        <v>2773.835483646817</v>
       </c>
       <c r="C130" s="2">
         <f t="shared" si="7"/>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B131" s="2">
         <f t="shared" si="6"/>
-        <v>2572.9693830831357</v>
+        <v>2812.9693830831347</v>
       </c>
       <c r="C131" s="2">
         <f t="shared" si="7"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B132" s="2">
         <f t="shared" ref="B132:B195" si="12">LOG(2)*A132+B131</f>
-        <v>2612.404312515117</v>
+        <v>2852.4043125151161</v>
       </c>
       <c r="C132" s="2">
         <f t="shared" ref="C132:C195" si="13">LOG(2)*A132*2.5+C131</f>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B133" s="2">
         <f t="shared" si="12"/>
-        <v>2652.1402719427624</v>
+        <v>2892.1402719427615</v>
       </c>
       <c r="C133" s="2">
         <f t="shared" si="13"/>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B134" s="2">
         <f t="shared" si="12"/>
-        <v>2692.1772613660719</v>
+        <v>2932.177261366071</v>
       </c>
       <c r="C134" s="2">
         <f t="shared" si="13"/>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B135" s="2">
         <f t="shared" si="12"/>
-        <v>2732.5152807850454</v>
+        <v>2972.5152807850445</v>
       </c>
       <c r="C135" s="2">
         <f t="shared" si="13"/>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B136" s="2">
         <f t="shared" si="12"/>
-        <v>2773.154330199683</v>
+        <v>3013.1543301996821</v>
       </c>
       <c r="C136" s="2">
         <f t="shared" si="13"/>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="B137" s="2">
         <f t="shared" si="12"/>
-        <v>2814.0944096099843</v>
+        <v>3054.0944096099834</v>
       </c>
       <c r="C137" s="2">
         <f t="shared" si="13"/>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B138" s="2">
         <f t="shared" si="12"/>
-        <v>2855.3355190159496</v>
+        <v>3095.3355190159486</v>
       </c>
       <c r="C138" s="2">
         <f t="shared" si="13"/>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B139" s="2">
         <f t="shared" si="12"/>
-        <v>2896.8776584175789</v>
+        <v>3136.877658417578</v>
       </c>
       <c r="C139" s="2">
         <f t="shared" si="13"/>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B140" s="2">
         <f t="shared" si="12"/>
-        <v>2938.7208278148723</v>
+        <v>3178.7208278148714</v>
       </c>
       <c r="C140" s="2">
         <f t="shared" si="13"/>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B141" s="2">
         <f t="shared" si="12"/>
-        <v>2980.8650272078298</v>
+        <v>3220.8650272078289</v>
       </c>
       <c r="C141" s="2">
         <f t="shared" si="13"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B142" s="2">
         <f t="shared" si="12"/>
-        <v>3023.3102565964514</v>
+        <v>3263.3102565964505</v>
       </c>
       <c r="C142" s="2">
         <f t="shared" si="13"/>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B143" s="2">
         <f t="shared" si="12"/>
-        <v>3066.0565159807365</v>
+        <v>3306.0565159807356</v>
       </c>
       <c r="C143" s="2">
         <f t="shared" si="13"/>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B144" s="2">
         <f t="shared" si="12"/>
-        <v>3109.1038053606858</v>
+        <v>3349.1038053606849</v>
       </c>
       <c r="C144" s="2">
         <f t="shared" si="13"/>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B145" s="2">
         <f t="shared" si="12"/>
-        <v>3152.4521247362991</v>
+        <v>3392.4521247362982</v>
       </c>
       <c r="C145" s="2">
         <f t="shared" si="13"/>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B146" s="2">
         <f t="shared" si="12"/>
-        <v>3196.1014741075765</v>
+        <v>3436.1014741075755</v>
       </c>
       <c r="C146" s="2">
         <f t="shared" si="13"/>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B147" s="2">
         <f t="shared" si="12"/>
-        <v>3240.0518534745179</v>
+        <v>3480.051853474517</v>
       </c>
       <c r="C147" s="2">
         <f t="shared" si="13"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B148" s="2">
         <f t="shared" si="12"/>
-        <v>3284.3032628371229</v>
+        <v>3524.303262837122</v>
       </c>
       <c r="C148" s="2">
         <f t="shared" si="13"/>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B149" s="2">
         <f t="shared" si="12"/>
-        <v>3328.855702195392</v>
+        <v>3568.8557021953911</v>
       </c>
       <c r="C149" s="2">
         <f t="shared" si="13"/>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B150" s="2">
         <f t="shared" si="12"/>
-        <v>3373.7091715493252</v>
+        <v>3613.7091715493243</v>
       </c>
       <c r="C150" s="2">
         <f t="shared" si="13"/>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B151" s="2">
         <f t="shared" si="12"/>
-        <v>3418.8636708989225</v>
+        <v>3658.8636708989216</v>
       </c>
       <c r="C151" s="2">
         <f t="shared" si="13"/>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B152" s="2">
         <f t="shared" si="12"/>
-        <v>3464.3192002441838</v>
+        <v>3704.3192002441829</v>
       </c>
       <c r="C152" s="2">
         <f t="shared" si="13"/>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B153" s="2">
         <f t="shared" si="12"/>
-        <v>3510.0757595851087</v>
+        <v>3750.0757595851078</v>
       </c>
       <c r="C153" s="2">
         <f t="shared" si="13"/>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B154" s="2">
         <f t="shared" si="12"/>
-        <v>3556.1333489216977</v>
+        <v>3796.1333489216968</v>
       </c>
       <c r="C154" s="2">
         <f t="shared" si="13"/>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B155" s="2">
         <f t="shared" si="12"/>
-        <v>3602.4919682539507</v>
+        <v>3842.4919682539498</v>
       </c>
       <c r="C155" s="2">
         <f t="shared" si="13"/>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B156" s="2">
         <f t="shared" si="12"/>
-        <v>3649.1516175818679</v>
+        <v>3889.151617581867</v>
       </c>
       <c r="C156" s="2">
         <f t="shared" si="13"/>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B157" s="2">
         <f t="shared" si="12"/>
-        <v>3696.1122969054491</v>
+        <v>3936.1122969054481</v>
       </c>
       <c r="C157" s="2">
         <f t="shared" si="13"/>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B158" s="2">
         <f t="shared" si="12"/>
-        <v>3743.3740062246943</v>
+        <v>3983.3740062246934</v>
       </c>
       <c r="C158" s="2">
         <f t="shared" si="13"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B159" s="2">
         <f t="shared" si="12"/>
-        <v>3790.9367455396032</v>
+        <v>4030.9367455396023</v>
       </c>
       <c r="C159" s="2">
         <f t="shared" si="13"/>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B160" s="2">
         <f t="shared" si="12"/>
-        <v>3838.8005148501761</v>
+        <v>4078.8005148501752</v>
       </c>
       <c r="C160" s="2">
         <f t="shared" si="13"/>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B161" s="2">
         <f t="shared" si="12"/>
-        <v>3886.9653141564131</v>
+        <v>4126.9653141564122</v>
       </c>
       <c r="C161" s="2">
         <f t="shared" si="13"/>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B162" s="2">
         <f t="shared" si="12"/>
-        <v>3935.4311434583142</v>
+        <v>4175.4311434583133</v>
       </c>
       <c r="C162" s="2">
         <f t="shared" si="13"/>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B163" s="2">
         <f t="shared" si="12"/>
-        <v>3984.1980027558793</v>
+        <v>4224.1980027558784</v>
       </c>
       <c r="C163" s="2">
         <f t="shared" si="13"/>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B164" s="2">
         <f t="shared" si="12"/>
-        <v>4033.2658920491081</v>
+        <v>4273.2658920491076</v>
       </c>
       <c r="C164" s="2">
         <f t="shared" si="13"/>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B165" s="2">
         <f t="shared" si="12"/>
-        <v>4082.6348113380009</v>
+        <v>4322.6348113380009</v>
       </c>
       <c r="C165" s="2">
         <f t="shared" si="13"/>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B166" s="2">
         <f t="shared" si="12"/>
-        <v>4132.3047606225582</v>
+        <v>4372.3047606225582</v>
       </c>
       <c r="C166" s="2">
         <f t="shared" si="13"/>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B167" s="2">
         <f t="shared" si="12"/>
-        <v>4182.2757399027787</v>
+        <v>4422.2757399027787</v>
       </c>
       <c r="C167" s="2">
         <f t="shared" si="13"/>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B168" s="2">
         <f t="shared" si="12"/>
-        <v>4232.5477491786633</v>
+        <v>4472.5477491786633</v>
       </c>
       <c r="C168" s="2">
         <f t="shared" si="13"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B169" s="2">
         <f t="shared" si="12"/>
-        <v>4283.1207884502119</v>
+        <v>4523.1207884502119</v>
       </c>
       <c r="C169" s="2">
         <f t="shared" si="13"/>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B170" s="2">
         <f t="shared" si="12"/>
-        <v>4333.9948577174246</v>
+        <v>4573.9948577174246</v>
       </c>
       <c r="C170" s="2">
         <f t="shared" si="13"/>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B171" s="2">
         <f t="shared" si="12"/>
-        <v>4385.1699569803013</v>
+        <v>4625.1699569803013</v>
       </c>
       <c r="C171" s="2">
         <f t="shared" si="13"/>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B172" s="2">
         <f t="shared" si="12"/>
-        <v>4436.6460862388421</v>
+        <v>4676.6460862388421</v>
       </c>
       <c r="C172" s="2">
         <f t="shared" si="13"/>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B173" s="2">
         <f t="shared" si="12"/>
-        <v>4488.423245493047</v>
+        <v>4728.423245493047</v>
       </c>
       <c r="C173" s="2">
         <f t="shared" si="13"/>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B174" s="2">
         <f t="shared" si="12"/>
-        <v>4540.501434742916</v>
+        <v>4780.501434742916</v>
       </c>
       <c r="C174" s="2">
         <f t="shared" si="13"/>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B175" s="2">
         <f t="shared" si="12"/>
-        <v>4592.880653988449</v>
+        <v>4832.880653988449</v>
       </c>
       <c r="C175" s="2">
         <f t="shared" si="13"/>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B176" s="2">
         <f t="shared" si="12"/>
-        <v>4645.5609032296461</v>
+        <v>4885.5609032296461</v>
       </c>
       <c r="C176" s="2">
         <f t="shared" si="13"/>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B177" s="2">
         <f t="shared" si="12"/>
-        <v>4698.5421824665063</v>
+        <v>4938.5421824665063</v>
       </c>
       <c r="C177" s="2">
         <f t="shared" si="13"/>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B178" s="2">
         <f t="shared" si="12"/>
-        <v>4751.8244916990307</v>
+        <v>4991.8244916990307</v>
       </c>
       <c r="C178" s="2">
         <f t="shared" si="13"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B179" s="2">
         <f t="shared" si="12"/>
-        <v>4805.407830927219</v>
+        <v>5045.407830927219</v>
       </c>
       <c r="C179" s="2">
         <f t="shared" si="13"/>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B180" s="2">
         <f t="shared" si="12"/>
-        <v>4859.2922001510715</v>
+        <v>5099.2922001510715</v>
       </c>
       <c r="C180" s="2">
         <f t="shared" si="13"/>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B181" s="2">
         <f t="shared" si="12"/>
-        <v>4913.477599370588</v>
+        <v>5153.477599370588</v>
       </c>
       <c r="C181" s="2">
         <f t="shared" si="13"/>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B182" s="2">
         <f t="shared" si="12"/>
-        <v>4967.9640285857686</v>
+        <v>5207.9640285857686</v>
       </c>
       <c r="C182" s="2">
         <f t="shared" si="13"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B183" s="2">
         <f t="shared" si="12"/>
-        <v>5022.7514877966132</v>
+        <v>5262.7514877966132</v>
       </c>
       <c r="C183" s="2">
         <f t="shared" si="13"/>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B184" s="2">
         <f t="shared" si="12"/>
-        <v>5077.8399770031219</v>
+        <v>5317.8399770031219</v>
       </c>
       <c r="C184" s="2">
         <f t="shared" si="13"/>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B185" s="2">
         <f t="shared" si="12"/>
-        <v>5133.2294962052947</v>
+        <v>5373.2294962052947</v>
       </c>
       <c r="C185" s="2">
         <f t="shared" si="13"/>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B186" s="2">
         <f t="shared" si="12"/>
-        <v>5188.9200454031316</v>
+        <v>5428.9200454031316</v>
       </c>
       <c r="C186" s="2">
         <f t="shared" si="13"/>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B187" s="2">
         <f t="shared" si="12"/>
-        <v>5244.9116245966325</v>
+        <v>5484.9116245966325</v>
       </c>
       <c r="C187" s="2">
         <f t="shared" si="13"/>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B188" s="2">
         <f t="shared" si="12"/>
-        <v>5301.2042337857965</v>
+        <v>5541.2042337857965</v>
       </c>
       <c r="C188" s="2">
         <f t="shared" si="13"/>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="B189" s="2">
         <f t="shared" si="12"/>
-        <v>5357.7978729706247</v>
+        <v>5597.7978729706247</v>
       </c>
       <c r="C189" s="2">
         <f t="shared" si="13"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B190" s="2">
         <f t="shared" si="12"/>
-        <v>5414.6925421511169</v>
+        <v>5654.6925421511169</v>
       </c>
       <c r="C190" s="2">
         <f t="shared" si="13"/>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B191" s="2">
         <f t="shared" si="12"/>
-        <v>5471.8882413272731</v>
+        <v>5711.8882413272731</v>
       </c>
       <c r="C191" s="2">
         <f t="shared" si="13"/>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B192" s="2">
         <f t="shared" si="12"/>
-        <v>5529.3849704990935</v>
+        <v>5769.3849704990935</v>
       </c>
       <c r="C192" s="2">
         <f t="shared" si="13"/>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B193" s="2">
         <f t="shared" si="12"/>
-        <v>5587.1827296665779</v>
+        <v>5827.1827296665779</v>
       </c>
       <c r="C193" s="2">
         <f t="shared" si="13"/>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="B194" s="2">
         <f t="shared" si="12"/>
-        <v>5645.2815188297263</v>
+        <v>5885.2815188297263</v>
       </c>
       <c r="C194" s="2">
         <f t="shared" si="13"/>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B195" s="2">
         <f t="shared" si="12"/>
-        <v>5703.6813379885389</v>
+        <v>5943.6813379885389</v>
       </c>
       <c r="C195" s="2">
         <f t="shared" si="13"/>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="B196" s="2">
         <f t="shared" ref="B196:B259" si="19">LOG(2)*A196+B195</f>
-        <v>5762.3821871430155</v>
+        <v>6002.3821871430155</v>
       </c>
       <c r="C196" s="2">
         <f t="shared" ref="C196:C259" si="20">LOG(2)*A196*2.5+C195</f>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B197" s="2">
         <f t="shared" si="19"/>
-        <v>5821.3840662931561</v>
+        <v>6061.3840662931561</v>
       </c>
       <c r="C197" s="2">
         <f t="shared" si="20"/>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="B198" s="2">
         <f t="shared" si="19"/>
-        <v>5880.6869754389609</v>
+        <v>6120.6869754389609</v>
       </c>
       <c r="C198" s="2">
         <f t="shared" si="20"/>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B199" s="2">
         <f t="shared" si="19"/>
-        <v>5940.2909145804288</v>
+        <v>6180.2909145804288</v>
       </c>
       <c r="C199" s="2">
         <f t="shared" si="20"/>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="B200" s="2">
         <f t="shared" si="19"/>
-        <v>6000.1958837175607</v>
+        <v>6240.1958837175607</v>
       </c>
       <c r="C200" s="2">
         <f t="shared" si="20"/>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="B201" s="2">
         <f t="shared" si="19"/>
-        <v>6060.4018828503567</v>
+        <v>6300.4018828503567</v>
       </c>
       <c r="C201" s="2">
         <f t="shared" si="20"/>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B202" s="2">
         <f t="shared" si="19"/>
-        <v>6120.9089119788168</v>
+        <v>6360.9089119788168</v>
       </c>
       <c r="C202" s="2">
         <f t="shared" si="20"/>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B203" s="2">
         <f t="shared" si="19"/>
-        <v>6181.716971102941</v>
+        <v>6421.716971102941</v>
       </c>
       <c r="C203" s="2">
         <f t="shared" si="20"/>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="B204" s="2">
         <f t="shared" si="19"/>
-        <v>6242.8260602227292</v>
+        <v>6482.8260602227292</v>
       </c>
       <c r="C204" s="2">
         <f t="shared" si="20"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B205" s="2">
         <f t="shared" si="19"/>
-        <v>6304.2361793381815</v>
+        <v>6544.2361793381815</v>
       </c>
       <c r="C205" s="2">
         <f t="shared" si="20"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="B206" s="2">
         <f t="shared" si="19"/>
-        <v>6365.9473284492979</v>
+        <v>6605.9473284492979</v>
       </c>
       <c r="C206" s="2">
         <f t="shared" si="20"/>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B207" s="2">
         <f t="shared" si="19"/>
-        <v>6427.9595075560783</v>
+        <v>6667.9595075560783</v>
       </c>
       <c r="C207" s="2">
         <f t="shared" si="20"/>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="B208" s="2">
         <f t="shared" si="19"/>
-        <v>6490.2727166585228</v>
+        <v>6730.2727166585228</v>
       </c>
       <c r="C208" s="2">
         <f t="shared" si="20"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B209" s="2">
         <f t="shared" si="19"/>
-        <v>6552.8869557566304</v>
+        <v>6792.8869557566304</v>
       </c>
       <c r="C209" s="2">
         <f t="shared" si="20"/>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B210" s="2">
         <f t="shared" si="19"/>
-        <v>6615.8022248504021</v>
+        <v>6855.8022248504021</v>
       </c>
       <c r="C210" s="2">
         <f t="shared" si="20"/>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B211" s="2">
         <f t="shared" si="19"/>
-        <v>6679.0185239398379</v>
+        <v>6919.0185239398379</v>
       </c>
       <c r="C211" s="2">
         <f t="shared" si="20"/>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="B212" s="2">
         <f t="shared" si="19"/>
-        <v>6742.5358530249378</v>
+        <v>6982.5358530249378</v>
       </c>
       <c r="C212" s="2">
         <f t="shared" si="20"/>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B213" s="2">
         <f t="shared" si="19"/>
-        <v>6806.3542121057017</v>
+        <v>7046.3542121057017</v>
       </c>
       <c r="C213" s="2">
         <f t="shared" si="20"/>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B214" s="2">
         <f t="shared" si="19"/>
-        <v>6870.4736011821296</v>
+        <v>7110.4736011821296</v>
       </c>
       <c r="C214" s="2">
         <f t="shared" si="20"/>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B215" s="2">
         <f t="shared" si="19"/>
-        <v>6934.8940202542217</v>
+        <v>7174.8940202542217</v>
       </c>
       <c r="C215" s="2">
         <f t="shared" si="20"/>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="B216" s="2">
         <f t="shared" si="19"/>
-        <v>6999.6154693219778</v>
+        <v>7239.6154693219778</v>
       </c>
       <c r="C216" s="2">
         <f t="shared" si="20"/>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B217" s="2">
         <f t="shared" si="19"/>
-        <v>7064.637948385398</v>
+        <v>7304.637948385398</v>
       </c>
       <c r="C217" s="2">
         <f t="shared" si="20"/>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="B218" s="2">
         <f t="shared" si="19"/>
-        <v>7129.9614574444822</v>
+        <v>7369.9614574444822</v>
       </c>
       <c r="C218" s="2">
         <f t="shared" si="20"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B219" s="2">
         <f t="shared" si="19"/>
-        <v>7195.5859964992305</v>
+        <v>7435.5859964992305</v>
       </c>
       <c r="C219" s="2">
         <f t="shared" si="20"/>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="B220" s="2">
         <f t="shared" si="19"/>
-        <v>7261.511565549642</v>
+        <v>7501.511565549642</v>
       </c>
       <c r="C220" s="2">
         <f t="shared" si="20"/>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B221" s="2">
         <f t="shared" si="19"/>
-        <v>7327.7381645957175</v>
+        <v>7567.7381645957175</v>
       </c>
       <c r="C221" s="2">
         <f t="shared" si="20"/>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B222" s="2">
         <f t="shared" si="19"/>
-        <v>7394.2657936374571</v>
+        <v>7634.2657936374571</v>
       </c>
       <c r="C222" s="2">
         <f t="shared" si="20"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B223" s="2">
         <f t="shared" si="19"/>
-        <v>7461.0944526748608</v>
+        <v>7701.0944526748608</v>
       </c>
       <c r="C223" s="2">
         <f t="shared" si="20"/>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B224" s="2">
         <f t="shared" si="19"/>
-        <v>7528.2241417079285</v>
+        <v>7768.2241417079285</v>
       </c>
       <c r="C224" s="2">
         <f t="shared" si="20"/>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B225" s="2">
         <f t="shared" si="19"/>
-        <v>7595.6548607366603</v>
+        <v>7835.6548607366603</v>
       </c>
       <c r="C225" s="2">
         <f t="shared" si="20"/>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B226" s="2">
         <f t="shared" si="19"/>
-        <v>7663.3866097610562</v>
+        <v>7903.3866097610562</v>
       </c>
       <c r="C226" s="2">
         <f t="shared" si="20"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="B227" s="2">
         <f t="shared" si="19"/>
-        <v>7731.4193887811161</v>
+        <v>7971.4193887811161</v>
       </c>
       <c r="C227" s="2">
         <f t="shared" si="20"/>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="B228" s="2">
         <f t="shared" si="19"/>
-        <v>7799.7531977968401</v>
+        <v>8039.7531977968401</v>
       </c>
       <c r="C228" s="2">
         <f t="shared" si="20"/>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="B229" s="2">
         <f t="shared" si="19"/>
-        <v>7868.3880368082282</v>
+        <v>8108.3880368082282</v>
       </c>
       <c r="C229" s="2">
         <f t="shared" si="20"/>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B230" s="2">
         <f t="shared" si="19"/>
-        <v>7937.3239058152803</v>
+        <v>8177.3239058152803</v>
       </c>
       <c r="C230" s="2">
         <f t="shared" si="20"/>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B231" s="2">
         <f t="shared" si="19"/>
-        <v>8006.5608048179956</v>
+        <v>8246.5608048179965</v>
       </c>
       <c r="C231" s="2">
         <f t="shared" si="20"/>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="B232" s="2">
         <f t="shared" si="19"/>
-        <v>8076.098733816375</v>
+        <v>8316.0987338163759</v>
       </c>
       <c r="C232" s="2">
         <f t="shared" si="20"/>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="B233" s="2">
         <f t="shared" si="19"/>
-        <v>8145.9376928104184</v>
+        <v>8385.9376928104193</v>
       </c>
       <c r="C233" s="2">
         <f t="shared" si="20"/>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="B234" s="2">
         <f t="shared" si="19"/>
-        <v>8216.0776818001268</v>
+        <v>8456.0776818001268</v>
       </c>
       <c r="C234" s="2">
         <f t="shared" si="20"/>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="B235" s="2">
         <f t="shared" si="19"/>
-        <v>8286.5187007854984</v>
+        <v>8526.5187007854984</v>
       </c>
       <c r="C235" s="2">
         <f t="shared" si="20"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B236" s="2">
         <f t="shared" si="19"/>
-        <v>8357.260749766534</v>
+        <v>8597.260749766534</v>
       </c>
       <c r="C236" s="2">
         <f t="shared" si="20"/>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="B237" s="2">
         <f t="shared" si="19"/>
-        <v>8428.3038287432337</v>
+        <v>8668.3038287432337</v>
       </c>
       <c r="C237" s="2">
         <f t="shared" si="20"/>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B238" s="2">
         <f t="shared" si="19"/>
-        <v>8499.6479377155974</v>
+        <v>8739.6479377155974</v>
       </c>
       <c r="C238" s="2">
         <f t="shared" si="20"/>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="B239" s="2">
         <f t="shared" si="19"/>
-        <v>8571.2930766836253</v>
+        <v>8811.2930766836253</v>
       </c>
       <c r="C239" s="2">
         <f t="shared" si="20"/>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="B240" s="2">
         <f t="shared" si="19"/>
-        <v>8643.2392456473171</v>
+        <v>8883.2392456473171</v>
       </c>
       <c r="C240" s="2">
         <f t="shared" si="20"/>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B241" s="2">
         <f t="shared" si="19"/>
-        <v>8715.4864446066731</v>
+        <v>8955.4864446066731</v>
       </c>
       <c r="C241" s="2">
         <f t="shared" si="20"/>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="B242" s="2">
         <f t="shared" si="19"/>
-        <v>8788.0346735616931</v>
+        <v>9028.0346735616931</v>
       </c>
       <c r="C242" s="2">
         <f t="shared" si="20"/>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B243" s="2">
         <f t="shared" si="19"/>
-        <v>8860.8839325123772</v>
+        <v>9100.8839325123772</v>
       </c>
       <c r="C243" s="2">
         <f t="shared" si="20"/>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="B244" s="2">
         <f t="shared" si="19"/>
-        <v>8934.0342214587254</v>
+        <v>9174.0342214587254</v>
       </c>
       <c r="C244" s="2">
         <f t="shared" si="20"/>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="B245" s="2">
         <f t="shared" si="19"/>
-        <v>9007.4855404007376</v>
+        <v>9247.4855404007376</v>
       </c>
       <c r="C245" s="2">
         <f t="shared" si="20"/>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="B246" s="2">
         <f t="shared" si="19"/>
-        <v>9081.2378893384139</v>
+        <v>9321.2378893384139</v>
       </c>
       <c r="C246" s="2">
         <f t="shared" si="20"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="B247" s="2">
         <f t="shared" si="19"/>
-        <v>9155.2912682717524</v>
+        <v>9395.2912682717524</v>
       </c>
       <c r="C247" s="2">
         <f t="shared" si="20"/>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B248" s="2">
         <f t="shared" si="19"/>
-        <v>9229.645677200755</v>
+        <v>9469.645677200755</v>
       </c>
       <c r="C248" s="2">
         <f t="shared" si="20"/>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="B249" s="2">
         <f t="shared" si="19"/>
-        <v>9304.3011161254217</v>
+        <v>9544.3011161254217</v>
       </c>
       <c r="C249" s="2">
         <f t="shared" si="20"/>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B250" s="2">
         <f t="shared" si="19"/>
-        <v>9379.2575850457524</v>
+        <v>9619.2575850457524</v>
       </c>
       <c r="C250" s="2">
         <f t="shared" si="20"/>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="B251" s="2">
         <f t="shared" si="19"/>
-        <v>9454.5150839617472</v>
+        <v>9694.5150839617472</v>
       </c>
       <c r="C251" s="2">
         <f t="shared" si="20"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="B252" s="2">
         <f t="shared" si="19"/>
-        <v>9530.0736128734061</v>
+        <v>9770.0736128734061</v>
       </c>
       <c r="C252" s="2">
         <f t="shared" si="20"/>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B253" s="2">
         <f t="shared" si="19"/>
-        <v>9605.933171780729</v>
+        <v>9845.933171780729</v>
       </c>
       <c r="C253" s="2">
         <f t="shared" si="20"/>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="B254" s="2">
         <f t="shared" si="19"/>
-        <v>9682.093760683716</v>
+        <v>9922.093760683716</v>
       </c>
       <c r="C254" s="2">
         <f t="shared" si="20"/>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B255" s="2">
         <f t="shared" si="19"/>
-        <v>9758.5553795823671</v>
+        <v>9998.5553795823671</v>
       </c>
       <c r="C255" s="2">
         <f t="shared" si="20"/>
@@ -8034,7 +8034,7 @@
       </c>
       <c r="B256" s="2">
         <f t="shared" si="19"/>
-        <v>9835.3180284766822</v>
+        <v>10075.318028476682</v>
       </c>
       <c r="C256" s="2">
         <f t="shared" si="20"/>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B257" s="2">
         <f t="shared" si="19"/>
-        <v>9912.3817073666614</v>
+        <v>10152.381707366661</v>
       </c>
       <c r="C257" s="2">
         <f t="shared" si="20"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B258" s="2">
         <f t="shared" si="19"/>
-        <v>9989.7464162523047</v>
+        <v>10229.746416252305</v>
       </c>
       <c r="C258" s="2">
         <f t="shared" si="20"/>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B259" s="2">
         <f t="shared" si="19"/>
-        <v>10067.412155133612</v>
+        <v>10307.412155133612</v>
       </c>
       <c r="C259" s="2">
         <f t="shared" si="20"/>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="B260" s="2">
         <f t="shared" ref="B260:B323" si="24">LOG(2)*A260+B259</f>
-        <v>10145.378924010583</v>
+        <v>10385.378924010583</v>
       </c>
       <c r="C260" s="2">
         <f t="shared" ref="C260:C323" si="25">LOG(2)*A260*2.5+C259</f>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="B261" s="2">
         <f t="shared" si="24"/>
-        <v>10223.646722883219</v>
+        <v>10463.646722883219</v>
       </c>
       <c r="C261" s="2">
         <f t="shared" si="25"/>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="B262" s="2">
         <f t="shared" si="24"/>
-        <v>10302.215551751518</v>
+        <v>10542.215551751518</v>
       </c>
       <c r="C262" s="2">
         <f t="shared" si="25"/>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="B263" s="2">
         <f t="shared" si="24"/>
-        <v>10381.085410615482</v>
+        <v>10621.085410615482</v>
       </c>
       <c r="C263" s="2">
         <f t="shared" si="25"/>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="B264" s="2">
         <f t="shared" si="24"/>
-        <v>10460.25629947511</v>
+        <v>10700.25629947511</v>
       </c>
       <c r="C264" s="2">
         <f t="shared" si="25"/>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B265" s="2">
         <f t="shared" si="24"/>
-        <v>10539.728218330401</v>
+        <v>10779.728218330401</v>
       </c>
       <c r="C265" s="2">
         <f t="shared" si="25"/>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="B266" s="2">
         <f t="shared" si="24"/>
-        <v>10619.501167181357</v>
+        <v>10859.501167181357</v>
       </c>
       <c r="C266" s="2">
         <f t="shared" si="25"/>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="B267" s="2">
         <f t="shared" si="24"/>
-        <v>10699.575146027977</v>
+        <v>10939.575146027977</v>
       </c>
       <c r="C267" s="2">
         <f t="shared" si="25"/>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="B268" s="2">
         <f t="shared" si="24"/>
-        <v>10779.950154870259</v>
+        <v>11019.950154870259</v>
       </c>
       <c r="C268" s="2">
         <f t="shared" si="25"/>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B269" s="2">
         <f t="shared" si="24"/>
-        <v>10860.626193708205</v>
+        <v>11100.626193708205</v>
       </c>
       <c r="C269" s="2">
         <f t="shared" si="25"/>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B270" s="2">
         <f t="shared" si="24"/>
-        <v>10941.603262541816</v>
+        <v>11181.603262541816</v>
       </c>
       <c r="C270" s="2">
         <f t="shared" si="25"/>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B271" s="2">
         <f t="shared" si="24"/>
-        <v>11022.88136137109</v>
+        <v>11262.88136137109</v>
       </c>
       <c r="C271" s="2">
         <f t="shared" si="25"/>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="B272" s="2">
         <f t="shared" si="24"/>
-        <v>11104.460490196028</v>
+        <v>11344.460490196028</v>
       </c>
       <c r="C272" s="2">
         <f t="shared" si="25"/>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="B273" s="2">
         <f t="shared" si="24"/>
-        <v>11186.340649016631</v>
+        <v>11426.340649016631</v>
       </c>
       <c r="C273" s="2">
         <f t="shared" si="25"/>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="B274" s="2">
         <f t="shared" si="24"/>
-        <v>11268.521837832897</v>
+        <v>11508.521837832897</v>
       </c>
       <c r="C274" s="2">
         <f t="shared" si="25"/>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B275" s="2">
         <f t="shared" si="24"/>
-        <v>11351.004056644828</v>
+        <v>11591.004056644828</v>
       </c>
       <c r="C275" s="2">
         <f t="shared" si="25"/>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="B276" s="2">
         <f t="shared" si="24"/>
-        <v>11433.787305452423</v>
+        <v>11673.787305452423</v>
       </c>
       <c r="C276" s="2">
         <f t="shared" si="25"/>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="B277" s="2">
         <f t="shared" si="24"/>
-        <v>11516.871584255681</v>
+        <v>11756.871584255681</v>
       </c>
       <c r="C277" s="2">
         <f t="shared" si="25"/>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B278" s="2">
         <f t="shared" si="24"/>
-        <v>11600.256893054604</v>
+        <v>11840.256893054604</v>
       </c>
       <c r="C278" s="2">
         <f t="shared" si="25"/>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B279" s="2">
         <f t="shared" si="24"/>
-        <v>11683.943231849191</v>
+        <v>11923.943231849191</v>
       </c>
       <c r="C279" s="2">
         <f t="shared" si="25"/>
@@ -8730,7 +8730,7 @@
       </c>
       <c r="B280" s="2">
         <f t="shared" si="24"/>
-        <v>11767.930600639442</v>
+        <v>12007.930600639442</v>
       </c>
       <c r="C280" s="2">
         <f t="shared" si="25"/>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="B281" s="2">
         <f t="shared" si="24"/>
-        <v>11852.218999425357</v>
+        <v>12092.218999425357</v>
       </c>
       <c r="C281" s="2">
         <f t="shared" si="25"/>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B282" s="2">
         <f t="shared" si="24"/>
-        <v>11936.808428206936</v>
+        <v>12176.808428206936</v>
       </c>
       <c r="C282" s="2">
         <f t="shared" si="25"/>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="B283" s="2">
         <f t="shared" si="24"/>
-        <v>12021.698886984179</v>
+        <v>12261.698886984179</v>
       </c>
       <c r="C283" s="2">
         <f t="shared" si="25"/>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="B284" s="2">
         <f t="shared" si="24"/>
-        <v>12106.890375757086</v>
+        <v>12346.890375757086</v>
       </c>
       <c r="C284" s="2">
         <f t="shared" si="25"/>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="B285" s="2">
         <f t="shared" si="24"/>
-        <v>12192.382894525657</v>
+        <v>12432.382894525657</v>
       </c>
       <c r="C285" s="2">
         <f t="shared" si="25"/>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="B286" s="2">
         <f t="shared" si="24"/>
-        <v>12278.176443289893</v>
+        <v>12518.176443289893</v>
       </c>
       <c r="C286" s="2">
         <f t="shared" si="25"/>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="B287" s="2">
         <f t="shared" si="24"/>
-        <v>12364.271022049792</v>
+        <v>12604.271022049792</v>
       </c>
       <c r="C287" s="2">
         <f t="shared" si="25"/>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="B288" s="2">
         <f t="shared" si="24"/>
-        <v>12450.666630805355</v>
+        <v>12690.666630805355</v>
       </c>
       <c r="C288" s="2">
         <f t="shared" si="25"/>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="B289" s="2">
         <f t="shared" si="24"/>
-        <v>12537.363269556581</v>
+        <v>12777.363269556581</v>
       </c>
       <c r="C289" s="2">
         <f t="shared" si="25"/>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="B290" s="2">
         <f t="shared" si="24"/>
-        <v>12624.360938303471</v>
+        <v>12864.360938303471</v>
       </c>
       <c r="C290" s="2">
         <f t="shared" si="25"/>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="B291" s="2">
         <f t="shared" si="24"/>
-        <v>12711.659637046025</v>
+        <v>12951.659637046025</v>
       </c>
       <c r="C291" s="2">
         <f t="shared" si="25"/>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="B292" s="2">
         <f t="shared" si="24"/>
-        <v>12799.259365784243</v>
+        <v>13039.259365784243</v>
       </c>
       <c r="C292" s="2">
         <f t="shared" si="25"/>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="B293" s="2">
         <f t="shared" si="24"/>
-        <v>12887.160124518125</v>
+        <v>13127.160124518125</v>
       </c>
       <c r="C293" s="2">
         <f t="shared" si="25"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B294" s="2">
         <f t="shared" si="24"/>
-        <v>12975.361913247671</v>
+        <v>13215.361913247671</v>
       </c>
       <c r="C294" s="2">
         <f t="shared" si="25"/>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="B295" s="2">
         <f t="shared" si="24"/>
-        <v>13063.864731972881</v>
+        <v>13303.864731972881</v>
       </c>
       <c r="C295" s="2">
         <f t="shared" si="25"/>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="B296" s="2">
         <f t="shared" si="24"/>
-        <v>13152.668580693755</v>
+        <v>13392.668580693755</v>
       </c>
       <c r="C296" s="2">
         <f t="shared" si="25"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="B297" s="2">
         <f t="shared" si="24"/>
-        <v>13241.773459410293</v>
+        <v>13481.773459410293</v>
       </c>
       <c r="C297" s="2">
         <f t="shared" si="25"/>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B298" s="2">
         <f t="shared" si="24"/>
-        <v>13331.179368122495</v>
+        <v>13571.179368122495</v>
       </c>
       <c r="C298" s="2">
         <f t="shared" si="25"/>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B299" s="2">
         <f t="shared" si="24"/>
-        <v>13420.886306830362</v>
+        <v>13660.886306830362</v>
       </c>
       <c r="C299" s="2">
         <f t="shared" si="25"/>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="B300" s="2">
         <f t="shared" si="24"/>
-        <v>13510.894275533892</v>
+        <v>13750.894275533892</v>
       </c>
       <c r="C300" s="2">
         <f t="shared" si="25"/>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="B301" s="2">
         <f t="shared" si="24"/>
-        <v>13601.203274233087</v>
+        <v>13841.203274233087</v>
       </c>
       <c r="C301" s="2">
         <f t="shared" si="25"/>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="B302" s="2">
         <f t="shared" si="24"/>
-        <v>13691.813302927945</v>
+        <v>13931.813302927945</v>
       </c>
       <c r="C302" s="2">
         <f t="shared" si="25"/>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="B303" s="2">
         <f t="shared" si="24"/>
-        <v>13782.724361618468</v>
+        <v>14022.724361618468</v>
       </c>
       <c r="C303" s="2">
         <f t="shared" si="25"/>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B304" s="2">
         <f t="shared" si="24"/>
-        <v>13873.936450304654</v>
+        <v>14113.936450304654</v>
       </c>
       <c r="C304" s="2">
         <f t="shared" si="25"/>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="B305" s="2">
         <f t="shared" si="24"/>
-        <v>13965.449568986505</v>
+        <v>14205.449568986505</v>
       </c>
       <c r="C305" s="2">
         <f t="shared" si="25"/>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B306" s="2">
         <f t="shared" si="24"/>
-        <v>14057.26371766402</v>
+        <v>14297.26371766402</v>
       </c>
       <c r="C306" s="2">
         <f t="shared" si="25"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B307" s="2">
         <f t="shared" si="24"/>
-        <v>14149.378896337199</v>
+        <v>14389.378896337199</v>
       </c>
       <c r="C307" s="2">
         <f t="shared" si="25"/>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="B308" s="2">
         <f t="shared" si="24"/>
-        <v>14241.795105006042</v>
+        <v>14481.795105006042</v>
       </c>
       <c r="C308" s="2">
         <f t="shared" si="25"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B309" s="2">
         <f t="shared" si="24"/>
-        <v>14334.512343670549</v>
+        <v>14574.512343670549</v>
       </c>
       <c r="C309" s="2">
         <f t="shared" si="25"/>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="B310" s="2">
         <f t="shared" si="24"/>
-        <v>14427.53061233072</v>
+        <v>14667.53061233072</v>
       </c>
       <c r="C310" s="2">
         <f t="shared" si="25"/>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="B311" s="2">
         <f t="shared" si="24"/>
-        <v>14520.849910986553</v>
+        <v>14760.849910986553</v>
       </c>
       <c r="C311" s="2">
         <f t="shared" si="25"/>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="B312" s="2">
         <f t="shared" si="24"/>
-        <v>14614.470239638051</v>
+        <v>14854.470239638051</v>
       </c>
       <c r="C312" s="2">
         <f t="shared" si="25"/>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="B313" s="2">
         <f t="shared" si="24"/>
-        <v>14708.391598285212</v>
+        <v>14948.391598285212</v>
       </c>
       <c r="C313" s="2">
         <f t="shared" si="25"/>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="B314" s="2">
         <f t="shared" si="24"/>
-        <v>14802.613986928038</v>
+        <v>15042.613986928038</v>
       </c>
       <c r="C314" s="2">
         <f t="shared" si="25"/>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="B315" s="2">
         <f t="shared" si="24"/>
-        <v>14897.137405566527</v>
+        <v>15137.137405566527</v>
       </c>
       <c r="C315" s="2">
         <f t="shared" si="25"/>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="B316" s="2">
         <f t="shared" si="24"/>
-        <v>14991.961854200681</v>
+        <v>15231.961854200681</v>
       </c>
       <c r="C316" s="2">
         <f t="shared" si="25"/>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="B317" s="2">
         <f t="shared" si="24"/>
-        <v>15087.087332830499</v>
+        <v>15327.087332830499</v>
       </c>
       <c r="C317" s="2">
         <f t="shared" si="25"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B318" s="2">
         <f t="shared" si="24"/>
-        <v>15182.513841455981</v>
+        <v>15422.513841455981</v>
       </c>
       <c r="C318" s="2">
         <f t="shared" si="25"/>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="B319" s="2">
         <f t="shared" si="24"/>
-        <v>15278.241380077126</v>
+        <v>15518.241380077126</v>
       </c>
       <c r="C319" s="2">
         <f t="shared" si="25"/>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="B320" s="2">
         <f t="shared" si="24"/>
-        <v>15374.269948693936</v>
+        <v>15614.269948693936</v>
       </c>
       <c r="C320" s="2">
         <f t="shared" si="25"/>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="B321" s="2">
         <f t="shared" si="24"/>
-        <v>15470.59954730641</v>
+        <v>15710.59954730641</v>
       </c>
       <c r="C321" s="2">
         <f t="shared" si="25"/>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B322" s="2">
         <f t="shared" si="24"/>
-        <v>15567.230175914548</v>
+        <v>15807.230175914548</v>
       </c>
       <c r="C322" s="2">
         <f t="shared" si="25"/>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="B323" s="2">
         <f t="shared" si="24"/>
-        <v>15664.161834518351</v>
+        <v>15904.161834518351</v>
       </c>
       <c r="C323" s="2">
         <f t="shared" si="25"/>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="B324" s="2">
         <f t="shared" ref="B324:B387" si="29">LOG(2)*A324+B323</f>
-        <v>15761.394523117817</v>
+        <v>16001.394523117817</v>
       </c>
       <c r="C324" s="2">
         <f t="shared" ref="C324:C387" si="30">LOG(2)*A324*2.5+C323</f>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="B325" s="2">
         <f t="shared" si="29"/>
-        <v>15858.928241712947</v>
+        <v>16098.928241712947</v>
       </c>
       <c r="C325" s="2">
         <f t="shared" si="30"/>
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B326" s="2">
         <f t="shared" si="29"/>
-        <v>15956.762990303741</v>
+        <v>16196.762990303741</v>
       </c>
       <c r="C326" s="2">
         <f t="shared" si="30"/>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B327" s="2">
         <f t="shared" si="29"/>
-        <v>16054.8987688902</v>
+        <v>16294.8987688902</v>
       </c>
       <c r="C327" s="2">
         <f t="shared" si="30"/>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="B328" s="2">
         <f t="shared" si="29"/>
-        <v>16153.335577472322</v>
+        <v>16393.33557747232</v>
       </c>
       <c r="C328" s="2">
         <f t="shared" si="30"/>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="B329" s="2">
         <f t="shared" si="29"/>
-        <v>16252.073416050109</v>
+        <v>16492.073416050105</v>
       </c>
       <c r="C329" s="2">
         <f t="shared" si="30"/>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="B330" s="2">
         <f t="shared" si="29"/>
-        <v>16351.112284623559</v>
+        <v>16591.112284623556</v>
       </c>
       <c r="C330" s="2">
         <f t="shared" si="30"/>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B331" s="2">
         <f t="shared" si="29"/>
-        <v>16450.452183192672</v>
+        <v>16690.452183192669</v>
       </c>
       <c r="C331" s="2">
         <f t="shared" si="30"/>
@@ -10238,7 +10238,7 @@
       </c>
       <c r="B332" s="2">
         <f t="shared" si="29"/>
-        <v>16550.093111757451</v>
+        <v>16790.093111757447</v>
       </c>
       <c r="C332" s="2">
         <f t="shared" si="30"/>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="B333" s="2">
         <f t="shared" si="29"/>
-        <v>16650.035070317892</v>
+        <v>16890.035070317888</v>
       </c>
       <c r="C333" s="2">
         <f t="shared" si="30"/>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="B334" s="2">
         <f t="shared" si="29"/>
-        <v>16750.278058873999</v>
+        <v>16990.278058873995</v>
       </c>
       <c r="C334" s="2">
         <f t="shared" si="30"/>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B335" s="2">
         <f t="shared" si="29"/>
-        <v>16850.822077425768</v>
+        <v>17090.822077425764</v>
       </c>
       <c r="C335" s="2">
         <f t="shared" si="30"/>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="B336" s="2">
         <f t="shared" si="29"/>
-        <v>16951.667125973203</v>
+        <v>17191.667125973199</v>
       </c>
       <c r="C336" s="2">
         <f t="shared" si="30"/>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B337" s="2">
         <f t="shared" si="29"/>
-        <v>17052.8132045163</v>
+        <v>17292.813204516297</v>
       </c>
       <c r="C337" s="2">
         <f t="shared" si="30"/>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B338" s="2">
         <f t="shared" si="29"/>
-        <v>17154.260313055063</v>
+        <v>17394.26031305506</v>
       </c>
       <c r="C338" s="2">
         <f t="shared" si="30"/>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B339" s="2">
         <f t="shared" si="29"/>
-        <v>17256.008451589489</v>
+        <v>17496.008451589485</v>
       </c>
       <c r="C339" s="2">
         <f t="shared" si="30"/>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="B340" s="2">
         <f t="shared" si="29"/>
-        <v>17358.05762011958</v>
+        <v>17598.057620119576</v>
       </c>
       <c r="C340" s="2">
         <f t="shared" si="30"/>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="B341" s="2">
         <f t="shared" si="29"/>
-        <v>17460.407818645333</v>
+        <v>17700.40781864533</v>
       </c>
       <c r="C341" s="2">
         <f t="shared" si="30"/>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="B342" s="2">
         <f t="shared" si="29"/>
-        <v>17563.059047166753</v>
+        <v>17803.059047166749</v>
       </c>
       <c r="C342" s="2">
         <f t="shared" si="30"/>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B343" s="2">
         <f t="shared" si="29"/>
-        <v>17666.011305683835</v>
+        <v>17906.011305683831</v>
       </c>
       <c r="C343" s="2">
         <f t="shared" si="30"/>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="B344" s="2">
         <f t="shared" si="29"/>
-        <v>17769.264594196578</v>
+        <v>18009.264594196575</v>
       </c>
       <c r="C344" s="2">
         <f t="shared" si="30"/>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="B345" s="2">
         <f t="shared" si="29"/>
-        <v>17872.818912704988</v>
+        <v>18112.818912704985</v>
       </c>
       <c r="C345" s="2">
         <f t="shared" si="30"/>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B346" s="2">
         <f t="shared" si="29"/>
-        <v>17976.67426120906</v>
+        <v>18216.674261209057</v>
       </c>
       <c r="C346" s="2">
         <f t="shared" si="30"/>
@@ -10673,7 +10673,7 @@
       </c>
       <c r="B347" s="2">
         <f t="shared" si="29"/>
-        <v>18080.830639708798</v>
+        <v>18320.830639708794</v>
       </c>
       <c r="C347" s="2">
         <f t="shared" si="30"/>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="B348" s="2">
         <f t="shared" si="29"/>
-        <v>18185.288048204198</v>
+        <v>18425.288048204195</v>
       </c>
       <c r="C348" s="2">
         <f t="shared" si="30"/>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="B349" s="2">
         <f t="shared" si="29"/>
-        <v>18290.046486695264</v>
+        <v>18530.046486695261</v>
       </c>
       <c r="C349" s="2">
         <f t="shared" si="30"/>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="B350" s="2">
         <f t="shared" si="29"/>
-        <v>18395.105955181993</v>
+        <v>18635.105955181989</v>
       </c>
       <c r="C350" s="2">
         <f t="shared" si="30"/>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="B351" s="2">
         <f t="shared" si="29"/>
-        <v>18500.466453664387</v>
+        <v>18740.466453664383</v>
       </c>
       <c r="C351" s="2">
         <f t="shared" si="30"/>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="B352" s="2">
         <f t="shared" si="29"/>
-        <v>18606.127982142443</v>
+        <v>18846.12798214244</v>
       </c>
       <c r="C352" s="2">
         <f t="shared" si="30"/>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B353" s="2">
         <f t="shared" si="29"/>
-        <v>18712.090540616166</v>
+        <v>18952.090540616162</v>
       </c>
       <c r="C353" s="2">
         <f t="shared" si="30"/>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B354" s="2">
         <f t="shared" si="29"/>
-        <v>18818.35412908555</v>
+        <v>19058.354129085546</v>
       </c>
       <c r="C354" s="2">
         <f t="shared" si="30"/>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="B355" s="2">
         <f t="shared" si="29"/>
-        <v>18924.918747550601</v>
+        <v>19164.918747550597</v>
       </c>
       <c r="C355" s="2">
         <f t="shared" si="30"/>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="B356" s="2">
         <f t="shared" si="29"/>
-        <v>19031.784396011313</v>
+        <v>19271.78439601131</v>
       </c>
       <c r="C356" s="2">
         <f t="shared" si="30"/>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="B357" s="2">
         <f t="shared" si="29"/>
-        <v>19138.951074467692</v>
+        <v>19378.951074467688</v>
       </c>
       <c r="C357" s="2">
         <f t="shared" si="30"/>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="B358" s="2">
         <f t="shared" si="29"/>
-        <v>19246.418782919733</v>
+        <v>19486.418782919729</v>
       </c>
       <c r="C358" s="2">
         <f t="shared" si="30"/>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B359" s="2">
         <f t="shared" si="29"/>
-        <v>19354.187521367439</v>
+        <v>19594.187521367436</v>
       </c>
       <c r="C359" s="2">
         <f t="shared" si="30"/>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="B360" s="2">
         <f t="shared" si="29"/>
-        <v>19462.257289810808</v>
+        <v>19702.257289810805</v>
       </c>
       <c r="C360" s="2">
         <f t="shared" si="30"/>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="B361" s="2">
         <f t="shared" si="29"/>
-        <v>19570.628088249843</v>
+        <v>19810.628088249839</v>
       </c>
       <c r="C361" s="2">
         <f t="shared" si="30"/>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="B362" s="2">
         <f t="shared" si="29"/>
-        <v>19679.29991668454</v>
+        <v>19919.299916684537</v>
       </c>
       <c r="C362" s="2">
         <f t="shared" si="30"/>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="B363" s="2">
         <f t="shared" si="29"/>
-        <v>19788.272775114903</v>
+        <v>20028.2727751149</v>
       </c>
       <c r="C363" s="2">
         <f t="shared" si="30"/>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="B364" s="2">
         <f t="shared" si="29"/>
-        <v>19897.546663540928</v>
+        <v>20137.546663540925</v>
       </c>
       <c r="C364" s="2">
         <f t="shared" si="30"/>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="B365" s="2">
         <f t="shared" si="29"/>
-        <v>20007.121581962616</v>
+        <v>20247.121581962612</v>
       </c>
       <c r="C365" s="2">
         <f t="shared" si="30"/>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B366" s="2">
         <f t="shared" si="29"/>
-        <v>20116.997530379969</v>
+        <v>20356.997530379966</v>
       </c>
       <c r="C366" s="2">
         <f t="shared" si="30"/>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="B367" s="2">
         <f t="shared" si="29"/>
-        <v>20227.174508792985</v>
+        <v>20467.174508792981</v>
       </c>
       <c r="C367" s="2">
         <f t="shared" si="30"/>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="B368" s="2">
         <f t="shared" si="29"/>
-        <v>20337.652517201666</v>
+        <v>20577.652517201663</v>
       </c>
       <c r="C368" s="2">
         <f t="shared" si="30"/>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="B369" s="2">
         <f t="shared" si="29"/>
-        <v>20448.43155560601</v>
+        <v>20688.431555606006</v>
       </c>
       <c r="C369" s="2">
         <f t="shared" si="30"/>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="B370" s="2">
         <f t="shared" si="29"/>
-        <v>20559.51162400602</v>
+        <v>20799.511624006016</v>
       </c>
       <c r="C370" s="2">
         <f t="shared" si="30"/>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="B371" s="2">
         <f t="shared" si="29"/>
-        <v>20670.892722401692</v>
+        <v>20910.892722401688</v>
       </c>
       <c r="C371" s="2">
         <f t="shared" si="30"/>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B372" s="2">
         <f t="shared" si="29"/>
-        <v>20782.574850793029</v>
+        <v>21022.574850793026</v>
       </c>
       <c r="C372" s="2">
         <f t="shared" si="30"/>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="B373" s="2">
         <f t="shared" si="29"/>
-        <v>20894.558009180029</v>
+        <v>21134.558009180026</v>
       </c>
       <c r="C373" s="2">
         <f t="shared" si="30"/>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B374" s="2">
         <f t="shared" si="29"/>
-        <v>21006.842197562695</v>
+        <v>21246.842197562692</v>
       </c>
       <c r="C374" s="2">
         <f t="shared" si="30"/>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="B375" s="2">
         <f t="shared" si="29"/>
-        <v>21119.427415941023</v>
+        <v>21359.42741594102</v>
       </c>
       <c r="C375" s="2">
         <f t="shared" si="30"/>
@@ -11514,7 +11514,7 @@
       </c>
       <c r="B376" s="2">
         <f t="shared" si="29"/>
-        <v>21232.313664315017</v>
+        <v>21472.313664315014</v>
       </c>
       <c r="C376" s="2">
         <f t="shared" si="30"/>
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B377" s="2">
         <f t="shared" si="29"/>
-        <v>21345.500942684674</v>
+        <v>21585.50094268467</v>
       </c>
       <c r="C377" s="2">
         <f t="shared" si="30"/>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="B378" s="2">
         <f t="shared" si="29"/>
-        <v>21458.989251049996</v>
+        <v>21698.989251049992</v>
       </c>
       <c r="C378" s="2">
         <f t="shared" si="30"/>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="B379" s="2">
         <f t="shared" si="29"/>
-        <v>21572.77858941098</v>
+        <v>21812.778589410977</v>
       </c>
       <c r="C379" s="2">
         <f t="shared" si="30"/>
@@ -11630,7 +11630,7 @@
       </c>
       <c r="B380" s="2">
         <f t="shared" si="29"/>
-        <v>21686.86895776763</v>
+        <v>21926.868957767627</v>
       </c>
       <c r="C380" s="2">
         <f t="shared" si="30"/>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="B381" s="2">
         <f t="shared" si="29"/>
-        <v>21801.260356119943</v>
+        <v>22041.260356119939</v>
       </c>
       <c r="C381" s="2">
         <f t="shared" si="30"/>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="B382" s="2">
         <f t="shared" si="29"/>
-        <v>21915.952784467921</v>
+        <v>22155.952784467918</v>
       </c>
       <c r="C382" s="2">
         <f t="shared" si="30"/>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="B383" s="2">
         <f t="shared" si="29"/>
-        <v>22030.946242811562</v>
+        <v>22270.946242811558</v>
       </c>
       <c r="C383" s="2">
         <f t="shared" si="30"/>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="B384" s="2">
         <f t="shared" si="29"/>
-        <v>22146.240731150869</v>
+        <v>22386.240731150865</v>
       </c>
       <c r="C384" s="2">
         <f t="shared" si="30"/>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="B385" s="2">
         <f t="shared" si="29"/>
-        <v>22261.836249485837</v>
+        <v>22501.836249485834</v>
       </c>
       <c r="C385" s="2">
         <f t="shared" si="30"/>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="B386" s="2">
         <f t="shared" si="29"/>
-        <v>22377.732797816469</v>
+        <v>22617.732797816465</v>
       </c>
       <c r="C386" s="2">
         <f t="shared" si="30"/>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="B387" s="2">
         <f t="shared" si="29"/>
-        <v>22493.930376142765</v>
+        <v>22733.930376142762</v>
       </c>
       <c r="C387" s="2">
         <f t="shared" si="30"/>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="B388" s="2">
         <f t="shared" ref="B388:B451" si="34">LOG(2)*A388+B387</f>
-        <v>22610.428984464725</v>
+        <v>22850.428984464721</v>
       </c>
       <c r="C388" s="2">
         <f t="shared" ref="C388:C451" si="35">LOG(2)*A388*2.5+C387</f>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="B389" s="2">
         <f t="shared" si="34"/>
-        <v>22727.22862278235</v>
+        <v>22967.228622782346</v>
       </c>
       <c r="C389" s="2">
         <f t="shared" si="35"/>
@@ -11920,7 +11920,7 @@
       </c>
       <c r="B390" s="2">
         <f t="shared" si="34"/>
-        <v>22844.329291095637</v>
+        <v>23084.329291095633</v>
       </c>
       <c r="C390" s="2">
         <f t="shared" si="35"/>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="B391" s="2">
         <f t="shared" si="34"/>
-        <v>22961.73098940459</v>
+        <v>23201.730989404587</v>
       </c>
       <c r="C391" s="2">
         <f t="shared" si="35"/>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="B392" s="2">
         <f t="shared" si="34"/>
-        <v>23079.433717709206</v>
+        <v>23319.433717709202</v>
       </c>
       <c r="C392" s="2">
         <f t="shared" si="35"/>
@@ -12007,7 +12007,7 @@
       </c>
       <c r="B393" s="2">
         <f t="shared" si="34"/>
-        <v>23197.437476009487</v>
+        <v>23437.437476009483</v>
       </c>
       <c r="C393" s="2">
         <f t="shared" si="35"/>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B394" s="2">
         <f t="shared" si="34"/>
-        <v>23315.742264305431</v>
+        <v>23555.742264305427</v>
       </c>
       <c r="C394" s="2">
         <f t="shared" si="35"/>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="B395" s="2">
         <f t="shared" si="34"/>
-        <v>23434.34808259704</v>
+        <v>23674.348082597036</v>
       </c>
       <c r="C395" s="2">
         <f t="shared" si="35"/>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="B396" s="2">
         <f t="shared" si="34"/>
-        <v>23553.254930884312</v>
+        <v>23793.254930884308</v>
       </c>
       <c r="C396" s="2">
         <f t="shared" si="35"/>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="B397" s="2">
         <f t="shared" si="34"/>
-        <v>23672.462809167249</v>
+        <v>23912.462809167246</v>
       </c>
       <c r="C397" s="2">
         <f t="shared" si="35"/>
@@ -12152,7 +12152,7 @@
       </c>
       <c r="B398" s="2">
         <f t="shared" si="34"/>
-        <v>23791.971717445849</v>
+        <v>24031.971717445846</v>
       </c>
       <c r="C398" s="2">
         <f t="shared" si="35"/>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="B399" s="2">
         <f t="shared" si="34"/>
-        <v>23911.781655720115</v>
+        <v>24151.781655720111</v>
       </c>
       <c r="C399" s="2">
         <f t="shared" si="35"/>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="B400" s="2">
         <f t="shared" si="34"/>
-        <v>24031.892623990043</v>
+        <v>24271.892623990039</v>
       </c>
       <c r="C400" s="2">
         <f t="shared" si="35"/>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="B401" s="2">
         <f t="shared" si="34"/>
-        <v>24152.304622255637</v>
+        <v>24392.304622255633</v>
       </c>
       <c r="C401" s="2">
         <f t="shared" si="35"/>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B402" s="2">
         <f t="shared" si="34"/>
-        <v>24273.017650516893</v>
+        <v>24513.017650516889</v>
       </c>
       <c r="C402" s="2">
         <f t="shared" si="35"/>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="B403" s="2">
         <f t="shared" si="34"/>
-        <v>24394.031708773815</v>
+        <v>24634.031708773811</v>
       </c>
       <c r="C403" s="2">
         <f t="shared" si="35"/>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B404" s="2">
         <f t="shared" si="34"/>
-        <v>24515.346797026399</v>
+        <v>24755.346797026396</v>
       </c>
       <c r="C404" s="2">
         <f t="shared" si="35"/>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="B405" s="2">
         <f t="shared" si="34"/>
-        <v>24636.962915274649</v>
+        <v>24876.962915274646</v>
       </c>
       <c r="C405" s="2">
         <f t="shared" si="35"/>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B406" s="2">
         <f t="shared" si="34"/>
-        <v>24758.880063518562</v>
+        <v>24998.880063518558</v>
       </c>
       <c r="C406" s="2">
         <f t="shared" si="35"/>
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B407" s="2">
         <f t="shared" si="34"/>
-        <v>24881.098241758136</v>
+        <v>25121.098241758133</v>
       </c>
       <c r="C407" s="2">
         <f t="shared" si="35"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="B408" s="2">
         <f t="shared" si="34"/>
-        <v>25003.617449993377</v>
+        <v>25243.617449993373</v>
       </c>
       <c r="C408" s="2">
         <f t="shared" si="35"/>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="B409" s="2">
         <f t="shared" si="34"/>
-        <v>25126.43768822428</v>
+        <v>25366.437688224276</v>
       </c>
       <c r="C409" s="2">
         <f t="shared" si="35"/>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="B410" s="2">
         <f t="shared" si="34"/>
-        <v>25249.558956450848</v>
+        <v>25489.558956450845</v>
       </c>
       <c r="C410" s="2">
         <f t="shared" si="35"/>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="B411" s="2">
         <f t="shared" si="34"/>
-        <v>25372.981254673079</v>
+        <v>25612.981254673075</v>
       </c>
       <c r="C411" s="2">
         <f t="shared" si="35"/>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="B412" s="2">
         <f t="shared" si="34"/>
-        <v>25496.704582890976</v>
+        <v>25736.704582890972</v>
       </c>
       <c r="C412" s="2">
         <f t="shared" si="35"/>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="B413" s="2">
         <f t="shared" si="34"/>
-        <v>25620.728941104535</v>
+        <v>25860.728941104531</v>
       </c>
       <c r="C413" s="2">
         <f t="shared" si="35"/>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B414" s="2">
         <f t="shared" si="34"/>
-        <v>25745.05432931376</v>
+        <v>25985.054329313756</v>
       </c>
       <c r="C414" s="2">
         <f t="shared" si="35"/>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="B415" s="2">
         <f t="shared" si="34"/>
-        <v>25869.680747518647</v>
+        <v>26109.680747518643</v>
       </c>
       <c r="C415" s="2">
         <f t="shared" si="35"/>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="B416" s="2">
         <f t="shared" si="34"/>
-        <v>25994.6081957192</v>
+        <v>26234.608195719196</v>
       </c>
       <c r="C416" s="2">
         <f t="shared" si="35"/>
@@ -12703,7 +12703,7 @@
       </c>
       <c r="B417" s="2">
         <f t="shared" si="34"/>
-        <v>26119.836673915415</v>
+        <v>26359.836673915412</v>
       </c>
       <c r="C417" s="2">
         <f t="shared" si="35"/>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="B418" s="2">
         <f t="shared" si="34"/>
-        <v>26245.366182107296</v>
+        <v>26485.366182107293</v>
       </c>
       <c r="C418" s="2">
         <f t="shared" si="35"/>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="B419" s="2">
         <f t="shared" si="34"/>
-        <v>26371.19672029484</v>
+        <v>26611.196720294836</v>
       </c>
       <c r="C419" s="2">
         <f t="shared" si="35"/>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="B420" s="2">
         <f t="shared" si="34"/>
-        <v>26497.328288478049</v>
+        <v>26737.328288478046</v>
       </c>
       <c r="C420" s="2">
         <f t="shared" si="35"/>
@@ -12819,7 +12819,7 @@
       </c>
       <c r="B421" s="2">
         <f t="shared" si="34"/>
-        <v>26623.760886656921</v>
+        <v>26863.760886656917</v>
       </c>
       <c r="C421" s="2">
         <f t="shared" si="35"/>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="B422" s="2">
         <f t="shared" si="34"/>
-        <v>26750.494514831458</v>
+        <v>26990.494514831455</v>
       </c>
       <c r="C422" s="2">
         <f t="shared" si="35"/>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="B423" s="2">
         <f t="shared" si="34"/>
-        <v>26877.529173001658</v>
+        <v>27117.529173001654</v>
       </c>
       <c r="C423" s="2">
         <f t="shared" si="35"/>
@@ -12906,7 +12906,7 @@
       </c>
       <c r="B424" s="2">
         <f t="shared" si="34"/>
-        <v>27004.864861167523</v>
+        <v>27244.86486116752</v>
       </c>
       <c r="C424" s="2">
         <f t="shared" si="35"/>
@@ -12935,7 +12935,7 @@
       </c>
       <c r="B425" s="2">
         <f t="shared" si="34"/>
-        <v>27132.501579329051</v>
+        <v>27372.501579329048</v>
       </c>
       <c r="C425" s="2">
         <f t="shared" si="35"/>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="B426" s="2">
         <f t="shared" si="34"/>
-        <v>27260.439327486245</v>
+        <v>27500.439327486241</v>
       </c>
       <c r="C426" s="2">
         <f t="shared" si="35"/>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="B427" s="2">
         <f t="shared" si="34"/>
-        <v>27388.678105639101</v>
+        <v>27628.678105639097</v>
       </c>
       <c r="C427" s="2">
         <f t="shared" si="35"/>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="B428" s="2">
         <f t="shared" si="34"/>
-        <v>27517.217913787619</v>
+        <v>27757.217913787616</v>
       </c>
       <c r="C428" s="2">
         <f t="shared" si="35"/>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="B429" s="2">
         <f t="shared" si="34"/>
-        <v>27646.058751931803</v>
+        <v>27886.0587519318</v>
       </c>
       <c r="C429" s="2">
         <f t="shared" si="35"/>
@@ -13080,7 +13080,7 @@
       </c>
       <c r="B430" s="2">
         <f t="shared" si="34"/>
-        <v>27775.20062007165</v>
+        <v>28015.200620071646</v>
       </c>
       <c r="C430" s="2">
         <f t="shared" si="35"/>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="B431" s="2">
         <f t="shared" si="34"/>
-        <v>27904.643518207162</v>
+        <v>28144.643518207158</v>
       </c>
       <c r="C431" s="2">
         <f t="shared" si="35"/>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="B432" s="2">
         <f t="shared" si="34"/>
-        <v>28034.387446338336</v>
+        <v>28274.387446338333</v>
       </c>
       <c r="C432" s="2">
         <f t="shared" si="35"/>
@@ -13167,7 +13167,7 @@
       </c>
       <c r="B433" s="2">
         <f t="shared" si="34"/>
-        <v>28164.432404465177</v>
+        <v>28404.432404465173</v>
       </c>
       <c r="C433" s="2">
         <f t="shared" si="35"/>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="B434" s="2">
         <f t="shared" si="34"/>
-        <v>28294.778392587679</v>
+        <v>28534.778392587676</v>
       </c>
       <c r="C434" s="2">
         <f t="shared" si="35"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="B435" s="2">
         <f t="shared" si="34"/>
-        <v>28425.425410705848</v>
+        <v>28665.425410705844</v>
       </c>
       <c r="C435" s="2">
         <f t="shared" si="35"/>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="B436" s="2">
         <f t="shared" si="34"/>
-        <v>28556.373458819678</v>
+        <v>28796.373458819675</v>
       </c>
       <c r="C436" s="2">
         <f t="shared" si="35"/>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="B437" s="2">
         <f t="shared" si="34"/>
-        <v>28687.622536929175</v>
+        <v>28927.622536929171</v>
       </c>
       <c r="C437" s="2">
         <f t="shared" si="35"/>
@@ -13312,7 +13312,7 @@
       </c>
       <c r="B438" s="2">
         <f t="shared" si="34"/>
-        <v>28819.172645034334</v>
+        <v>29059.17264503433</v>
       </c>
       <c r="C438" s="2">
         <f t="shared" si="35"/>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="B439" s="2">
         <f t="shared" si="34"/>
-        <v>28951.023783135159</v>
+        <v>29191.023783135155</v>
       </c>
       <c r="C439" s="2">
         <f t="shared" si="35"/>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B440" s="2">
         <f t="shared" si="34"/>
-        <v>29083.175951231646</v>
+        <v>29323.175951231642</v>
       </c>
       <c r="C440" s="2">
         <f t="shared" si="35"/>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="B441" s="2">
         <f t="shared" si="34"/>
-        <v>29215.629149323799</v>
+        <v>29455.629149323795</v>
       </c>
       <c r="C441" s="2">
         <f t="shared" si="35"/>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="B442" s="2">
         <f t="shared" si="34"/>
-        <v>29348.383377411614</v>
+        <v>29588.38337741161</v>
       </c>
       <c r="C442" s="2">
         <f t="shared" si="35"/>
@@ -13457,7 +13457,7 @@
       </c>
       <c r="B443" s="2">
         <f t="shared" si="34"/>
-        <v>29481.438635495095</v>
+        <v>29721.438635495091</v>
       </c>
       <c r="C443" s="2">
         <f t="shared" si="35"/>
@@ -13486,7 +13486,7 @@
       </c>
       <c r="B444" s="2">
         <f t="shared" si="34"/>
-        <v>29614.794923574238</v>
+        <v>29854.794923574234</v>
       </c>
       <c r="C444" s="2">
         <f t="shared" si="35"/>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B445" s="2">
         <f t="shared" si="34"/>
-        <v>29748.452241649047</v>
+        <v>29988.452241649044</v>
       </c>
       <c r="C445" s="2">
         <f t="shared" si="35"/>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="B446" s="2">
         <f t="shared" si="34"/>
-        <v>29882.410589719519</v>
+        <v>30122.410589719515</v>
       </c>
       <c r="C446" s="2">
         <f t="shared" si="35"/>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="B447" s="2">
         <f t="shared" si="34"/>
-        <v>30016.669967785656</v>
+        <v>30256.669967785652</v>
       </c>
       <c r="C447" s="2">
         <f t="shared" si="35"/>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="B448" s="2">
         <f t="shared" si="34"/>
-        <v>30151.230375847455</v>
+        <v>30391.230375847452</v>
       </c>
       <c r="C448" s="2">
         <f t="shared" si="35"/>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="B449" s="2">
         <f t="shared" si="34"/>
-        <v>30286.091813904917</v>
+        <v>30526.091813904914</v>
       </c>
       <c r="C449" s="2">
         <f t="shared" si="35"/>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="B450" s="2">
         <f t="shared" si="34"/>
-        <v>30421.254281958045</v>
+        <v>30661.254281958041</v>
       </c>
       <c r="C450" s="2">
         <f t="shared" si="35"/>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="B451" s="2">
         <f t="shared" si="34"/>
-        <v>30556.717780006835</v>
+        <v>30796.717780006831</v>
       </c>
       <c r="C451" s="2">
         <f t="shared" si="35"/>
@@ -13718,7 +13718,7 @@
       </c>
       <c r="B452" s="2">
         <f t="shared" ref="B452:B515" si="39">LOG(2)*A452+B451</f>
-        <v>30692.482308051291</v>
+        <v>30932.482308051287</v>
       </c>
       <c r="C452" s="2">
         <f t="shared" ref="C452:C515" si="40">LOG(2)*A452*2.5+C451</f>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="B453" s="2">
         <f t="shared" si="39"/>
-        <v>30828.547866091409</v>
+        <v>31068.547866091405</v>
       </c>
       <c r="C453" s="2">
         <f t="shared" si="40"/>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="B454" s="2">
         <f t="shared" si="39"/>
-        <v>30964.914454127193</v>
+        <v>31204.914454127189</v>
       </c>
       <c r="C454" s="2">
         <f t="shared" si="40"/>
@@ -13805,7 +13805,7 @@
       </c>
       <c r="B455" s="2">
         <f t="shared" si="39"/>
-        <v>31101.582072158639</v>
+        <v>31341.582072158635</v>
       </c>
       <c r="C455" s="2">
         <f t="shared" si="40"/>
@@ -13834,7 +13834,7 @@
       </c>
       <c r="B456" s="2">
         <f t="shared" si="39"/>
-        <v>31238.550720185751</v>
+        <v>31478.550720185747</v>
       </c>
       <c r="C456" s="2">
         <f t="shared" si="40"/>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="B457" s="2">
         <f t="shared" si="39"/>
-        <v>31375.820398208525</v>
+        <v>31615.820398208522</v>
       </c>
       <c r="C457" s="2">
         <f t="shared" si="40"/>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="B458" s="2">
         <f t="shared" si="39"/>
-        <v>31513.391106226965</v>
+        <v>31753.391106226962</v>
       </c>
       <c r="C458" s="2">
         <f t="shared" si="40"/>
@@ -13921,7 +13921,7 @@
       </c>
       <c r="B459" s="2">
         <f t="shared" si="39"/>
-        <v>31651.262844241068</v>
+        <v>31891.262844241064</v>
       </c>
       <c r="C459" s="2">
         <f t="shared" si="40"/>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="B460" s="2">
         <f t="shared" si="39"/>
-        <v>31789.435612250836</v>
+        <v>32029.435612250832</v>
       </c>
       <c r="C460" s="2">
         <f t="shared" si="40"/>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="B461" s="2">
         <f t="shared" si="39"/>
-        <v>31927.909410256267</v>
+        <v>32167.909410256263</v>
       </c>
       <c r="C461" s="2">
         <f t="shared" si="40"/>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B462" s="2">
         <f t="shared" si="39"/>
-        <v>32066.684238257363</v>
+        <v>32306.68423825736</v>
       </c>
       <c r="C462" s="2">
         <f t="shared" si="40"/>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="B463" s="2">
         <f t="shared" si="39"/>
-        <v>32205.760096254122</v>
+        <v>32445.760096254118</v>
       </c>
       <c r="C463" s="2">
         <f t="shared" si="40"/>
@@ -14066,7 +14066,7 @@
       </c>
       <c r="B464" s="2">
         <f t="shared" si="39"/>
-        <v>32345.136984246546</v>
+        <v>32585.136984246543</v>
       </c>
       <c r="C464" s="2">
         <f t="shared" si="40"/>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="B465" s="2">
         <f t="shared" si="39"/>
-        <v>32484.814902234633</v>
+        <v>32724.81490223463</v>
       </c>
       <c r="C465" s="2">
         <f t="shared" si="40"/>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="B466" s="2">
         <f t="shared" si="39"/>
-        <v>32624.793850218386</v>
+        <v>32864.793850218382</v>
       </c>
       <c r="C466" s="2">
         <f t="shared" si="40"/>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="B467" s="2">
         <f t="shared" si="39"/>
-        <v>32765.073828197801</v>
+        <v>33005.073828197797</v>
       </c>
       <c r="C467" s="2">
         <f t="shared" si="40"/>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="B468" s="2">
         <f t="shared" si="39"/>
-        <v>32905.654836172878</v>
+        <v>33145.654836172878</v>
       </c>
       <c r="C468" s="2">
         <f t="shared" si="40"/>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="B469" s="2">
         <f t="shared" si="39"/>
-        <v>33046.536874143625</v>
+        <v>33286.536874143625</v>
       </c>
       <c r="C469" s="2">
         <f t="shared" si="40"/>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="B470" s="2">
         <f t="shared" si="39"/>
-        <v>33187.71994211003</v>
+        <v>33427.71994211003</v>
       </c>
       <c r="C470" s="2">
         <f t="shared" si="40"/>
@@ -14269,7 +14269,7 @@
       </c>
       <c r="B471" s="2">
         <f t="shared" si="39"/>
-        <v>33329.204040072102</v>
+        <v>33569.204040072102</v>
       </c>
       <c r="C471" s="2">
         <f t="shared" si="40"/>
@@ -14298,7 +14298,7 @@
       </c>
       <c r="B472" s="2">
         <f t="shared" si="39"/>
-        <v>33470.989168029839</v>
+        <v>33710.989168029839</v>
       </c>
       <c r="C472" s="2">
         <f t="shared" si="40"/>
@@ -14327,7 +14327,7 @@
       </c>
       <c r="B473" s="2">
         <f t="shared" si="39"/>
-        <v>33613.075325983235</v>
+        <v>33853.075325983235</v>
       </c>
       <c r="C473" s="2">
         <f t="shared" si="40"/>
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B474" s="2">
         <f t="shared" si="39"/>
-        <v>33755.462513932296</v>
+        <v>33995.462513932296</v>
       </c>
       <c r="C474" s="2">
         <f t="shared" si="40"/>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="B475" s="2">
         <f t="shared" si="39"/>
-        <v>33898.150731877024</v>
+        <v>34138.150731877024</v>
       </c>
       <c r="C475" s="2">
         <f t="shared" si="40"/>
@@ -14414,7 +14414,7 @@
       </c>
       <c r="B476" s="2">
         <f t="shared" si="39"/>
-        <v>34041.139979817417</v>
+        <v>34281.139979817417</v>
       </c>
       <c r="C476" s="2">
         <f t="shared" si="40"/>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="B477" s="2">
         <f t="shared" si="39"/>
-        <v>34184.430257753469</v>
+        <v>34424.430257753469</v>
       </c>
       <c r="C477" s="2">
         <f t="shared" si="40"/>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="B478" s="2">
         <f t="shared" si="39"/>
-        <v>34328.021565685187</v>
+        <v>34568.021565685187</v>
       </c>
       <c r="C478" s="2">
         <f t="shared" si="40"/>
@@ -14501,7 +14501,7 @@
       </c>
       <c r="B479" s="2">
         <f t="shared" si="39"/>
-        <v>34471.913903612571</v>
+        <v>34711.913903612571</v>
       </c>
       <c r="C479" s="2">
         <f t="shared" si="40"/>
@@ -14530,7 +14530,7 @@
       </c>
       <c r="B480" s="2">
         <f t="shared" si="39"/>
-        <v>34616.10727153562</v>
+        <v>34856.10727153562</v>
       </c>
       <c r="C480" s="2">
         <f t="shared" si="40"/>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="B481" s="2">
         <f t="shared" si="39"/>
-        <v>34760.601669454329</v>
+        <v>35000.601669454329</v>
       </c>
       <c r="C481" s="2">
         <f t="shared" si="40"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="B482" s="2">
         <f t="shared" si="39"/>
-        <v>34905.397097368703</v>
+        <v>35145.397097368703</v>
       </c>
       <c r="C482" s="2">
         <f t="shared" si="40"/>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="B483" s="2">
         <f t="shared" si="39"/>
-        <v>35050.493555278743</v>
+        <v>35290.493555278743</v>
       </c>
       <c r="C483" s="2">
         <f t="shared" si="40"/>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="B484" s="2">
         <f t="shared" si="39"/>
-        <v>35195.891043184449</v>
+        <v>35435.891043184449</v>
       </c>
       <c r="C484" s="2">
         <f t="shared" si="40"/>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="B485" s="2">
         <f t="shared" si="39"/>
-        <v>35341.589561085813</v>
+        <v>35581.589561085813</v>
       </c>
       <c r="C485" s="2">
         <f t="shared" si="40"/>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="B486" s="2">
         <f t="shared" si="39"/>
-        <v>35487.589108982844</v>
+        <v>35727.589108982844</v>
       </c>
       <c r="C486" s="2">
         <f t="shared" si="40"/>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="B487" s="2">
         <f t="shared" si="39"/>
-        <v>35633.88968687554</v>
+        <v>35873.88968687554</v>
       </c>
       <c r="C487" s="2">
         <f t="shared" si="40"/>
@@ -14762,7 +14762,7 @@
       </c>
       <c r="B488" s="2">
         <f t="shared" si="39"/>
-        <v>35780.491294763902</v>
+        <v>36020.491294763902</v>
       </c>
       <c r="C488" s="2">
         <f t="shared" si="40"/>
@@ -14791,7 +14791,7 @@
       </c>
       <c r="B489" s="2">
         <f t="shared" si="39"/>
-        <v>35927.393932647923</v>
+        <v>36167.393932647923</v>
       </c>
       <c r="C489" s="2">
         <f t="shared" si="40"/>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="B490" s="2">
         <f t="shared" si="39"/>
-        <v>36074.59760052761</v>
+        <v>36314.59760052761</v>
       </c>
       <c r="C490" s="2">
         <f t="shared" si="40"/>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="B491" s="2">
         <f t="shared" si="39"/>
-        <v>36222.102298402962</v>
+        <v>36462.102298402962</v>
       </c>
       <c r="C491" s="2">
         <f t="shared" si="40"/>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="B492" s="2">
         <f t="shared" si="39"/>
-        <v>36369.908026273974</v>
+        <v>36609.908026273974</v>
       </c>
       <c r="C492" s="2">
         <f t="shared" si="40"/>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="B493" s="2">
         <f t="shared" si="39"/>
-        <v>36518.014784140651</v>
+        <v>36758.014784140651</v>
       </c>
       <c r="C493" s="2">
         <f t="shared" si="40"/>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="B494" s="2">
         <f t="shared" si="39"/>
-        <v>36666.422572002994</v>
+        <v>36906.422572002994</v>
       </c>
       <c r="C494" s="2">
         <f t="shared" si="40"/>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="B495" s="2">
         <f t="shared" si="39"/>
-        <v>36815.131389861002</v>
+        <v>37055.131389861002</v>
       </c>
       <c r="C495" s="2">
         <f t="shared" si="40"/>
@@ -14994,7 +14994,7 @@
       </c>
       <c r="B496" s="2">
         <f t="shared" si="39"/>
-        <v>36964.14123771467</v>
+        <v>37204.14123771467</v>
       </c>
       <c r="C496" s="2">
         <f t="shared" si="40"/>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="B497" s="2">
         <f t="shared" si="39"/>
-        <v>37113.452115564003</v>
+        <v>37353.452115564003</v>
       </c>
       <c r="C497" s="2">
         <f t="shared" si="40"/>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="B498" s="2">
         <f t="shared" si="39"/>
-        <v>37263.064023409002</v>
+        <v>37503.064023409002</v>
       </c>
       <c r="C498" s="2">
         <f t="shared" si="40"/>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="B499" s="2">
         <f t="shared" si="39"/>
-        <v>37412.976961249668</v>
+        <v>37652.976961249668</v>
       </c>
       <c r="C499" s="2">
         <f t="shared" si="40"/>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="B500" s="2">
         <f t="shared" si="39"/>
-        <v>37563.190929085991</v>
+        <v>37803.190929085991</v>
       </c>
       <c r="C500" s="2">
         <f t="shared" si="40"/>
@@ -15139,7 +15139,7 @@
       </c>
       <c r="B501" s="2">
         <f t="shared" si="39"/>
-        <v>37713.705926917981</v>
+        <v>37953.705926917981</v>
       </c>
       <c r="C501" s="2">
         <f t="shared" si="40"/>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="B502" s="2">
         <f t="shared" si="39"/>
-        <v>37864.521954745636</v>
+        <v>38104.521954745636</v>
       </c>
       <c r="C502" s="2">
         <f t="shared" si="40"/>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="B503" s="2">
         <f t="shared" si="39"/>
-        <v>38015.639012568958</v>
+        <v>38255.639012568958</v>
       </c>
       <c r="C503" s="2">
         <f t="shared" si="40"/>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="B504" s="2">
         <f t="shared" si="39"/>
-        <v>38167.057100387938</v>
+        <v>38407.057100387938</v>
       </c>
       <c r="C504" s="2">
         <f t="shared" si="40"/>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="B505" s="2">
         <f t="shared" si="39"/>
-        <v>38318.776218202584</v>
+        <v>38558.776218202584</v>
       </c>
       <c r="C505" s="2">
         <f t="shared" si="40"/>
@@ -15284,7 +15284,7 @@
       </c>
       <c r="B506" s="2">
         <f t="shared" si="39"/>
-        <v>38470.796366012895</v>
+        <v>38710.796366012895</v>
       </c>
       <c r="C506" s="2">
         <f t="shared" si="40"/>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="B507" s="2">
         <f t="shared" si="39"/>
-        <v>38623.117543818873</v>
+        <v>38863.117543818873</v>
       </c>
       <c r="C507" s="2">
         <f t="shared" si="40"/>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B508" s="2">
         <f t="shared" si="39"/>
-        <v>38775.739751620509</v>
+        <v>39015.739751620509</v>
       </c>
       <c r="C508" s="2">
         <f t="shared" si="40"/>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="B509" s="2">
         <f t="shared" si="39"/>
-        <v>38928.662989417811</v>
+        <v>39168.662989417811</v>
       </c>
       <c r="C509" s="2">
         <f t="shared" si="40"/>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B510" s="2">
         <f t="shared" si="39"/>
-        <v>39081.887257210779</v>
+        <v>39321.887257210779</v>
       </c>
       <c r="C510" s="2">
         <f t="shared" si="40"/>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="B511" s="2">
         <f t="shared" si="39"/>
-        <v>39235.412554999413</v>
+        <v>39475.412554999413</v>
       </c>
       <c r="C511" s="2">
         <f t="shared" si="40"/>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="B512" s="2">
         <f t="shared" si="39"/>
-        <v>39389.238882783706</v>
+        <v>39629.238882783706</v>
       </c>
       <c r="C512" s="2">
         <f t="shared" si="40"/>
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B513" s="2">
         <f t="shared" si="39"/>
-        <v>39543.366240563664</v>
+        <v>39783.366240563664</v>
       </c>
       <c r="C513" s="2">
         <f t="shared" si="40"/>
@@ -15516,7 +15516,7 @@
       </c>
       <c r="B514" s="2">
         <f t="shared" si="39"/>
-        <v>39697.794628339288</v>
+        <v>39937.794628339288</v>
       </c>
       <c r="C514" s="2">
         <f t="shared" si="40"/>
@@ -15545,7 +15545,7 @@
       </c>
       <c r="B515" s="2">
         <f t="shared" si="39"/>
-        <v>39852.524046110571</v>
+        <v>40092.524046110571</v>
       </c>
       <c r="C515" s="2">
         <f t="shared" si="40"/>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="B516" s="2">
         <f t="shared" ref="B516:B579" si="44">LOG(2)*A516+B515</f>
-        <v>40007.55449387752</v>
+        <v>40247.55449387752</v>
       </c>
       <c r="C516" s="2">
         <f t="shared" ref="C516:C579" si="45">LOG(2)*A516*2.5+C515</f>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B517" s="2">
         <f t="shared" si="44"/>
-        <v>40162.885971640135</v>
+        <v>40402.885971640135</v>
       </c>
       <c r="C517" s="2">
         <f t="shared" si="45"/>
@@ -15632,7 +15632,7 @@
       </c>
       <c r="B518" s="2">
         <f t="shared" si="44"/>
-        <v>40318.518479398415</v>
+        <v>40558.518479398415</v>
       </c>
       <c r="C518" s="2">
         <f t="shared" si="45"/>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="B519" s="2">
         <f t="shared" si="44"/>
-        <v>40474.452017152355</v>
+        <v>40714.452017152355</v>
       </c>
       <c r="C519" s="2">
         <f t="shared" si="45"/>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="B520" s="2">
         <f t="shared" si="44"/>
-        <v>40630.68658490196</v>
+        <v>40870.68658490196</v>
       </c>
       <c r="C520" s="2">
         <f t="shared" si="45"/>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="B521" s="2">
         <f t="shared" si="44"/>
-        <v>40787.222182647231</v>
+        <v>41027.222182647231</v>
       </c>
       <c r="C521" s="2">
         <f t="shared" si="45"/>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="B522" s="2">
         <f t="shared" si="44"/>
-        <v>40944.058810388167</v>
+        <v>41184.058810388167</v>
       </c>
       <c r="C522" s="2">
         <f t="shared" si="45"/>
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B523" s="2">
         <f t="shared" si="44"/>
-        <v>41101.196468124763</v>
+        <v>41341.196468124763</v>
       </c>
       <c r="C523" s="2">
         <f t="shared" si="45"/>
@@ -15806,7 +15806,7 @@
       </c>
       <c r="B524" s="2">
         <f t="shared" si="44"/>
-        <v>41258.635155857024</v>
+        <v>41498.635155857024</v>
       </c>
       <c r="C524" s="2">
         <f t="shared" si="45"/>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="B525" s="2">
         <f t="shared" si="44"/>
-        <v>41416.374873584951</v>
+        <v>41656.374873584951</v>
       </c>
       <c r="C525" s="2">
         <f t="shared" si="45"/>
@@ -15864,7 +15864,7 @@
       </c>
       <c r="B526" s="2">
         <f t="shared" si="44"/>
-        <v>41574.415621308544</v>
+        <v>41814.415621308544</v>
       </c>
       <c r="C526" s="2">
         <f t="shared" si="45"/>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="B527" s="2">
         <f t="shared" si="44"/>
-        <v>41732.757399027796</v>
+        <v>41972.757399027796</v>
       </c>
       <c r="C527" s="2">
         <f t="shared" si="45"/>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="B528" s="2">
         <f t="shared" si="44"/>
-        <v>41891.400206742714</v>
+        <v>42131.400206742714</v>
       </c>
       <c r="C528" s="2">
         <f t="shared" si="45"/>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="B529" s="2">
         <f t="shared" si="44"/>
-        <v>42050.344044453297</v>
+        <v>42290.344044453297</v>
       </c>
       <c r="C529" s="2">
         <f t="shared" si="45"/>
@@ -15980,7 +15980,7 @@
       </c>
       <c r="B530" s="2">
         <f t="shared" si="44"/>
-        <v>42209.588912159546</v>
+        <v>42449.588912159546</v>
       </c>
       <c r="C530" s="2">
         <f t="shared" si="45"/>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="B531" s="2">
         <f t="shared" si="44"/>
-        <v>42369.134809861454</v>
+        <v>42609.134809861454</v>
       </c>
       <c r="C531" s="2">
         <f t="shared" si="45"/>
@@ -16038,7 +16038,7 @@
       </c>
       <c r="B532" s="2">
         <f t="shared" si="44"/>
-        <v>42528.981737559028</v>
+        <v>42768.981737559028</v>
       </c>
       <c r="C532" s="2">
         <f t="shared" si="45"/>
@@ -16067,7 +16067,7 @@
       </c>
       <c r="B533" s="2">
         <f t="shared" si="44"/>
-        <v>42689.129695252268</v>
+        <v>42929.129695252268</v>
       </c>
       <c r="C533" s="2">
         <f t="shared" si="45"/>
@@ -16096,7 +16096,7 @@
       </c>
       <c r="B534" s="2">
         <f t="shared" si="44"/>
-        <v>42849.578682941166</v>
+        <v>43089.578682941166</v>
       </c>
       <c r="C534" s="2">
         <f t="shared" si="45"/>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="B535" s="2">
         <f t="shared" si="44"/>
-        <v>43010.328700625731</v>
+        <v>43250.328700625731</v>
       </c>
       <c r="C535" s="2">
         <f t="shared" si="45"/>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="B536" s="2">
         <f t="shared" si="44"/>
-        <v>43171.379748305961</v>
+        <v>43411.379748305961</v>
       </c>
       <c r="C536" s="2">
         <f t="shared" si="45"/>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="B537" s="2">
         <f t="shared" si="44"/>
-        <v>43332.731825981857</v>
+        <v>43572.731825981857</v>
       </c>
       <c r="C537" s="2">
         <f t="shared" si="45"/>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="B538" s="2">
         <f t="shared" si="44"/>
-        <v>43494.384933653411</v>
+        <v>43734.384933653411</v>
       </c>
       <c r="C538" s="2">
         <f t="shared" si="45"/>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="B539" s="2">
         <f t="shared" si="44"/>
-        <v>43656.339071320632</v>
+        <v>43896.339071320632</v>
       </c>
       <c r="C539" s="2">
         <f t="shared" si="45"/>
@@ -16270,7 +16270,7 @@
       </c>
       <c r="B540" s="2">
         <f t="shared" si="44"/>
-        <v>43818.594238983518</v>
+        <v>44058.594238983518</v>
       </c>
       <c r="C540" s="2">
         <f t="shared" si="45"/>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="B541" s="2">
         <f t="shared" si="44"/>
-        <v>43981.15043664207</v>
+        <v>44221.15043664207</v>
       </c>
       <c r="C541" s="2">
         <f t="shared" si="45"/>
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B542" s="2">
         <f t="shared" si="44"/>
-        <v>44144.007664296281</v>
+        <v>44384.007664296281</v>
       </c>
       <c r="C542" s="2">
         <f t="shared" si="45"/>
@@ -16357,7 +16357,7 @@
       </c>
       <c r="B543" s="2">
         <f t="shared" si="44"/>
-        <v>44307.165921946158</v>
+        <v>44547.165921946158</v>
       </c>
       <c r="C543" s="2">
         <f t="shared" si="45"/>
@@ -16386,7 +16386,7 @@
       </c>
       <c r="B544" s="2">
         <f t="shared" si="44"/>
-        <v>44470.625209591701</v>
+        <v>44710.625209591701</v>
       </c>
       <c r="C544" s="2">
         <f t="shared" si="45"/>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="B545" s="2">
         <f t="shared" si="44"/>
-        <v>44634.385527232909</v>
+        <v>44874.385527232909</v>
       </c>
       <c r="C545" s="2">
         <f t="shared" si="45"/>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="B546" s="2">
         <f t="shared" si="44"/>
-        <v>44798.446874869776</v>
+        <v>45038.446874869776</v>
       </c>
       <c r="C546" s="2">
         <f t="shared" si="45"/>
@@ -16473,7 +16473,7 @@
       </c>
       <c r="B547" s="2">
         <f t="shared" si="44"/>
-        <v>44962.809252502309</v>
+        <v>45202.809252502309</v>
       </c>
       <c r="C547" s="2">
         <f t="shared" si="45"/>
@@ -16502,7 +16502,7 @@
       </c>
       <c r="B548" s="2">
         <f t="shared" si="44"/>
-        <v>45127.472660130508</v>
+        <v>45367.472660130508</v>
       </c>
       <c r="C548" s="2">
         <f t="shared" si="45"/>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="B549" s="2">
         <f t="shared" si="44"/>
-        <v>45292.437097754373</v>
+        <v>45532.437097754373</v>
       </c>
       <c r="C549" s="2">
         <f t="shared" si="45"/>
@@ -16560,7 +16560,7 @@
       </c>
       <c r="B550" s="2">
         <f t="shared" si="44"/>
-        <v>45457.702565373897</v>
+        <v>45697.702565373897</v>
       </c>
       <c r="C550" s="2">
         <f t="shared" si="45"/>
@@ -16589,7 +16589,7 @@
       </c>
       <c r="B551" s="2">
         <f t="shared" si="44"/>
-        <v>45623.269062989086</v>
+        <v>45863.269062989086</v>
       </c>
       <c r="C551" s="2">
         <f t="shared" si="45"/>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="B552" s="2">
         <f t="shared" si="44"/>
-        <v>45789.136590599941</v>
+        <v>46029.136590599941</v>
       </c>
       <c r="C552" s="2">
         <f t="shared" si="45"/>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="B553" s="2">
         <f t="shared" si="44"/>
-        <v>45955.305148206462</v>
+        <v>46195.305148206462</v>
       </c>
       <c r="C553" s="2">
         <f t="shared" si="45"/>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="B554" s="2">
         <f t="shared" si="44"/>
-        <v>46121.774735808642</v>
+        <v>46361.774735808642</v>
       </c>
       <c r="C554" s="2">
         <f t="shared" si="45"/>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="B555" s="2">
         <f t="shared" si="44"/>
-        <v>46288.545353406487</v>
+        <v>46528.545353406487</v>
       </c>
       <c r="C555" s="2">
         <f t="shared" si="45"/>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="B556" s="2">
         <f t="shared" si="44"/>
-        <v>46455.617000999999</v>
+        <v>46695.617000999999</v>
       </c>
       <c r="C556" s="2">
         <f t="shared" si="45"/>
@@ -16763,7 +16763,7 @@
       </c>
       <c r="B557" s="2">
         <f t="shared" si="44"/>
-        <v>46622.989678589169</v>
+        <v>46862.989678589169</v>
       </c>
       <c r="C557" s="2">
         <f t="shared" si="45"/>
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B558" s="2">
         <f t="shared" si="44"/>
-        <v>46790.663386174005</v>
+        <v>47030.663386174005</v>
       </c>
       <c r="C558" s="2">
         <f t="shared" si="45"/>
@@ -16821,7 +16821,7 @@
       </c>
       <c r="B559" s="2">
         <f t="shared" si="44"/>
-        <v>46958.638123754507</v>
+        <v>47198.638123754507</v>
       </c>
       <c r="C559" s="2">
         <f t="shared" si="45"/>
@@ -16850,7 +16850,7 @@
       </c>
       <c r="B560" s="2">
         <f t="shared" si="44"/>
-        <v>47126.913891330674</v>
+        <v>47366.913891330674</v>
       </c>
       <c r="C560" s="2">
         <f t="shared" si="45"/>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="B561" s="2">
         <f t="shared" si="44"/>
-        <v>47295.490688902501</v>
+        <v>47535.490688902501</v>
       </c>
       <c r="C561" s="2">
         <f t="shared" si="45"/>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="B562" s="2">
         <f t="shared" si="44"/>
-        <v>47464.368516469993</v>
+        <v>47704.368516469993</v>
       </c>
       <c r="C562" s="2">
         <f t="shared" si="45"/>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="B563" s="2">
         <f t="shared" si="44"/>
-        <v>47633.547374033151</v>
+        <v>47873.547374033151</v>
       </c>
       <c r="C563" s="2">
         <f t="shared" si="45"/>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="B564" s="2">
         <f t="shared" si="44"/>
-        <v>47803.027261591975</v>
+        <v>48043.027261591975</v>
       </c>
       <c r="C564" s="2">
         <f t="shared" si="45"/>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="B565" s="2">
         <f t="shared" si="44"/>
-        <v>47972.808179146457</v>
+        <v>48212.808179146457</v>
       </c>
       <c r="C565" s="2">
         <f t="shared" si="45"/>
@@ -17024,7 +17024,7 @@
       </c>
       <c r="B566" s="2">
         <f t="shared" si="44"/>
-        <v>48142.890126696606</v>
+        <v>48382.890126696606</v>
       </c>
       <c r="C566" s="2">
         <f t="shared" si="45"/>
@@ -17053,7 +17053,7 @@
       </c>
       <c r="B567" s="2">
         <f t="shared" si="44"/>
-        <v>48313.27310424242</v>
+        <v>48553.27310424242</v>
       </c>
       <c r="C567" s="2">
         <f t="shared" si="45"/>
@@ -17082,7 +17082,7 @@
       </c>
       <c r="B568" s="2">
         <f t="shared" si="44"/>
-        <v>48483.9571117839</v>
+        <v>48723.9571117839</v>
       </c>
       <c r="C568" s="2">
         <f t="shared" si="45"/>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="B569" s="2">
         <f t="shared" si="44"/>
-        <v>48654.942149321039</v>
+        <v>48894.942149321039</v>
       </c>
       <c r="C569" s="2">
         <f t="shared" si="45"/>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="B570" s="2">
         <f t="shared" si="44"/>
-        <v>48826.228216853844</v>
+        <v>49066.228216853844</v>
       </c>
       <c r="C570" s="2">
         <f t="shared" si="45"/>
@@ -17169,7 +17169,7 @@
       </c>
       <c r="B571" s="2">
         <f t="shared" si="44"/>
-        <v>48997.815314382315</v>
+        <v>49237.815314382315</v>
       </c>
       <c r="C571" s="2">
         <f t="shared" si="45"/>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="B572" s="2">
         <f t="shared" si="44"/>
-        <v>49169.703441906451</v>
+        <v>49409.703441906451</v>
       </c>
       <c r="C572" s="2">
         <f t="shared" si="45"/>
@@ -17227,7 +17227,7 @@
       </c>
       <c r="B573" s="2">
         <f t="shared" si="44"/>
-        <v>49341.892599426246</v>
+        <v>49581.892599426246</v>
       </c>
       <c r="C573" s="2">
         <f t="shared" si="45"/>
@@ -17256,7 +17256,7 @@
       </c>
       <c r="B574" s="2">
         <f t="shared" si="44"/>
-        <v>49514.382786941707</v>
+        <v>49754.382786941707</v>
       </c>
       <c r="C574" s="2">
         <f t="shared" si="45"/>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="B575" s="2">
         <f t="shared" si="44"/>
-        <v>49687.174004452834</v>
+        <v>49927.174004452834</v>
       </c>
       <c r="C575" s="2">
         <f t="shared" si="45"/>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B576" s="2">
         <f t="shared" si="44"/>
-        <v>49860.266251959627</v>
+        <v>50100.266251959627</v>
       </c>
       <c r="C576" s="2">
         <f t="shared" si="45"/>
@@ -17343,7 +17343,7 @@
       </c>
       <c r="B577" s="2">
         <f t="shared" si="44"/>
-        <v>50033.659529462078</v>
+        <v>50273.659529462078</v>
       </c>
       <c r="C577" s="2">
         <f t="shared" si="45"/>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="B578" s="2">
         <f t="shared" si="44"/>
-        <v>50207.353836960196</v>
+        <v>50447.353836960196</v>
       </c>
       <c r="C578" s="2">
         <f t="shared" si="45"/>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="B579" s="2">
         <f t="shared" si="44"/>
-        <v>50381.349174453979</v>
+        <v>50621.349174453979</v>
       </c>
       <c r="C579" s="2">
         <f t="shared" si="45"/>
@@ -17430,7 +17430,7 @@
       </c>
       <c r="B580" s="2">
         <f t="shared" ref="B580:B643" si="49">LOG(2)*A580+B579</f>
-        <v>50555.645541943421</v>
+        <v>50795.645541943421</v>
       </c>
       <c r="C580" s="2">
         <f t="shared" ref="C580:C643" si="50">LOG(2)*A580*2.5+C579</f>
@@ -17459,7 +17459,7 @@
       </c>
       <c r="B581" s="2">
         <f t="shared" si="49"/>
-        <v>50730.242939428528</v>
+        <v>50970.242939428528</v>
       </c>
       <c r="C581" s="2">
         <f t="shared" si="50"/>
@@ -17488,7 +17488,7 @@
       </c>
       <c r="B582" s="2">
         <f t="shared" si="49"/>
-        <v>50905.141366909302</v>
+        <v>51145.141366909302</v>
       </c>
       <c r="C582" s="2">
         <f t="shared" si="50"/>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="B583" s="2">
         <f t="shared" si="49"/>
-        <v>51080.340824385741</v>
+        <v>51320.340824385741</v>
       </c>
       <c r="C583" s="2">
         <f t="shared" si="50"/>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="B584" s="2">
         <f t="shared" si="49"/>
-        <v>51255.841311857839</v>
+        <v>51495.841311857839</v>
       </c>
       <c r="C584" s="2">
         <f t="shared" si="50"/>
@@ -17575,7 +17575,7 @@
       </c>
       <c r="B585" s="2">
         <f t="shared" si="49"/>
-        <v>51431.642829325603</v>
+        <v>51671.642829325603</v>
       </c>
       <c r="C585" s="2">
         <f t="shared" si="50"/>
@@ -17604,7 +17604,7 @@
       </c>
       <c r="B586" s="2">
         <f t="shared" si="49"/>
-        <v>51607.745376789033</v>
+        <v>51847.745376789033</v>
       </c>
       <c r="C586" s="2">
         <f t="shared" si="50"/>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="B587" s="2">
         <f t="shared" si="49"/>
-        <v>51784.148954248129</v>
+        <v>52024.148954248129</v>
       </c>
       <c r="C587" s="2">
         <f t="shared" si="50"/>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="B588" s="2">
         <f t="shared" si="49"/>
-        <v>51960.853561702883</v>
+        <v>52200.853561702883</v>
       </c>
       <c r="C588" s="2">
         <f t="shared" si="50"/>
@@ -17691,7 +17691,7 @@
       </c>
       <c r="B589" s="2">
         <f t="shared" si="49"/>
-        <v>52137.859199153303</v>
+        <v>52377.859199153303</v>
       </c>
       <c r="C589" s="2">
         <f t="shared" si="50"/>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="B590" s="2">
         <f t="shared" si="49"/>
-        <v>52315.165866599389</v>
+        <v>52555.165866599389</v>
       </c>
       <c r="C590" s="2">
         <f t="shared" si="50"/>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="B591" s="2">
         <f t="shared" si="49"/>
-        <v>52492.773564041141</v>
+        <v>52732.773564041141</v>
       </c>
       <c r="C591" s="2">
         <f t="shared" si="50"/>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="B592" s="2">
         <f t="shared" si="49"/>
-        <v>52670.682291478552</v>
+        <v>52910.682291478552</v>
       </c>
       <c r="C592" s="2">
         <f t="shared" si="50"/>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="B593" s="2">
         <f t="shared" si="49"/>
-        <v>52848.892048911628</v>
+        <v>53088.892048911628</v>
       </c>
       <c r="C593" s="2">
         <f t="shared" si="50"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="B594" s="2">
         <f t="shared" si="49"/>
-        <v>53027.40283634037</v>
+        <v>53267.40283634037</v>
       </c>
       <c r="C594" s="2">
         <f t="shared" si="50"/>
@@ -17865,7 +17865,7 @@
       </c>
       <c r="B595" s="2">
         <f t="shared" si="49"/>
-        <v>53206.214653764779</v>
+        <v>53446.214653764779</v>
       </c>
       <c r="C595" s="2">
         <f t="shared" si="50"/>
@@ -17894,7 +17894,7 @@
       </c>
       <c r="B596" s="2">
         <f t="shared" si="49"/>
-        <v>53385.327501184845</v>
+        <v>53625.327501184845</v>
       </c>
       <c r="C596" s="2">
         <f t="shared" si="50"/>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="B597" s="2">
         <f t="shared" si="49"/>
-        <v>53564.741378600578</v>
+        <v>53804.741378600578</v>
       </c>
       <c r="C597" s="2">
         <f t="shared" si="50"/>
@@ -17952,7 +17952,7 @@
       </c>
       <c r="B598" s="2">
         <f t="shared" si="49"/>
-        <v>53744.456286011977</v>
+        <v>53984.456286011977</v>
       </c>
       <c r="C598" s="2">
         <f t="shared" si="50"/>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="B599" s="2">
         <f t="shared" si="49"/>
-        <v>53924.472223419034</v>
+        <v>54164.472223419034</v>
       </c>
       <c r="C599" s="2">
         <f t="shared" si="50"/>
@@ -18010,7 +18010,7 @@
       </c>
       <c r="B600" s="2">
         <f t="shared" si="49"/>
-        <v>54104.789190821757</v>
+        <v>54344.789190821757</v>
       </c>
       <c r="C600" s="2">
         <f t="shared" si="50"/>
@@ -18039,7 +18039,7 @@
       </c>
       <c r="B601" s="2">
         <f t="shared" si="49"/>
-        <v>54285.407188220146</v>
+        <v>54525.407188220146</v>
       </c>
       <c r="C601" s="2">
         <f t="shared" si="50"/>
@@ -18068,7 +18068,7 @@
       </c>
       <c r="B602" s="2">
         <f t="shared" si="49"/>
-        <v>54466.326215614201</v>
+        <v>54706.326215614201</v>
       </c>
       <c r="C602" s="2">
         <f t="shared" si="50"/>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="B603" s="2">
         <f t="shared" si="49"/>
-        <v>54647.546273003914</v>
+        <v>54887.546273003914</v>
       </c>
       <c r="C603" s="2">
         <f t="shared" si="50"/>
@@ -18126,7 +18126,7 @@
       </c>
       <c r="B604" s="2">
         <f t="shared" si="49"/>
-        <v>54829.067360389294</v>
+        <v>55069.067360389294</v>
       </c>
       <c r="C604" s="2">
         <f t="shared" si="50"/>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="B605" s="2">
         <f t="shared" si="49"/>
-        <v>55010.889477770339</v>
+        <v>55250.889477770339</v>
       </c>
       <c r="C605" s="2">
         <f t="shared" si="50"/>
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B606" s="2">
         <f t="shared" si="49"/>
-        <v>55193.01262514705</v>
+        <v>55433.01262514705</v>
       </c>
       <c r="C606" s="2">
         <f t="shared" si="50"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="B607" s="2">
         <f t="shared" si="49"/>
-        <v>55375.43680251942</v>
+        <v>55615.43680251942</v>
       </c>
       <c r="C607" s="2">
         <f t="shared" si="50"/>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B608" s="2">
         <f t="shared" si="49"/>
-        <v>55558.162009887455</v>
+        <v>55798.162009887455</v>
       </c>
       <c r="C608" s="2">
         <f t="shared" si="50"/>
@@ -18271,7 +18271,7 @@
       </c>
       <c r="B609" s="2">
         <f t="shared" si="49"/>
-        <v>55741.188247251157</v>
+        <v>55981.188247251157</v>
       </c>
       <c r="C609" s="2">
         <f t="shared" si="50"/>
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B610" s="2">
         <f t="shared" si="49"/>
-        <v>55924.515514610524</v>
+        <v>56164.515514610524</v>
       </c>
       <c r="C610" s="2">
         <f t="shared" si="50"/>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="B611" s="2">
         <f t="shared" si="49"/>
-        <v>56108.14381196555</v>
+        <v>56348.14381196555</v>
       </c>
       <c r="C611" s="2">
         <f t="shared" si="50"/>
@@ -18358,7 +18358,7 @@
       </c>
       <c r="B612" s="2">
         <f t="shared" si="49"/>
-        <v>56292.073139316242</v>
+        <v>56532.073139316242</v>
       </c>
       <c r="C612" s="2">
         <f t="shared" si="50"/>
@@ -18387,7 +18387,7 @@
       </c>
       <c r="B613" s="2">
         <f t="shared" si="49"/>
-        <v>56476.3034966626</v>
+        <v>56716.3034966626</v>
       </c>
       <c r="C613" s="2">
         <f t="shared" si="50"/>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B614" s="2">
         <f t="shared" si="49"/>
-        <v>56660.834884004624</v>
+        <v>56900.834884004624</v>
       </c>
       <c r="C614" s="2">
         <f t="shared" si="50"/>
@@ -18445,7 +18445,7 @@
       </c>
       <c r="B615" s="2">
         <f t="shared" si="49"/>
-        <v>56845.667301342306</v>
+        <v>57085.667301342306</v>
       </c>
       <c r="C615" s="2">
         <f t="shared" si="50"/>
@@ -18474,7 +18474,7 @@
       </c>
       <c r="B616" s="2">
         <f t="shared" si="49"/>
-        <v>57030.800748675654</v>
+        <v>57270.800748675654</v>
       </c>
       <c r="C616" s="2">
         <f t="shared" si="50"/>
@@ -18503,7 +18503,7 @@
       </c>
       <c r="B617" s="2">
         <f t="shared" si="49"/>
-        <v>57216.235226004668</v>
+        <v>57456.235226004668</v>
       </c>
       <c r="C617" s="2">
         <f t="shared" si="50"/>
@@ -18532,7 +18532,7 @@
       </c>
       <c r="B618" s="2">
         <f t="shared" si="49"/>
-        <v>57401.970733329348</v>
+        <v>57641.970733329348</v>
       </c>
       <c r="C618" s="2">
         <f t="shared" si="50"/>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="B619" s="2">
         <f t="shared" si="49"/>
-        <v>57588.007270649687</v>
+        <v>57828.007270649687</v>
       </c>
       <c r="C619" s="2">
         <f t="shared" si="50"/>
@@ -18590,7 +18590,7 @@
       </c>
       <c r="B620" s="2">
         <f t="shared" si="49"/>
-        <v>57774.344837965691</v>
+        <v>58014.344837965691</v>
       </c>
       <c r="C620" s="2">
         <f t="shared" si="50"/>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="B621" s="2">
         <f t="shared" si="49"/>
-        <v>57960.983435277361</v>
+        <v>58200.983435277361</v>
       </c>
       <c r="C621" s="2">
         <f t="shared" si="50"/>
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B622" s="2">
         <f t="shared" si="49"/>
-        <v>58147.92306258469</v>
+        <v>58387.92306258469</v>
       </c>
       <c r="C622" s="2">
         <f t="shared" si="50"/>
@@ -18677,7 +18677,7 @@
       </c>
       <c r="B623" s="2">
         <f t="shared" si="49"/>
-        <v>58335.163719887685</v>
+        <v>58575.163719887685</v>
       </c>
       <c r="C623" s="2">
         <f t="shared" si="50"/>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="B624" s="2">
         <f t="shared" si="49"/>
-        <v>58522.705407186346</v>
+        <v>58762.705407186346</v>
       </c>
       <c r="C624" s="2">
         <f t="shared" si="50"/>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="B625" s="2">
         <f t="shared" si="49"/>
-        <v>58710.548124480672</v>
+        <v>58950.548124480672</v>
       </c>
       <c r="C625" s="2">
         <f t="shared" si="50"/>
@@ -18764,7 +18764,7 @@
       </c>
       <c r="B626" s="2">
         <f t="shared" si="49"/>
-        <v>58898.691871770658</v>
+        <v>59138.691871770658</v>
       </c>
       <c r="C626" s="2">
         <f t="shared" si="50"/>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="B627" s="2">
         <f t="shared" si="49"/>
-        <v>59087.136649056309</v>
+        <v>59327.136649056309</v>
       </c>
       <c r="C627" s="2">
         <f t="shared" si="50"/>
@@ -18822,7 +18822,7 @@
       </c>
       <c r="B628" s="2">
         <f t="shared" si="49"/>
-        <v>59275.882456337626</v>
+        <v>59515.882456337626</v>
       </c>
       <c r="C628" s="2">
         <f t="shared" si="50"/>
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B629" s="2">
         <f t="shared" si="49"/>
-        <v>59464.929293614608</v>
+        <v>59704.929293614608</v>
       </c>
       <c r="C629" s="2">
         <f t="shared" si="50"/>
@@ -18880,7 +18880,7 @@
       </c>
       <c r="B630" s="2">
         <f t="shared" si="49"/>
-        <v>59654.27716088725</v>
+        <v>59894.27716088725</v>
       </c>
       <c r="C630" s="2">
         <f t="shared" si="50"/>
@@ -18909,7 +18909,7 @@
       </c>
       <c r="B631" s="2">
         <f t="shared" si="49"/>
-        <v>59843.926058155557</v>
+        <v>60083.926058155557</v>
       </c>
       <c r="C631" s="2">
         <f t="shared" si="50"/>
@@ -18938,7 +18938,7 @@
       </c>
       <c r="B632" s="2">
         <f t="shared" si="49"/>
-        <v>60033.87598541953</v>
+        <v>60273.87598541953</v>
       </c>
       <c r="C632" s="2">
         <f t="shared" si="50"/>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="B633" s="2">
         <f t="shared" si="49"/>
-        <v>60224.12694267917</v>
+        <v>60464.12694267917</v>
       </c>
       <c r="C633" s="2">
         <f t="shared" si="50"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="B634" s="2">
         <f t="shared" si="49"/>
-        <v>60414.678929934467</v>
+        <v>60654.678929934467</v>
       </c>
       <c r="C634" s="2">
         <f t="shared" si="50"/>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="B635" s="2">
         <f t="shared" si="49"/>
-        <v>60605.531947185431</v>
+        <v>60845.531947185431</v>
       </c>
       <c r="C635" s="2">
         <f t="shared" si="50"/>
@@ -19054,7 +19054,7 @@
       </c>
       <c r="B636" s="2">
         <f t="shared" si="49"/>
-        <v>60796.68599443206</v>
+        <v>61036.68599443206</v>
       </c>
       <c r="C636" s="2">
         <f t="shared" si="50"/>
@@ -19083,7 +19083,7 @@
       </c>
       <c r="B637" s="2">
         <f t="shared" si="49"/>
-        <v>60988.141071674356</v>
+        <v>61228.141071674356</v>
       </c>
       <c r="C637" s="2">
         <f t="shared" si="50"/>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="B638" s="2">
         <f t="shared" si="49"/>
-        <v>61179.89717891231</v>
+        <v>61419.89717891231</v>
       </c>
       <c r="C638" s="2">
         <f t="shared" si="50"/>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="B639" s="2">
         <f t="shared" si="49"/>
-        <v>61371.95431614593</v>
+        <v>61611.95431614593</v>
       </c>
       <c r="C639" s="2">
         <f t="shared" si="50"/>
@@ -19170,7 +19170,7 @@
       </c>
       <c r="B640" s="2">
         <f t="shared" si="49"/>
-        <v>61564.312483375215</v>
+        <v>61804.312483375215</v>
       </c>
       <c r="C640" s="2">
         <f t="shared" si="50"/>
@@ -19199,7 +19199,7 @@
       </c>
       <c r="B641" s="2">
         <f t="shared" si="49"/>
-        <v>61756.97168060016</v>
+        <v>61996.97168060016</v>
       </c>
       <c r="C641" s="2">
         <f t="shared" si="50"/>
@@ -19228,7 +19228,7 @@
       </c>
       <c r="B642" s="2">
         <f t="shared" si="49"/>
-        <v>61949.93190782077</v>
+        <v>62189.93190782077</v>
       </c>
       <c r="C642" s="2">
         <f t="shared" si="50"/>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="B643" s="2">
         <f t="shared" si="49"/>
-        <v>62143.193165037046</v>
+        <v>62383.193165037046</v>
       </c>
       <c r="C643" s="2">
         <f t="shared" si="50"/>
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B644" s="2">
         <f t="shared" ref="B644:B707" si="54">LOG(2)*A644+B643</f>
-        <v>62336.755452248988</v>
+        <v>62576.755452248988</v>
       </c>
       <c r="C644" s="2">
         <f t="shared" ref="C644:C707" si="55">LOG(2)*A644*2.5+C643</f>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="B645" s="2">
         <f t="shared" si="54"/>
-        <v>62530.618769456589</v>
+        <v>62770.618769456589</v>
       </c>
       <c r="C645" s="2">
         <f t="shared" si="55"/>
@@ -19344,7 +19344,7 @@
       </c>
       <c r="B646" s="2">
         <f t="shared" si="54"/>
-        <v>62724.783116659855</v>
+        <v>62964.783116659855</v>
       </c>
       <c r="C646" s="2">
         <f t="shared" si="55"/>
@@ -19373,7 +19373,7 @@
       </c>
       <c r="B647" s="2">
         <f t="shared" si="54"/>
-        <v>62919.248493858788</v>
+        <v>63159.248493858788</v>
       </c>
       <c r="C647" s="2">
         <f t="shared" si="55"/>
@@ -19402,7 +19402,7 @@
       </c>
       <c r="B648" s="2">
         <f t="shared" si="54"/>
-        <v>63114.014901053386</v>
+        <v>63354.014901053386</v>
       </c>
       <c r="C648" s="2">
         <f t="shared" si="55"/>
@@ -19431,7 +19431,7 @@
       </c>
       <c r="B649" s="2">
         <f t="shared" si="54"/>
-        <v>63309.082338243643</v>
+        <v>63549.082338243643</v>
       </c>
       <c r="C649" s="2">
         <f t="shared" si="55"/>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B650" s="2">
         <f t="shared" si="54"/>
-        <v>63504.450805429566</v>
+        <v>63744.450805429566</v>
       </c>
       <c r="C650" s="2">
         <f t="shared" si="55"/>
@@ -19489,7 +19489,7 @@
       </c>
       <c r="B651" s="2">
         <f t="shared" si="54"/>
-        <v>63700.120302611154</v>
+        <v>63940.120302611154</v>
       </c>
       <c r="C651" s="2">
         <f t="shared" si="55"/>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="B652" s="2">
         <f t="shared" si="54"/>
-        <v>63896.090829788409</v>
+        <v>64136.090829788409</v>
       </c>
       <c r="C652" s="2">
         <f t="shared" si="55"/>
@@ -19547,7 +19547,7 @@
       </c>
       <c r="B653" s="2">
         <f t="shared" si="54"/>
-        <v>64092.362386961322</v>
+        <v>64332.362386961322</v>
       </c>
       <c r="C653" s="2">
         <f t="shared" si="55"/>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B654" s="2">
         <f t="shared" si="54"/>
-        <v>64288.934974129901</v>
+        <v>64528.934974129901</v>
       </c>
       <c r="C654" s="2">
         <f t="shared" si="55"/>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="B655" s="2">
         <f t="shared" si="54"/>
-        <v>64485.808591294146</v>
+        <v>64725.808591294146</v>
       </c>
       <c r="C655" s="2">
         <f t="shared" si="55"/>
@@ -19634,7 +19634,7 @@
       </c>
       <c r="B656" s="2">
         <f t="shared" si="54"/>
-        <v>64682.983238454057</v>
+        <v>64922.983238454057</v>
       </c>
       <c r="C656" s="2">
         <f t="shared" si="55"/>
@@ -19663,7 +19663,7 @@
       </c>
       <c r="B657" s="2">
         <f t="shared" si="54"/>
-        <v>64880.458915609626</v>
+        <v>65120.458915609626</v>
       </c>
       <c r="C657" s="2">
         <f t="shared" si="55"/>
@@ -19692,7 +19692,7 @@
       </c>
       <c r="B658" s="2">
         <f t="shared" si="54"/>
-        <v>65078.235622760862</v>
+        <v>65318.235622760862</v>
       </c>
       <c r="C658" s="2">
         <f t="shared" si="55"/>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="B659" s="2">
         <f t="shared" si="54"/>
-        <v>65276.313359907763</v>
+        <v>65516.313359907763</v>
       </c>
       <c r="C659" s="2">
         <f t="shared" si="55"/>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="B660" s="2">
         <f t="shared" si="54"/>
-        <v>65474.69212705033</v>
+        <v>65714.692127050323</v>
       </c>
       <c r="C660" s="2">
         <f t="shared" si="55"/>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="B661" s="2">
         <f t="shared" si="54"/>
-        <v>65673.371924188556</v>
+        <v>65913.371924188556</v>
       </c>
       <c r="C661" s="2">
         <f t="shared" si="55"/>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="B662" s="2">
         <f t="shared" si="54"/>
-        <v>65872.35275132244</v>
+        <v>66112.35275132244</v>
       </c>
       <c r="C662" s="2">
         <f t="shared" si="55"/>
@@ -19837,7 +19837,7 @@
       </c>
       <c r="B663" s="2">
         <f t="shared" si="54"/>
-        <v>66071.63460845199</v>
+        <v>66311.63460845199</v>
       </c>
       <c r="C663" s="2">
         <f t="shared" si="55"/>
@@ -19866,7 +19866,7 @@
       </c>
       <c r="B664" s="2">
         <f t="shared" si="54"/>
-        <v>66271.217495577206</v>
+        <v>66511.217495577206</v>
       </c>
       <c r="C664" s="2">
         <f t="shared" si="55"/>
@@ -19895,7 +19895,7 @@
       </c>
       <c r="B665" s="2">
         <f t="shared" si="54"/>
-        <v>66471.101412698088</v>
+        <v>66711.101412698088</v>
       </c>
       <c r="C665" s="2">
         <f t="shared" si="55"/>
@@ -19924,7 +19924,7 @@
       </c>
       <c r="B666" s="2">
         <f t="shared" si="54"/>
-        <v>66671.286359814636</v>
+        <v>66911.286359814636</v>
       </c>
       <c r="C666" s="2">
         <f t="shared" si="55"/>
@@ -19953,7 +19953,7 @@
       </c>
       <c r="B667" s="2">
         <f t="shared" si="54"/>
-        <v>66871.77233692685</v>
+        <v>67111.77233692685</v>
       </c>
       <c r="C667" s="2">
         <f t="shared" si="55"/>
@@ -19982,7 +19982,7 @@
       </c>
       <c r="B668" s="2">
         <f t="shared" si="54"/>
-        <v>67072.559344034729</v>
+        <v>67312.559344034729</v>
       </c>
       <c r="C668" s="2">
         <f t="shared" si="55"/>
@@ -20011,7 +20011,7 @@
       </c>
       <c r="B669" s="2">
         <f t="shared" si="54"/>
-        <v>67273.647381138275</v>
+        <v>67513.647381138275</v>
       </c>
       <c r="C669" s="2">
         <f t="shared" si="55"/>
@@ -20040,7 +20040,7 @@
       </c>
       <c r="B670" s="2">
         <f t="shared" si="54"/>
-        <v>67475.036448237472</v>
+        <v>67715.036448237472</v>
       </c>
       <c r="C670" s="2">
         <f t="shared" si="55"/>
@@ -20069,7 +20069,7 @@
       </c>
       <c r="B671" s="2">
         <f t="shared" si="54"/>
-        <v>67676.726545332334</v>
+        <v>67916.726545332334</v>
       </c>
       <c r="C671" s="2">
         <f t="shared" si="55"/>
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B672" s="2">
         <f t="shared" si="54"/>
-        <v>67878.717672422863</v>
+        <v>68118.717672422863</v>
       </c>
       <c r="C672" s="2">
         <f t="shared" si="55"/>
@@ -20127,7 +20127,7 @@
       </c>
       <c r="B673" s="2">
         <f t="shared" si="54"/>
-        <v>68081.009829509057</v>
+        <v>68321.009829509057</v>
       </c>
       <c r="C673" s="2">
         <f t="shared" si="55"/>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="B674" s="2">
         <f t="shared" si="54"/>
-        <v>68283.603016590918</v>
+        <v>68523.603016590918</v>
       </c>
       <c r="C674" s="2">
         <f t="shared" si="55"/>
@@ -20185,7 +20185,7 @@
       </c>
       <c r="B675" s="2">
         <f t="shared" si="54"/>
-        <v>68486.497233668444</v>
+        <v>68726.497233668444</v>
       </c>
       <c r="C675" s="2">
         <f t="shared" si="55"/>
@@ -20214,7 +20214,7 @@
       </c>
       <c r="B676" s="2">
         <f t="shared" si="54"/>
-        <v>68689.692480741636</v>
+        <v>68929.692480741636</v>
       </c>
       <c r="C676" s="2">
         <f t="shared" si="55"/>
@@ -20243,7 +20243,7 @@
       </c>
       <c r="B677" s="2">
         <f t="shared" si="54"/>
-        <v>68893.188757810494</v>
+        <v>69133.188757810494</v>
       </c>
       <c r="C677" s="2">
         <f t="shared" si="55"/>
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B678" s="2">
         <f t="shared" si="54"/>
-        <v>69096.986064875004</v>
+        <v>69336.986064875004</v>
       </c>
       <c r="C678" s="2">
         <f t="shared" si="55"/>
@@ -20301,7 +20301,7 @@
       </c>
       <c r="B679" s="2">
         <f t="shared" si="54"/>
-        <v>69301.084401935179</v>
+        <v>69541.084401935179</v>
       </c>
       <c r="C679" s="2">
         <f t="shared" si="55"/>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="B680" s="2">
         <f t="shared" si="54"/>
-        <v>69505.48376899102</v>
+        <v>69745.48376899102</v>
       </c>
       <c r="C680" s="2">
         <f t="shared" si="55"/>
@@ -20359,7 +20359,7 @@
       </c>
       <c r="B681" s="2">
         <f t="shared" si="54"/>
-        <v>69710.184166042527</v>
+        <v>69950.184166042527</v>
       </c>
       <c r="C681" s="2">
         <f t="shared" si="55"/>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="B682" s="2">
         <f t="shared" si="54"/>
-        <v>69915.1855930897</v>
+        <v>70155.1855930897</v>
       </c>
       <c r="C682" s="2">
         <f t="shared" si="55"/>
@@ -20417,7 +20417,7 @@
       </c>
       <c r="B683" s="2">
         <f t="shared" si="54"/>
-        <v>70120.488050132539</v>
+        <v>70360.488050132539</v>
       </c>
       <c r="C683" s="2">
         <f t="shared" si="55"/>
@@ -20446,7 +20446,7 @@
       </c>
       <c r="B684" s="2">
         <f t="shared" si="54"/>
-        <v>70326.091537171043</v>
+        <v>70566.091537171043</v>
       </c>
       <c r="C684" s="2">
         <f t="shared" si="55"/>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="B685" s="2">
         <f t="shared" si="54"/>
-        <v>70531.996054205199</v>
+        <v>70771.996054205199</v>
       </c>
       <c r="C685" s="2">
         <f t="shared" si="55"/>
@@ -20504,7 +20504,7 @@
       </c>
       <c r="B686" s="2">
         <f t="shared" si="54"/>
-        <v>70738.201601235021</v>
+        <v>70978.201601235021</v>
       </c>
       <c r="C686" s="2">
         <f t="shared" si="55"/>
@@ -20533,7 +20533,7 @@
       </c>
       <c r="B687" s="2">
         <f t="shared" si="54"/>
-        <v>70944.708178260509</v>
+        <v>71184.708178260509</v>
       </c>
       <c r="C687" s="2">
         <f t="shared" si="55"/>
@@ -20562,7 +20562,7 @@
       </c>
       <c r="B688" s="2">
         <f t="shared" si="54"/>
-        <v>71151.515785281663</v>
+        <v>71391.515785281663</v>
       </c>
       <c r="C688" s="2">
         <f t="shared" si="55"/>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="B689" s="2">
         <f t="shared" si="54"/>
-        <v>71358.624422298482</v>
+        <v>71598.624422298482</v>
       </c>
       <c r="C689" s="2">
         <f t="shared" si="55"/>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B690" s="2">
         <f t="shared" si="54"/>
-        <v>71566.034089310968</v>
+        <v>71806.034089310968</v>
       </c>
       <c r="C690" s="2">
         <f t="shared" si="55"/>
@@ -20649,7 +20649,7 @@
       </c>
       <c r="B691" s="2">
         <f t="shared" si="54"/>
-        <v>71773.744786319119</v>
+        <v>72013.744786319119</v>
       </c>
       <c r="C691" s="2">
         <f t="shared" si="55"/>
@@ -20678,7 +20678,7 @@
       </c>
       <c r="B692" s="2">
         <f t="shared" si="54"/>
-        <v>71981.756513322936</v>
+        <v>72221.756513322936</v>
       </c>
       <c r="C692" s="2">
         <f t="shared" si="55"/>
@@ -20707,7 +20707,7 @@
       </c>
       <c r="B693" s="2">
         <f t="shared" si="54"/>
-        <v>72190.069270322405</v>
+        <v>72430.069270322405</v>
       </c>
       <c r="C693" s="2">
         <f t="shared" si="55"/>
@@ -20736,7 +20736,7 @@
       </c>
       <c r="B694" s="2">
         <f t="shared" si="54"/>
-        <v>72398.683057317539</v>
+        <v>72638.683057317539</v>
       </c>
       <c r="C694" s="2">
         <f t="shared" si="55"/>
@@ -20765,7 +20765,7 @@
       </c>
       <c r="B695" s="2">
         <f t="shared" si="54"/>
-        <v>72607.59787430834</v>
+        <v>72847.59787430834</v>
       </c>
       <c r="C695" s="2">
         <f t="shared" si="55"/>
@@ -20794,7 +20794,7 @@
       </c>
       <c r="B696" s="2">
         <f t="shared" si="54"/>
-        <v>72816.813721294806</v>
+        <v>73056.813721294806</v>
       </c>
       <c r="C696" s="2">
         <f t="shared" si="55"/>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="B697" s="2">
         <f t="shared" si="54"/>
-        <v>73026.330598276938</v>
+        <v>73266.330598276938</v>
       </c>
       <c r="C697" s="2">
         <f t="shared" si="55"/>
@@ -20852,7 +20852,7 @@
       </c>
       <c r="B698" s="2">
         <f t="shared" si="54"/>
-        <v>73236.148505254736</v>
+        <v>73476.148505254736</v>
       </c>
       <c r="C698" s="2">
         <f t="shared" si="55"/>
@@ -20881,7 +20881,7 @@
       </c>
       <c r="B699" s="2">
         <f t="shared" si="54"/>
-        <v>73446.2674422282</v>
+        <v>73686.2674422282</v>
       </c>
       <c r="C699" s="2">
         <f t="shared" si="55"/>
@@ -20910,7 +20910,7 @@
       </c>
       <c r="B700" s="2">
         <f t="shared" si="54"/>
-        <v>73656.68740919733</v>
+        <v>73896.68740919733</v>
       </c>
       <c r="C700" s="2">
         <f t="shared" si="55"/>
@@ -20939,7 +20939,7 @@
       </c>
       <c r="B701" s="2">
         <f t="shared" si="54"/>
-        <v>73867.408406162111</v>
+        <v>74107.408406162111</v>
       </c>
       <c r="C701" s="2">
         <f t="shared" si="55"/>
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B702" s="2">
         <f t="shared" si="54"/>
-        <v>74078.430433122558</v>
+        <v>74318.430433122558</v>
       </c>
       <c r="C702" s="2">
         <f t="shared" si="55"/>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="B703" s="2">
         <f t="shared" si="54"/>
-        <v>74289.75349007867</v>
+        <v>74529.75349007867</v>
       </c>
       <c r="C703" s="2">
         <f t="shared" si="55"/>
@@ -21026,7 +21026,7 @@
       </c>
       <c r="B704" s="2">
         <f t="shared" si="54"/>
-        <v>74501.377577030449</v>
+        <v>74741.377577030449</v>
       </c>
       <c r="C704" s="2">
         <f t="shared" si="55"/>
@@ -21055,7 +21055,7 @@
       </c>
       <c r="B705" s="2">
         <f t="shared" si="54"/>
-        <v>74713.302693977894</v>
+        <v>74953.302693977894</v>
       </c>
       <c r="C705" s="2">
         <f t="shared" si="55"/>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="B706" s="2">
         <f t="shared" si="54"/>
-        <v>74925.528840921004</v>
+        <v>75165.528840921004</v>
       </c>
       <c r="C706" s="2">
         <f t="shared" si="55"/>
@@ -21113,7 +21113,7 @@
       </c>
       <c r="B707" s="2">
         <f t="shared" si="54"/>
-        <v>75138.056017859781</v>
+        <v>75378.056017859781</v>
       </c>
       <c r="C707" s="2">
         <f t="shared" si="55"/>
@@ -21142,7 +21142,7 @@
       </c>
       <c r="B708" s="2">
         <f t="shared" ref="B708:B771" si="59">LOG(2)*A708+B707</f>
-        <v>75350.884224794208</v>
+        <v>75590.884224794208</v>
       </c>
       <c r="C708" s="2">
         <f t="shared" ref="C708:C771" si="60">LOG(2)*A708*2.5+C707</f>
@@ -21171,7 +21171,7 @@
       </c>
       <c r="B709" s="2">
         <f t="shared" si="59"/>
-        <v>75564.013461724302</v>
+        <v>75804.013461724302</v>
       </c>
       <c r="C709" s="2">
         <f t="shared" si="60"/>
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B710" s="2">
         <f t="shared" si="59"/>
-        <v>75777.443728650062</v>
+        <v>76017.443728650062</v>
       </c>
       <c r="C710" s="2">
         <f t="shared" si="60"/>
@@ -21229,7 +21229,7 @@
       </c>
       <c r="B711" s="2">
         <f t="shared" si="59"/>
-        <v>75991.175025571487</v>
+        <v>76231.175025571487</v>
       </c>
       <c r="C711" s="2">
         <f t="shared" si="60"/>
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B712" s="2">
         <f t="shared" si="59"/>
-        <v>76205.207352488578</v>
+        <v>76445.207352488578</v>
       </c>
       <c r="C712" s="2">
         <f t="shared" si="60"/>
@@ -21287,7 +21287,7 @@
       </c>
       <c r="B713" s="2">
         <f t="shared" si="59"/>
-        <v>76419.540709401335</v>
+        <v>76659.540709401335</v>
       </c>
       <c r="C713" s="2">
         <f t="shared" si="60"/>
@@ -21316,7 +21316,7 @@
       </c>
       <c r="B714" s="2">
         <f t="shared" si="59"/>
-        <v>76634.175096309758</v>
+        <v>76874.175096309758</v>
       </c>
       <c r="C714" s="2">
         <f t="shared" si="60"/>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="B715" s="2">
         <f t="shared" si="59"/>
-        <v>76849.110513213847</v>
+        <v>77089.110513213847</v>
       </c>
       <c r="C715" s="2">
         <f t="shared" si="60"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B716" s="2">
         <f t="shared" si="59"/>
-        <v>77064.346960113588</v>
+        <v>77304.346960113588</v>
       </c>
       <c r="C716" s="2">
         <f t="shared" si="60"/>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="B717" s="2">
         <f t="shared" si="59"/>
-        <v>77279.884437008994</v>
+        <v>77519.884437008994</v>
       </c>
       <c r="C717" s="2">
         <f t="shared" si="60"/>
@@ -21432,7 +21432,7 @@
       </c>
       <c r="B718" s="2">
         <f t="shared" si="59"/>
-        <v>77495.722943900066</v>
+        <v>77735.722943900066</v>
       </c>
       <c r="C718" s="2">
         <f t="shared" si="60"/>
@@ -21461,7 +21461,7 @@
       </c>
       <c r="B719" s="2">
         <f t="shared" si="59"/>
-        <v>77711.862480786804</v>
+        <v>77951.862480786804</v>
       </c>
       <c r="C719" s="2">
         <f t="shared" si="60"/>
@@ -21490,7 +21490,7 @@
       </c>
       <c r="B720" s="2">
         <f t="shared" si="59"/>
-        <v>77928.303047669207</v>
+        <v>78168.303047669207</v>
       </c>
       <c r="C720" s="2">
         <f t="shared" si="60"/>
@@ -21519,7 +21519,7 @@
       </c>
       <c r="B721" s="2">
         <f t="shared" si="59"/>
-        <v>78145.044644547277</v>
+        <v>78385.044644547277</v>
       </c>
       <c r="C721" s="2">
         <f t="shared" si="60"/>
@@ -21548,7 +21548,7 @@
       </c>
       <c r="B722" s="2">
         <f t="shared" si="59"/>
-        <v>78362.087271421013</v>
+        <v>78602.087271421013</v>
       </c>
       <c r="C722" s="2">
         <f t="shared" si="60"/>
@@ -21577,7 +21577,7 @@
       </c>
       <c r="B723" s="2">
         <f t="shared" si="59"/>
-        <v>78579.430928290414</v>
+        <v>78819.430928290414</v>
       </c>
       <c r="C723" s="2">
         <f t="shared" si="60"/>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="B724" s="2">
         <f t="shared" si="59"/>
-        <v>78797.075615155467</v>
+        <v>79037.075615155467</v>
       </c>
       <c r="C724" s="2">
         <f t="shared" si="60"/>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="B725" s="2">
         <f t="shared" si="59"/>
-        <v>79015.021332016186</v>
+        <v>79255.021332016186</v>
       </c>
       <c r="C725" s="2">
         <f t="shared" si="60"/>
@@ -21664,7 +21664,7 @@
       </c>
       <c r="B726" s="2">
         <f t="shared" si="59"/>
-        <v>79233.26807887257</v>
+        <v>79473.26807887257</v>
       </c>
       <c r="C726" s="2">
         <f t="shared" si="60"/>
@@ -21693,7 +21693,7 @@
       </c>
       <c r="B727" s="2">
         <f t="shared" si="59"/>
-        <v>79451.815855724621</v>
+        <v>79691.815855724621</v>
       </c>
       <c r="C727" s="2">
         <f t="shared" si="60"/>
@@ -21722,7 +21722,7 @@
       </c>
       <c r="B728" s="2">
         <f t="shared" si="59"/>
-        <v>79670.664662572337</v>
+        <v>79910.664662572337</v>
       </c>
       <c r="C728" s="2">
         <f t="shared" si="60"/>
@@ -21751,7 +21751,7 @@
       </c>
       <c r="B729" s="2">
         <f t="shared" si="59"/>
-        <v>79889.814499415719</v>
+        <v>80129.814499415719</v>
       </c>
       <c r="C729" s="2">
         <f t="shared" si="60"/>
@@ -21780,7 +21780,7 @@
       </c>
       <c r="B730" s="2">
         <f t="shared" si="59"/>
-        <v>80109.265366254767</v>
+        <v>80349.265366254767</v>
       </c>
       <c r="C730" s="2">
         <f t="shared" si="60"/>
@@ -21809,7 +21809,7 @@
       </c>
       <c r="B731" s="2">
         <f t="shared" si="59"/>
-        <v>80329.017263089467</v>
+        <v>80569.017263089467</v>
       </c>
       <c r="C731" s="2">
         <f t="shared" si="60"/>
@@ -21838,7 +21838,7 @@
       </c>
       <c r="B732" s="2">
         <f t="shared" si="59"/>
-        <v>80549.070189919832</v>
+        <v>80789.070189919832</v>
       </c>
       <c r="C732" s="2">
         <f t="shared" si="60"/>
@@ -21867,7 +21867,7 @@
       </c>
       <c r="B733" s="2">
         <f t="shared" si="59"/>
-        <v>80769.424146745863</v>
+        <v>81009.424146745863</v>
       </c>
       <c r="C733" s="2">
         <f t="shared" si="60"/>
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B734" s="2">
         <f t="shared" si="59"/>
-        <v>80990.07913356756</v>
+        <v>81230.07913356756</v>
       </c>
       <c r="C734" s="2">
         <f t="shared" si="60"/>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="B735" s="2">
         <f t="shared" si="59"/>
-        <v>81211.035150384923</v>
+        <v>81451.035150384923</v>
       </c>
       <c r="C735" s="2">
         <f t="shared" si="60"/>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="B736" s="2">
         <f t="shared" si="59"/>
-        <v>81432.292197197952</v>
+        <v>81672.292197197952</v>
       </c>
       <c r="C736" s="2">
         <f t="shared" si="60"/>
@@ -21983,7 +21983,7 @@
       </c>
       <c r="B737" s="2">
         <f t="shared" si="59"/>
-        <v>81653.850274006647</v>
+        <v>81893.850274006647</v>
       </c>
       <c r="C737" s="2">
         <f t="shared" si="60"/>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="B738" s="2">
         <f t="shared" si="59"/>
-        <v>81875.709380811008</v>
+        <v>82115.709380811008</v>
       </c>
       <c r="C738" s="2">
         <f t="shared" si="60"/>
@@ -22041,7 +22041,7 @@
       </c>
       <c r="B739" s="2">
         <f t="shared" si="59"/>
-        <v>82097.86951761102</v>
+        <v>82337.86951761102</v>
       </c>
       <c r="C739" s="2">
         <f t="shared" si="60"/>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="B740" s="2">
         <f t="shared" si="59"/>
-        <v>82320.330684406697</v>
+        <v>82560.330684406697</v>
       </c>
       <c r="C740" s="2">
         <f t="shared" si="60"/>
@@ -22099,7 +22099,7 @@
       </c>
       <c r="B741" s="2">
         <f t="shared" si="59"/>
-        <v>82543.092881198041</v>
+        <v>82783.092881198041</v>
       </c>
       <c r="C741" s="2">
         <f t="shared" si="60"/>
@@ -22128,7 +22128,7 @@
       </c>
       <c r="B742" s="2">
         <f t="shared" si="59"/>
-        <v>82766.156107985051</v>
+        <v>83006.156107985051</v>
       </c>
       <c r="C742" s="2">
         <f t="shared" si="60"/>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="B743" s="2">
         <f t="shared" si="59"/>
-        <v>82989.520364767726</v>
+        <v>83229.520364767726</v>
       </c>
       <c r="C743" s="2">
         <f t="shared" si="60"/>
@@ -22186,7 +22186,7 @@
       </c>
       <c r="B744" s="2">
         <f t="shared" si="59"/>
-        <v>83213.185651546068</v>
+        <v>83453.185651546068</v>
       </c>
       <c r="C744" s="2">
         <f t="shared" si="60"/>
@@ -22215,7 +22215,7 @@
       </c>
       <c r="B745" s="2">
         <f t="shared" si="59"/>
-        <v>83437.151968320075</v>
+        <v>83677.151968320075</v>
       </c>
       <c r="C745" s="2">
         <f t="shared" si="60"/>
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B746" s="2">
         <f t="shared" si="59"/>
-        <v>83661.419315089748</v>
+        <v>83901.419315089748</v>
       </c>
       <c r="C746" s="2">
         <f t="shared" si="60"/>
@@ -22273,7 +22273,7 @@
       </c>
       <c r="B747" s="2">
         <f t="shared" si="59"/>
-        <v>83885.987691855073</v>
+        <v>84125.987691855073</v>
       </c>
       <c r="C747" s="2">
         <f t="shared" si="60"/>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="B748" s="2">
         <f t="shared" si="59"/>
-        <v>84110.857098616063</v>
+        <v>84350.857098616063</v>
       </c>
       <c r="C748" s="2">
         <f t="shared" si="60"/>
@@ -22331,7 +22331,7 @@
       </c>
       <c r="B749" s="2">
         <f t="shared" si="59"/>
-        <v>84336.027535372719</v>
+        <v>84576.027535372719</v>
       </c>
       <c r="C749" s="2">
         <f t="shared" si="60"/>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B750" s="2">
         <f t="shared" si="59"/>
-        <v>84561.499002125041</v>
+        <v>84801.499002125041</v>
       </c>
       <c r="C750" s="2">
         <f t="shared" si="60"/>
@@ -22389,7 +22389,7 @@
       </c>
       <c r="B751" s="2">
         <f t="shared" si="59"/>
-        <v>84787.271498873029</v>
+        <v>85027.271498873029</v>
       </c>
       <c r="C751" s="2">
         <f t="shared" si="60"/>
@@ -22418,7 +22418,7 @@
       </c>
       <c r="B752" s="2">
         <f t="shared" si="59"/>
-        <v>85013.345025616683</v>
+        <v>85253.345025616683</v>
       </c>
       <c r="C752" s="2">
         <f t="shared" si="60"/>
@@ -22447,7 +22447,7 @@
       </c>
       <c r="B753" s="2">
         <f t="shared" si="59"/>
-        <v>85239.719582356003</v>
+        <v>85479.719582356003</v>
       </c>
       <c r="C753" s="2">
         <f t="shared" si="60"/>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="B754" s="2">
         <f t="shared" si="59"/>
-        <v>85466.395169090974</v>
+        <v>85706.395169090974</v>
       </c>
       <c r="C754" s="2">
         <f t="shared" si="60"/>
@@ -22505,7 +22505,7 @@
       </c>
       <c r="B755" s="2">
         <f t="shared" si="59"/>
-        <v>85693.371785821611</v>
+        <v>85933.371785821611</v>
       </c>
       <c r="C755" s="2">
         <f t="shared" si="60"/>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="B756" s="2">
         <f t="shared" si="59"/>
-        <v>85920.649432547914</v>
+        <v>86160.649432547914</v>
       </c>
       <c r="C756" s="2">
         <f t="shared" si="60"/>
@@ -22563,7 +22563,7 @@
       </c>
       <c r="B757" s="2">
         <f t="shared" si="59"/>
-        <v>86148.228109269883</v>
+        <v>86388.228109269883</v>
       </c>
       <c r="C757" s="2">
         <f t="shared" si="60"/>
@@ -22592,7 +22592,7 @@
       </c>
       <c r="B758" s="2">
         <f t="shared" si="59"/>
-        <v>86376.107815987518</v>
+        <v>86616.107815987518</v>
       </c>
       <c r="C758" s="2">
         <f t="shared" si="60"/>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="B759" s="2">
         <f t="shared" si="59"/>
-        <v>86604.288552700818</v>
+        <v>86844.288552700818</v>
       </c>
       <c r="C759" s="2">
         <f t="shared" si="60"/>
@@ -22650,7 +22650,7 @@
       </c>
       <c r="B760" s="2">
         <f t="shared" si="59"/>
-        <v>86832.770319409785</v>
+        <v>87072.770319409785</v>
       </c>
       <c r="C760" s="2">
         <f t="shared" si="60"/>
@@ -22679,7 +22679,7 @@
       </c>
       <c r="B761" s="2">
         <f t="shared" si="59"/>
-        <v>87061.553116114417</v>
+        <v>87301.553116114417</v>
       </c>
       <c r="C761" s="2">
         <f t="shared" si="60"/>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="B762" s="2">
         <f t="shared" si="59"/>
-        <v>87290.636942814701</v>
+        <v>87530.636942814701</v>
       </c>
       <c r="C762" s="2">
         <f t="shared" si="60"/>
@@ -22737,7 +22737,7 @@
       </c>
       <c r="B763" s="2">
         <f t="shared" si="59"/>
-        <v>87520.02179951065</v>
+        <v>87760.02179951065</v>
       </c>
       <c r="C763" s="2">
         <f t="shared" si="60"/>
@@ -22766,7 +22766,7 @@
       </c>
       <c r="B764" s="2">
         <f t="shared" si="59"/>
-        <v>87749.707686202266</v>
+        <v>87989.707686202266</v>
       </c>
       <c r="C764" s="2">
         <f t="shared" si="60"/>
@@ -22795,7 +22795,7 @@
       </c>
       <c r="B765" s="2">
         <f t="shared" si="59"/>
-        <v>87979.694602889547</v>
+        <v>88219.694602889547</v>
       </c>
       <c r="C765" s="2">
         <f t="shared" si="60"/>
@@ -22824,7 +22824,7 @@
       </c>
       <c r="B766" s="2">
         <f t="shared" si="59"/>
-        <v>88209.982549572494</v>
+        <v>88449.982549572494</v>
       </c>
       <c r="C766" s="2">
         <f t="shared" si="60"/>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="B767" s="2">
         <f t="shared" si="59"/>
-        <v>88440.571526251108</v>
+        <v>88680.571526251108</v>
       </c>
       <c r="C767" s="2">
         <f t="shared" si="60"/>
@@ -22882,7 +22882,7 @@
       </c>
       <c r="B768" s="2">
         <f t="shared" si="59"/>
-        <v>88671.461532925387</v>
+        <v>88911.461532925387</v>
       </c>
       <c r="C768" s="2">
         <f t="shared" si="60"/>
@@ -22911,7 +22911,7 @@
       </c>
       <c r="B769" s="2">
         <f t="shared" si="59"/>
-        <v>88902.652569595317</v>
+        <v>89142.652569595317</v>
       </c>
       <c r="C769" s="2">
         <f t="shared" si="60"/>
@@ -22940,7 +22940,7 @@
       </c>
       <c r="B770" s="2">
         <f t="shared" si="59"/>
-        <v>89134.144636260913</v>
+        <v>89374.144636260913</v>
       </c>
       <c r="C770" s="2">
         <f t="shared" si="60"/>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="B771" s="2">
         <f t="shared" si="59"/>
-        <v>89365.937732922175</v>
+        <v>89605.937732922175</v>
       </c>
       <c r="C771" s="2">
         <f t="shared" si="60"/>
@@ -22998,7 +22998,7 @@
       </c>
       <c r="B772" s="2">
         <f t="shared" ref="B772:B835" si="64">LOG(2)*A772+B771</f>
-        <v>89598.031859579103</v>
+        <v>89838.031859579103</v>
       </c>
       <c r="C772" s="2">
         <f t="shared" ref="C772:C835" si="65">LOG(2)*A772*2.5+C771</f>
@@ -23027,7 +23027,7 @@
       </c>
       <c r="B773" s="2">
         <f t="shared" si="64"/>
-        <v>89830.427016231697</v>
+        <v>90070.427016231697</v>
       </c>
       <c r="C773" s="2">
         <f t="shared" si="65"/>
@@ -23056,7 +23056,7 @@
       </c>
       <c r="B774" s="2">
         <f t="shared" si="64"/>
-        <v>90063.123202879957</v>
+        <v>90303.123202879957</v>
       </c>
       <c r="C774" s="2">
         <f t="shared" si="65"/>
@@ -23085,7 +23085,7 @@
       </c>
       <c r="B775" s="2">
         <f t="shared" si="64"/>
-        <v>90296.120419523882</v>
+        <v>90536.120419523882</v>
       </c>
       <c r="C775" s="2">
         <f t="shared" si="65"/>
@@ -23114,7 +23114,7 @@
       </c>
       <c r="B776" s="2">
         <f t="shared" si="64"/>
-        <v>90529.418666163474</v>
+        <v>90769.418666163474</v>
       </c>
       <c r="C776" s="2">
         <f t="shared" si="65"/>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="B777" s="2">
         <f t="shared" si="64"/>
-        <v>90763.017942798717</v>
+        <v>91003.017942798717</v>
       </c>
       <c r="C777" s="2">
         <f t="shared" si="65"/>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="B778" s="2">
         <f t="shared" si="64"/>
-        <v>90996.918249429626</v>
+        <v>91236.918249429626</v>
       </c>
       <c r="C778" s="2">
         <f t="shared" si="65"/>
@@ -23201,7 +23201,7 @@
       </c>
       <c r="B779" s="2">
         <f t="shared" si="64"/>
-        <v>91231.1195860562</v>
+        <v>91471.1195860562</v>
       </c>
       <c r="C779" s="2">
         <f t="shared" si="65"/>
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B780" s="2">
         <f t="shared" si="64"/>
-        <v>91465.621952678441</v>
+        <v>91705.621952678441</v>
       </c>
       <c r="C780" s="2">
         <f t="shared" si="65"/>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="B781" s="2">
         <f t="shared" si="64"/>
-        <v>91700.425349296347</v>
+        <v>91940.425349296347</v>
       </c>
       <c r="C781" s="2">
         <f t="shared" si="65"/>
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B782" s="2">
         <f t="shared" si="64"/>
-        <v>91935.529775909919</v>
+        <v>92175.529775909919</v>
       </c>
       <c r="C782" s="2">
         <f t="shared" si="65"/>
@@ -23317,7 +23317,7 @@
       </c>
       <c r="B783" s="2">
         <f t="shared" si="64"/>
-        <v>92170.935232519158</v>
+        <v>92410.935232519158</v>
       </c>
       <c r="C783" s="2">
         <f t="shared" si="65"/>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="B784" s="2">
         <f t="shared" si="64"/>
-        <v>92406.641719124062</v>
+        <v>92646.641719124062</v>
       </c>
       <c r="C784" s="2">
         <f t="shared" si="65"/>
@@ -23375,7 +23375,7 @@
       </c>
       <c r="B785" s="2">
         <f t="shared" si="64"/>
-        <v>92642.649235724617</v>
+        <v>92882.649235724617</v>
       </c>
       <c r="C785" s="2">
         <f t="shared" si="65"/>
@@ -23404,7 +23404,7 @@
       </c>
       <c r="B786" s="2">
         <f t="shared" si="64"/>
-        <v>92878.957782320838</v>
+        <v>93118.957782320838</v>
       </c>
       <c r="C786" s="2">
         <f t="shared" si="65"/>
@@ -23433,7 +23433,7 @@
       </c>
       <c r="B787" s="2">
         <f t="shared" si="64"/>
-        <v>93115.567358912725</v>
+        <v>93355.567358912725</v>
       </c>
       <c r="C787" s="2">
         <f t="shared" si="65"/>
@@ -23462,7 +23462,7 @@
       </c>
       <c r="B788" s="2">
         <f t="shared" si="64"/>
-        <v>93352.477965500279</v>
+        <v>93592.477965500279</v>
       </c>
       <c r="C788" s="2">
         <f t="shared" si="65"/>
@@ -23491,7 +23491,7 @@
       </c>
       <c r="B789" s="2">
         <f t="shared" si="64"/>
-        <v>93589.689602083497</v>
+        <v>93829.689602083497</v>
       </c>
       <c r="C789" s="2">
         <f t="shared" si="65"/>
@@ -23520,7 +23520,7 @@
       </c>
       <c r="B790" s="2">
         <f t="shared" si="64"/>
-        <v>93827.202268662382</v>
+        <v>94067.202268662382</v>
       </c>
       <c r="C790" s="2">
         <f t="shared" si="65"/>
@@ -23549,7 +23549,7 @@
       </c>
       <c r="B791" s="2">
         <f t="shared" si="64"/>
-        <v>94065.015965236933</v>
+        <v>94305.015965236933</v>
       </c>
       <c r="C791" s="2">
         <f t="shared" si="65"/>
@@ -23578,7 +23578,7 @@
       </c>
       <c r="B792" s="2">
         <f t="shared" si="64"/>
-        <v>94303.130691807135</v>
+        <v>94543.130691807135</v>
       </c>
       <c r="C792" s="2">
         <f t="shared" si="65"/>
@@ -23607,7 +23607,7 @@
       </c>
       <c r="B793" s="2">
         <f t="shared" si="64"/>
-        <v>94541.546448373003</v>
+        <v>94781.546448373003</v>
       </c>
       <c r="C793" s="2">
         <f t="shared" si="65"/>
@@ -23636,7 +23636,7 @@
       </c>
       <c r="B794" s="2">
         <f t="shared" si="64"/>
-        <v>94780.263234934537</v>
+        <v>95020.263234934537</v>
       </c>
       <c r="C794" s="2">
         <f t="shared" si="65"/>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="B795" s="2">
         <f t="shared" si="64"/>
-        <v>95019.281051491736</v>
+        <v>95259.281051491736</v>
       </c>
       <c r="C795" s="2">
         <f t="shared" si="65"/>
@@ -23694,7 +23694,7 @@
       </c>
       <c r="B796" s="2">
         <f t="shared" si="64"/>
-        <v>95258.599898044602</v>
+        <v>95498.599898044602</v>
       </c>
       <c r="C796" s="2">
         <f t="shared" si="65"/>
@@ -23723,7 +23723,7 @@
       </c>
       <c r="B797" s="2">
         <f t="shared" si="64"/>
-        <v>95498.219774593133</v>
+        <v>95738.219774593133</v>
       </c>
       <c r="C797" s="2">
         <f t="shared" si="65"/>
@@ -23752,7 +23752,7 @@
       </c>
       <c r="B798" s="2">
         <f t="shared" si="64"/>
-        <v>95738.140681137331</v>
+        <v>95978.140681137331</v>
       </c>
       <c r="C798" s="2">
         <f t="shared" si="65"/>
@@ -23781,7 +23781,7 @@
       </c>
       <c r="B799" s="2">
         <f t="shared" si="64"/>
-        <v>95978.362617677194</v>
+        <v>96218.362617677194</v>
       </c>
       <c r="C799" s="2">
         <f t="shared" si="65"/>
@@ -23810,7 +23810,7 @@
       </c>
       <c r="B800" s="2">
         <f t="shared" si="64"/>
-        <v>96218.885584212709</v>
+        <v>96458.885584212709</v>
       </c>
       <c r="C800" s="2">
         <f t="shared" si="65"/>
@@ -23839,7 +23839,7 @@
       </c>
       <c r="B801" s="2">
         <f t="shared" si="64"/>
-        <v>96459.709580743889</v>
+        <v>96699.709580743889</v>
       </c>
       <c r="C801" s="2">
         <f t="shared" si="65"/>
@@ -23868,7 +23868,7 @@
       </c>
       <c r="B802" s="2">
         <f t="shared" si="64"/>
-        <v>96700.834607270735</v>
+        <v>96940.834607270735</v>
       </c>
       <c r="C802" s="2">
         <f t="shared" si="65"/>
@@ -23897,7 +23897,7 @@
       </c>
       <c r="B803" s="2">
         <f t="shared" si="64"/>
-        <v>96942.260663793248</v>
+        <v>97182.260663793248</v>
       </c>
       <c r="C803" s="2">
         <f t="shared" si="65"/>
@@ -23926,7 +23926,7 @@
       </c>
       <c r="B804" s="2">
         <f t="shared" si="64"/>
-        <v>97183.987750311426</v>
+        <v>97423.987750311426</v>
       </c>
       <c r="C804" s="2">
         <f t="shared" si="65"/>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="B805" s="2">
         <f t="shared" si="64"/>
-        <v>97426.01586682527</v>
+        <v>97666.01586682527</v>
       </c>
       <c r="C805" s="2">
         <f t="shared" si="65"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="B806" s="2">
         <f t="shared" si="64"/>
-        <v>97668.34501333478</v>
+        <v>97908.34501333478</v>
       </c>
       <c r="C806" s="2">
         <f t="shared" si="65"/>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="B807" s="2">
         <f t="shared" si="64"/>
-        <v>97910.975189839955</v>
+        <v>98150.975189839955</v>
       </c>
       <c r="C807" s="2">
         <f t="shared" si="65"/>
@@ -24042,7 +24042,7 @@
       </c>
       <c r="B808" s="2">
         <f t="shared" si="64"/>
-        <v>98153.906396340783</v>
+        <v>98393.906396340783</v>
       </c>
       <c r="C808" s="2">
         <f t="shared" si="65"/>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="B809" s="2">
         <f t="shared" si="64"/>
-        <v>98397.138632837276</v>
+        <v>98637.138632837276</v>
       </c>
       <c r="C809" s="2">
         <f t="shared" si="65"/>
@@ -24100,7 +24100,7 @@
       </c>
       <c r="B810" s="2">
         <f t="shared" si="64"/>
-        <v>98640.671899329434</v>
+        <v>98880.671899329434</v>
       </c>
       <c r="C810" s="2">
         <f t="shared" si="65"/>
@@ -24129,7 +24129,7 @@
       </c>
       <c r="B811" s="2">
         <f t="shared" si="64"/>
-        <v>98884.506195817259</v>
+        <v>99124.506195817259</v>
       </c>
       <c r="C811" s="2">
         <f t="shared" si="65"/>
@@ -24158,7 +24158,7 @@
       </c>
       <c r="B812" s="2">
         <f t="shared" si="64"/>
-        <v>99128.64152230075</v>
+        <v>99368.64152230075</v>
       </c>
       <c r="C812" s="2">
         <f t="shared" si="65"/>
@@ -24187,7 +24187,7 @@
       </c>
       <c r="B813" s="2">
         <f t="shared" si="64"/>
-        <v>99373.077878779906</v>
+        <v>99613.077878779906</v>
       </c>
       <c r="C813" s="2">
         <f t="shared" si="65"/>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="B814" s="2">
         <f t="shared" si="64"/>
-        <v>99617.815265254729</v>
+        <v>99857.815265254729</v>
       </c>
       <c r="C814" s="2">
         <f t="shared" si="65"/>
@@ -24245,7 +24245,7 @@
       </c>
       <c r="B815" s="2">
         <f t="shared" si="64"/>
-        <v>99862.853681725202</v>
+        <v>100102.8536817252</v>
       </c>
       <c r="C815" s="2">
         <f t="shared" si="65"/>
@@ -24274,7 +24274,7 @@
       </c>
       <c r="B816" s="2">
         <f t="shared" si="64"/>
-        <v>100108.19312819134</v>
+        <v>100348.19312819134</v>
       </c>
       <c r="C816" s="2">
         <f t="shared" si="65"/>
@@ -24303,7 +24303,7 @@
       </c>
       <c r="B817" s="2">
         <f t="shared" si="64"/>
-        <v>100353.83360465315</v>
+        <v>100593.83360465315</v>
       </c>
       <c r="C817" s="2">
         <f t="shared" si="65"/>
@@ -24332,7 +24332,7 @@
       </c>
       <c r="B818" s="2">
         <f t="shared" si="64"/>
-        <v>100599.77511111062</v>
+        <v>100839.77511111062</v>
       </c>
       <c r="C818" s="2">
         <f t="shared" si="65"/>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="B819" s="2">
         <f t="shared" si="64"/>
-        <v>100846.01764756376</v>
+        <v>101086.01764756376</v>
       </c>
       <c r="C819" s="2">
         <f t="shared" si="65"/>
@@ -24390,7 +24390,7 @@
       </c>
       <c r="B820" s="2">
         <f t="shared" si="64"/>
-        <v>101092.56121401256</v>
+        <v>101332.56121401256</v>
       </c>
       <c r="C820" s="2">
         <f t="shared" si="65"/>
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B821" s="2">
         <f t="shared" si="64"/>
-        <v>101339.40581045703</v>
+        <v>101579.40581045703</v>
       </c>
       <c r="C821" s="2">
         <f t="shared" si="65"/>
@@ -24448,7 +24448,7 @@
       </c>
       <c r="B822" s="2">
         <f t="shared" si="64"/>
-        <v>101586.55143689716</v>
+        <v>101826.55143689716</v>
       </c>
       <c r="C822" s="2">
         <f t="shared" si="65"/>
@@ -24477,7 +24477,7 @@
       </c>
       <c r="B823" s="2">
         <f t="shared" si="64"/>
-        <v>101833.99809333295</v>
+        <v>102073.99809333295</v>
       </c>
       <c r="C823" s="2">
         <f t="shared" si="65"/>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="B824" s="2">
         <f t="shared" si="64"/>
-        <v>102081.7457797644</v>
+        <v>102321.7457797644</v>
       </c>
       <c r="C824" s="2">
         <f t="shared" si="65"/>
@@ -24535,7 +24535,7 @@
       </c>
       <c r="B825" s="2">
         <f t="shared" si="64"/>
-        <v>102329.79449619152</v>
+        <v>102569.79449619152</v>
       </c>
       <c r="C825" s="2">
         <f t="shared" si="65"/>
@@ -24564,7 +24564,7 @@
       </c>
       <c r="B826" s="2">
         <f t="shared" si="64"/>
-        <v>102578.1442426143</v>
+        <v>102818.1442426143</v>
       </c>
       <c r="C826" s="2">
         <f t="shared" si="65"/>
@@ -24593,7 +24593,7 @@
       </c>
       <c r="B827" s="2">
         <f t="shared" si="64"/>
-        <v>102826.79501903275</v>
+        <v>103066.79501903275</v>
       </c>
       <c r="C827" s="2">
         <f t="shared" si="65"/>
@@ -24622,7 +24622,7 @@
       </c>
       <c r="B828" s="2">
         <f t="shared" si="64"/>
-        <v>103075.74682544687</v>
+        <v>103315.74682544687</v>
       </c>
       <c r="C828" s="2">
         <f t="shared" si="65"/>
@@ -24651,7 +24651,7 @@
       </c>
       <c r="B829" s="2">
         <f t="shared" si="64"/>
-        <v>103324.99966185665</v>
+        <v>103564.99966185665</v>
       </c>
       <c r="C829" s="2">
         <f t="shared" si="65"/>
@@ -24680,7 +24680,7 @@
       </c>
       <c r="B830" s="2">
         <f t="shared" si="64"/>
-        <v>103574.5535282621</v>
+        <v>103814.5535282621</v>
       </c>
       <c r="C830" s="2">
         <f t="shared" si="65"/>
@@ -24709,7 +24709,7 @@
       </c>
       <c r="B831" s="2">
         <f t="shared" si="64"/>
-        <v>103824.4084246632</v>
+        <v>104064.4084246632</v>
       </c>
       <c r="C831" s="2">
         <f t="shared" si="65"/>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="B832" s="2">
         <f t="shared" si="64"/>
-        <v>104074.56435105996</v>
+        <v>104314.56435105996</v>
       </c>
       <c r="C832" s="2">
         <f t="shared" si="65"/>
@@ -24767,7 +24767,7 @@
       </c>
       <c r="B833" s="2">
         <f t="shared" si="64"/>
-        <v>104325.02130745239</v>
+        <v>104565.02130745239</v>
       </c>
       <c r="C833" s="2">
         <f t="shared" si="65"/>
@@ -24796,7 +24796,7 @@
       </c>
       <c r="B834" s="2">
         <f t="shared" si="64"/>
-        <v>104575.77929384049</v>
+        <v>104815.77929384049</v>
       </c>
       <c r="C834" s="2">
         <f t="shared" si="65"/>
@@ -24825,7 +24825,7 @@
       </c>
       <c r="B835" s="2">
         <f t="shared" si="64"/>
-        <v>104826.83831022425</v>
+        <v>105066.83831022425</v>
       </c>
       <c r="C835" s="2">
         <f t="shared" si="65"/>
@@ -24854,7 +24854,7 @@
       </c>
       <c r="B836" s="2">
         <f t="shared" ref="B836:B899" si="69">LOG(2)*A836+B835</f>
-        <v>105078.19835660368</v>
+        <v>105318.19835660368</v>
       </c>
       <c r="C836" s="2">
         <f t="shared" ref="C836:C899" si="70">LOG(2)*A836*2.5+C835</f>
@@ -24883,7 +24883,7 @@
       </c>
       <c r="B837" s="2">
         <f t="shared" si="69"/>
-        <v>105329.85943297877</v>
+        <v>105569.85943297877</v>
       </c>
       <c r="C837" s="2">
         <f t="shared" si="70"/>
@@ -24912,7 +24912,7 @@
       </c>
       <c r="B838" s="2">
         <f t="shared" si="69"/>
-        <v>105581.82153934952</v>
+        <v>105821.82153934952</v>
       </c>
       <c r="C838" s="2">
         <f t="shared" si="70"/>
@@ -24941,7 +24941,7 @@
       </c>
       <c r="B839" s="2">
         <f t="shared" si="69"/>
-        <v>105834.08467571593</v>
+        <v>106074.08467571593</v>
       </c>
       <c r="C839" s="2">
         <f t="shared" si="70"/>
@@ -24970,7 +24970,7 @@
       </c>
       <c r="B840" s="2">
         <f t="shared" si="69"/>
-        <v>106086.64884207801</v>
+        <v>106326.64884207801</v>
       </c>
       <c r="C840" s="2">
         <f t="shared" si="70"/>
@@ -24999,7 +24999,7 @@
       </c>
       <c r="B841" s="2">
         <f t="shared" si="69"/>
-        <v>106339.51403843575</v>
+        <v>106579.51403843575</v>
       </c>
       <c r="C841" s="2">
         <f t="shared" si="70"/>
@@ -25028,7 +25028,7 @@
       </c>
       <c r="B842" s="2">
         <f t="shared" si="69"/>
-        <v>106592.68026478916</v>
+        <v>106832.68026478916</v>
       </c>
       <c r="C842" s="2">
         <f t="shared" si="70"/>
@@ -25057,7 +25057,7 @@
       </c>
       <c r="B843" s="2">
         <f t="shared" si="69"/>
-        <v>106846.14752113823</v>
+        <v>107086.14752113823</v>
       </c>
       <c r="C843" s="2">
         <f t="shared" si="70"/>
@@ -25086,7 +25086,7 @@
       </c>
       <c r="B844" s="2">
         <f t="shared" si="69"/>
-        <v>107099.91580748298</v>
+        <v>107339.91580748298</v>
       </c>
       <c r="C844" s="2">
         <f t="shared" si="70"/>
@@ -25115,7 +25115,7 @@
       </c>
       <c r="B845" s="2">
         <f t="shared" si="69"/>
-        <v>107353.98512382338</v>
+        <v>107593.98512382338</v>
       </c>
       <c r="C845" s="2">
         <f t="shared" si="70"/>
@@ -25144,7 +25144,7 @@
       </c>
       <c r="B846" s="2">
         <f t="shared" si="69"/>
-        <v>107608.35547015944</v>
+        <v>107848.35547015944</v>
       </c>
       <c r="C846" s="2">
         <f t="shared" si="70"/>
@@ -25173,7 +25173,7 @@
       </c>
       <c r="B847" s="2">
         <f t="shared" si="69"/>
-        <v>107863.02684649116</v>
+        <v>108103.02684649116</v>
       </c>
       <c r="C847" s="2">
         <f t="shared" si="70"/>
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B848" s="2">
         <f t="shared" si="69"/>
-        <v>108117.99925281855</v>
+        <v>108357.99925281855</v>
       </c>
       <c r="C848" s="2">
         <f t="shared" si="70"/>
@@ -25231,7 +25231,7 @@
       </c>
       <c r="B849" s="2">
         <f t="shared" si="69"/>
-        <v>108373.27268914161</v>
+        <v>108613.27268914161</v>
       </c>
       <c r="C849" s="2">
         <f t="shared" si="70"/>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="B850" s="2">
         <f t="shared" si="69"/>
-        <v>108628.84715546033</v>
+        <v>108868.84715546033</v>
       </c>
       <c r="C850" s="2">
         <f t="shared" si="70"/>
@@ -25289,7 +25289,7 @@
       </c>
       <c r="B851" s="2">
         <f t="shared" si="69"/>
-        <v>108884.72265177472</v>
+        <v>109124.72265177472</v>
       </c>
       <c r="C851" s="2">
         <f t="shared" si="70"/>
@@ -25318,7 +25318,7 @@
       </c>
       <c r="B852" s="2">
         <f t="shared" si="69"/>
-        <v>109140.89917808477</v>
+        <v>109380.89917808477</v>
       </c>
       <c r="C852" s="2">
         <f t="shared" si="70"/>
@@ -25347,7 +25347,7 @@
       </c>
       <c r="B853" s="2">
         <f t="shared" si="69"/>
-        <v>109397.37673439049</v>
+        <v>109637.37673439049</v>
       </c>
       <c r="C853" s="2">
         <f t="shared" si="70"/>
@@ -25376,7 +25376,7 @@
       </c>
       <c r="B854" s="2">
         <f t="shared" si="69"/>
-        <v>109654.15532069186</v>
+        <v>109894.15532069186</v>
       </c>
       <c r="C854" s="2">
         <f t="shared" si="70"/>
@@ -25405,7 +25405,7 @@
       </c>
       <c r="B855" s="2">
         <f t="shared" si="69"/>
-        <v>109911.2349369889</v>
+        <v>110151.2349369889</v>
       </c>
       <c r="C855" s="2">
         <f t="shared" si="70"/>
@@ -25434,7 +25434,7 @@
       </c>
       <c r="B856" s="2">
         <f t="shared" si="69"/>
-        <v>110168.6155832816</v>
+        <v>110408.6155832816</v>
       </c>
       <c r="C856" s="2">
         <f t="shared" si="70"/>
@@ -25463,7 +25463,7 @@
       </c>
       <c r="B857" s="2">
         <f t="shared" si="69"/>
-        <v>110426.29725956997</v>
+        <v>110666.29725956997</v>
       </c>
       <c r="C857" s="2">
         <f t="shared" si="70"/>
@@ -25492,7 +25492,7 @@
       </c>
       <c r="B858" s="2">
         <f t="shared" si="69"/>
-        <v>110684.279965854</v>
+        <v>110924.279965854</v>
       </c>
       <c r="C858" s="2">
         <f t="shared" si="70"/>
@@ -25521,7 +25521,7 @@
       </c>
       <c r="B859" s="2">
         <f t="shared" si="69"/>
-        <v>110942.5637021337</v>
+        <v>111182.5637021337</v>
       </c>
       <c r="C859" s="2">
         <f t="shared" si="70"/>
@@ -25550,7 +25550,7 @@
       </c>
       <c r="B860" s="2">
         <f t="shared" si="69"/>
-        <v>111201.14846840907</v>
+        <v>111441.14846840907</v>
       </c>
       <c r="C860" s="2">
         <f t="shared" si="70"/>
@@ -25579,7 +25579,7 @@
       </c>
       <c r="B861" s="2">
         <f t="shared" si="69"/>
-        <v>111460.03426468009</v>
+        <v>111700.03426468009</v>
       </c>
       <c r="C861" s="2">
         <f t="shared" si="70"/>
@@ -25608,7 +25608,7 @@
       </c>
       <c r="B862" s="2">
         <f t="shared" si="69"/>
-        <v>111719.22109094677</v>
+        <v>111959.22109094677</v>
       </c>
       <c r="C862" s="2">
         <f t="shared" si="70"/>
@@ -25637,7 +25637,7 @@
       </c>
       <c r="B863" s="2">
         <f t="shared" si="69"/>
-        <v>111978.70894720912</v>
+        <v>112218.70894720912</v>
       </c>
       <c r="C863" s="2">
         <f t="shared" si="70"/>
@@ -25666,7 +25666,7 @@
       </c>
       <c r="B864" s="2">
         <f t="shared" si="69"/>
-        <v>112238.49783346713</v>
+        <v>112478.49783346713</v>
       </c>
       <c r="C864" s="2">
         <f t="shared" si="70"/>
@@ -25695,7 +25695,7 @@
       </c>
       <c r="B865" s="2">
         <f t="shared" si="69"/>
-        <v>112498.58774972081</v>
+        <v>112738.58774972081</v>
       </c>
       <c r="C865" s="2">
         <f t="shared" si="70"/>
@@ -25724,7 +25724,7 @@
       </c>
       <c r="B866" s="2">
         <f t="shared" si="69"/>
-        <v>112758.97869597016</v>
+        <v>112998.97869597016</v>
       </c>
       <c r="C866" s="2">
         <f t="shared" si="70"/>
@@ -25753,7 +25753,7 @@
       </c>
       <c r="B867" s="2">
         <f t="shared" si="69"/>
-        <v>113019.67067221517</v>
+        <v>113259.67067221517</v>
       </c>
       <c r="C867" s="2">
         <f t="shared" si="70"/>
@@ -25782,7 +25782,7 @@
       </c>
       <c r="B868" s="2">
         <f t="shared" si="69"/>
-        <v>113280.66367845585</v>
+        <v>113520.66367845585</v>
       </c>
       <c r="C868" s="2">
         <f t="shared" si="70"/>
@@ -25811,7 +25811,7 @@
       </c>
       <c r="B869" s="2">
         <f t="shared" si="69"/>
-        <v>113541.95771469218</v>
+        <v>113781.95771469218</v>
       </c>
       <c r="C869" s="2">
         <f t="shared" si="70"/>
@@ -25840,7 +25840,7 @@
       </c>
       <c r="B870" s="2">
         <f t="shared" si="69"/>
-        <v>113803.55278092418</v>
+        <v>114043.55278092418</v>
       </c>
       <c r="C870" s="2">
         <f t="shared" si="70"/>
@@ -25869,7 +25869,7 @@
       </c>
       <c r="B871" s="2">
         <f t="shared" si="69"/>
-        <v>114065.44887715184</v>
+        <v>114305.44887715184</v>
       </c>
       <c r="C871" s="2">
         <f t="shared" si="70"/>
@@ -25898,7 +25898,7 @@
       </c>
       <c r="B872" s="2">
         <f t="shared" si="69"/>
-        <v>114327.64600337516</v>
+        <v>114567.64600337516</v>
       </c>
       <c r="C872" s="2">
         <f t="shared" si="70"/>
@@ -25927,7 +25927,7 @@
       </c>
       <c r="B873" s="2">
         <f t="shared" si="69"/>
-        <v>114590.14415959416</v>
+        <v>114830.14415959416</v>
       </c>
       <c r="C873" s="2">
         <f t="shared" si="70"/>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="B874" s="2">
         <f t="shared" si="69"/>
-        <v>114852.94334580882</v>
+        <v>115092.94334580882</v>
       </c>
       <c r="C874" s="2">
         <f t="shared" si="70"/>
@@ -25985,7 +25985,7 @@
       </c>
       <c r="B875" s="2">
         <f t="shared" si="69"/>
-        <v>115116.04356201914</v>
+        <v>115356.04356201914</v>
       </c>
       <c r="C875" s="2">
         <f t="shared" si="70"/>
@@ -26014,7 +26014,7 @@
       </c>
       <c r="B876" s="2">
         <f t="shared" si="69"/>
-        <v>115379.44480822512</v>
+        <v>115619.44480822512</v>
       </c>
       <c r="C876" s="2">
         <f t="shared" si="70"/>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="B877" s="2">
         <f t="shared" si="69"/>
-        <v>115643.14708442676</v>
+        <v>115883.14708442676</v>
       </c>
       <c r="C877" s="2">
         <f t="shared" si="70"/>
@@ -26072,7 +26072,7 @@
       </c>
       <c r="B878" s="2">
         <f t="shared" si="69"/>
-        <v>115907.15039062407</v>
+        <v>116147.15039062407</v>
       </c>
       <c r="C878" s="2">
         <f t="shared" si="70"/>
@@ -26101,7 +26101,7 @@
       </c>
       <c r="B879" s="2">
         <f t="shared" si="69"/>
-        <v>116171.45472681704</v>
+        <v>116411.45472681704</v>
       </c>
       <c r="C879" s="2">
         <f t="shared" si="70"/>
@@ -26130,7 +26130,7 @@
       </c>
       <c r="B880" s="2">
         <f t="shared" si="69"/>
-        <v>116436.06009300568</v>
+        <v>116676.06009300568</v>
       </c>
       <c r="C880" s="2">
         <f t="shared" si="70"/>
@@ -26159,7 +26159,7 @@
       </c>
       <c r="B881" s="2">
         <f t="shared" si="69"/>
-        <v>116700.96648918999</v>
+        <v>116940.96648918999</v>
       </c>
       <c r="C881" s="2">
         <f t="shared" si="70"/>
@@ -26188,7 +26188,7 @@
       </c>
       <c r="B882" s="2">
         <f t="shared" si="69"/>
-        <v>116966.17391536996</v>
+        <v>117206.17391536996</v>
       </c>
       <c r="C882" s="2">
         <f t="shared" si="70"/>
@@ -26217,7 +26217,7 @@
       </c>
       <c r="B883" s="2">
         <f t="shared" si="69"/>
-        <v>117231.6823715456</v>
+        <v>117471.6823715456</v>
       </c>
       <c r="C883" s="2">
         <f t="shared" si="70"/>
@@ -26246,7 +26246,7 @@
       </c>
       <c r="B884" s="2">
         <f t="shared" si="69"/>
-        <v>117497.49185771689</v>
+        <v>117737.49185771689</v>
       </c>
       <c r="C884" s="2">
         <f t="shared" si="70"/>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="B885" s="2">
         <f t="shared" si="69"/>
-        <v>117763.60237388384</v>
+        <v>118003.60237388384</v>
       </c>
       <c r="C885" s="2">
         <f t="shared" si="70"/>
@@ -26304,7 +26304,7 @@
       </c>
       <c r="B886" s="2">
         <f t="shared" si="69"/>
-        <v>118030.01392004646</v>
+        <v>118270.01392004646</v>
       </c>
       <c r="C886" s="2">
         <f t="shared" si="70"/>
@@ -26333,7 +26333,7 @@
       </c>
       <c r="B887" s="2">
         <f t="shared" si="69"/>
-        <v>118296.72649620475</v>
+        <v>118536.72649620475</v>
       </c>
       <c r="C887" s="2">
         <f t="shared" si="70"/>
@@ -26362,7 +26362,7 @@
       </c>
       <c r="B888" s="2">
         <f t="shared" si="69"/>
-        <v>118563.7401023587</v>
+        <v>118803.7401023587</v>
       </c>
       <c r="C888" s="2">
         <f t="shared" si="70"/>
@@ -26391,7 +26391,7 @@
       </c>
       <c r="B889" s="2">
         <f t="shared" si="69"/>
-        <v>118831.05473850832</v>
+        <v>119071.05473850832</v>
       </c>
       <c r="C889" s="2">
         <f t="shared" si="70"/>
@@ -26420,7 +26420,7 @@
       </c>
       <c r="B890" s="2">
         <f t="shared" si="69"/>
-        <v>119098.6704046536</v>
+        <v>119338.6704046536</v>
       </c>
       <c r="C890" s="2">
         <f t="shared" si="70"/>
@@ -26449,7 +26449,7 @@
       </c>
       <c r="B891" s="2">
         <f t="shared" si="69"/>
-        <v>119366.58710079455</v>
+        <v>119606.58710079455</v>
       </c>
       <c r="C891" s="2">
         <f t="shared" si="70"/>
@@ -26478,7 +26478,7 @@
       </c>
       <c r="B892" s="2">
         <f t="shared" si="69"/>
-        <v>119634.80482693115</v>
+        <v>119874.80482693115</v>
       </c>
       <c r="C892" s="2">
         <f t="shared" si="70"/>
@@ -26507,7 +26507,7 @@
       </c>
       <c r="B893" s="2">
         <f t="shared" si="69"/>
-        <v>119903.32358306342</v>
+        <v>120143.32358306342</v>
       </c>
       <c r="C893" s="2">
         <f t="shared" si="70"/>
@@ -26536,7 +26536,7 @@
       </c>
       <c r="B894" s="2">
         <f t="shared" si="69"/>
-        <v>120172.14336919136</v>
+        <v>120412.14336919136</v>
       </c>
       <c r="C894" s="2">
         <f t="shared" si="70"/>
@@ -26565,7 +26565,7 @@
       </c>
       <c r="B895" s="2">
         <f t="shared" si="69"/>
-        <v>120441.26418531495</v>
+        <v>120681.26418531495</v>
       </c>
       <c r="C895" s="2">
         <f t="shared" si="70"/>
@@ -26594,7 +26594,7 @@
       </c>
       <c r="B896" s="2">
         <f t="shared" si="69"/>
-        <v>120710.68603143422</v>
+        <v>120950.68603143422</v>
       </c>
       <c r="C896" s="2">
         <f t="shared" si="70"/>
@@ -26623,7 +26623,7 @@
       </c>
       <c r="B897" s="2">
         <f t="shared" si="69"/>
-        <v>120980.40890754915</v>
+        <v>121220.40890754915</v>
       </c>
       <c r="C897" s="2">
         <f t="shared" si="70"/>
@@ -26652,7 +26652,7 @@
       </c>
       <c r="B898" s="2">
         <f t="shared" si="69"/>
-        <v>121250.43281365975</v>
+        <v>121490.43281365975</v>
       </c>
       <c r="C898" s="2">
         <f t="shared" si="70"/>
@@ -26681,7 +26681,7 @@
       </c>
       <c r="B899" s="2">
         <f t="shared" si="69"/>
-        <v>121520.75774976599</v>
+        <v>121760.75774976599</v>
       </c>
       <c r="C899" s="2">
         <f t="shared" si="70"/>
@@ -26710,7 +26710,7 @@
       </c>
       <c r="B900" s="2">
         <f t="shared" ref="B900:B963" si="74">LOG(2)*A900+B899</f>
-        <v>121791.38371586791</v>
+        <v>122031.38371586791</v>
       </c>
       <c r="C900" s="2">
         <f t="shared" ref="C900:C963" si="75">LOG(2)*A900*2.5+C899</f>
@@ -26739,7 +26739,7 @@
       </c>
       <c r="B901" s="2">
         <f t="shared" si="74"/>
-        <v>122062.31071196549</v>
+        <v>122302.31071196549</v>
       </c>
       <c r="C901" s="2">
         <f t="shared" si="75"/>
@@ -26768,7 +26768,7 @@
       </c>
       <c r="B902" s="2">
         <f t="shared" si="74"/>
-        <v>122333.53873805873</v>
+        <v>122573.53873805873</v>
       </c>
       <c r="C902" s="2">
         <f t="shared" si="75"/>
@@ -26797,7 +26797,7 @@
       </c>
       <c r="B903" s="2">
         <f t="shared" si="74"/>
-        <v>122605.06779414765</v>
+        <v>122845.06779414765</v>
       </c>
       <c r="C903" s="2">
         <f t="shared" si="75"/>
@@ -26826,7 +26826,7 @@
       </c>
       <c r="B904" s="2">
         <f t="shared" si="74"/>
-        <v>122876.89788023222</v>
+        <v>123116.89788023222</v>
       </c>
       <c r="C904" s="2">
         <f t="shared" si="75"/>
@@ -26855,7 +26855,7 @@
       </c>
       <c r="B905" s="2">
         <f t="shared" si="74"/>
-        <v>123149.02899631247</v>
+        <v>123389.02899631247</v>
       </c>
       <c r="C905" s="2">
         <f t="shared" si="75"/>
@@ -26884,7 +26884,7 @@
       </c>
       <c r="B906" s="2">
         <f t="shared" si="74"/>
-        <v>123421.46114238838</v>
+        <v>123661.46114238838</v>
       </c>
       <c r="C906" s="2">
         <f t="shared" si="75"/>
@@ -26913,7 +26913,7 @@
       </c>
       <c r="B907" s="2">
         <f t="shared" si="74"/>
-        <v>123694.19431845994</v>
+        <v>123934.19431845994</v>
       </c>
       <c r="C907" s="2">
         <f t="shared" si="75"/>
@@ -26942,7 +26942,7 @@
       </c>
       <c r="B908" s="2">
         <f t="shared" si="74"/>
-        <v>123967.22852452716</v>
+        <v>124207.22852452716</v>
       </c>
       <c r="C908" s="2">
         <f t="shared" si="75"/>
@@ -26971,7 +26971,7 @@
       </c>
       <c r="B909" s="2">
         <f t="shared" si="74"/>
-        <v>124240.56376059006</v>
+        <v>124480.56376059006</v>
       </c>
       <c r="C909" s="2">
         <f t="shared" si="75"/>
@@ -27000,7 +27000,7 @@
       </c>
       <c r="B910" s="2">
         <f t="shared" si="74"/>
-        <v>124514.20002664861</v>
+        <v>124754.20002664861</v>
       </c>
       <c r="C910" s="2">
         <f t="shared" si="75"/>
@@ -27029,7 +27029,7 @@
       </c>
       <c r="B911" s="2">
         <f t="shared" si="74"/>
-        <v>124788.13732270284</v>
+        <v>125028.13732270284</v>
       </c>
       <c r="C911" s="2">
         <f t="shared" si="75"/>
@@ -27058,7 +27058,7 @@
       </c>
       <c r="B912" s="2">
         <f t="shared" si="74"/>
-        <v>125062.37564875273</v>
+        <v>125302.37564875273</v>
       </c>
       <c r="C912" s="2">
         <f t="shared" si="75"/>
@@ -27087,7 +27087,7 @@
       </c>
       <c r="B913" s="2">
         <f t="shared" si="74"/>
-        <v>125336.91500479828</v>
+        <v>125576.91500479828</v>
       </c>
       <c r="C913" s="2">
         <f t="shared" si="75"/>
@@ -27116,7 +27116,7 @@
       </c>
       <c r="B914" s="2">
         <f t="shared" si="74"/>
-        <v>125611.75539083951</v>
+        <v>125851.75539083951</v>
       </c>
       <c r="C914" s="2">
         <f t="shared" si="75"/>
@@ -27145,7 +27145,7 @@
       </c>
       <c r="B915" s="2">
         <f t="shared" si="74"/>
-        <v>125886.89680687638</v>
+        <v>126126.89680687638</v>
       </c>
       <c r="C915" s="2">
         <f t="shared" si="75"/>
@@ -27174,7 +27174,7 @@
       </c>
       <c r="B916" s="2">
         <f t="shared" si="74"/>
-        <v>126162.33925290892</v>
+        <v>126402.33925290892</v>
       </c>
       <c r="C916" s="2">
         <f t="shared" si="75"/>
@@ -27203,7 +27203,7 @@
       </c>
       <c r="B917" s="2">
         <f t="shared" si="74"/>
-        <v>126438.08272893712</v>
+        <v>126678.08272893712</v>
       </c>
       <c r="C917" s="2">
         <f t="shared" si="75"/>
@@ -27232,7 +27232,7 @@
       </c>
       <c r="B918" s="2">
         <f t="shared" si="74"/>
-        <v>126714.12723496099</v>
+        <v>126954.12723496099</v>
       </c>
       <c r="C918" s="2">
         <f t="shared" si="75"/>
@@ -27261,7 +27261,7 @@
       </c>
       <c r="B919" s="2">
         <f t="shared" si="74"/>
-        <v>126990.47277098053</v>
+        <v>127230.47277098053</v>
       </c>
       <c r="C919" s="2">
         <f t="shared" si="75"/>
@@ -27290,7 +27290,7 @@
       </c>
       <c r="B920" s="2">
         <f t="shared" si="74"/>
-        <v>127267.11933699573</v>
+        <v>127507.11933699573</v>
       </c>
       <c r="C920" s="2">
         <f t="shared" si="75"/>
@@ -27319,7 +27319,7 @@
       </c>
       <c r="B921" s="2">
         <f t="shared" si="74"/>
-        <v>127544.0669330066</v>
+        <v>127784.0669330066</v>
       </c>
       <c r="C921" s="2">
         <f t="shared" si="75"/>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="B922" s="2">
         <f t="shared" si="74"/>
-        <v>127821.31555901312</v>
+        <v>128061.31555901312</v>
       </c>
       <c r="C922" s="2">
         <f t="shared" si="75"/>
@@ -27377,7 +27377,7 @@
       </c>
       <c r="B923" s="2">
         <f t="shared" si="74"/>
-        <v>128098.86521501531</v>
+        <v>128338.86521501531</v>
       </c>
       <c r="C923" s="2">
         <f t="shared" si="75"/>
@@ -27406,7 +27406,7 @@
       </c>
       <c r="B924" s="2">
         <f t="shared" si="74"/>
-        <v>128376.71590101316</v>
+        <v>128616.71590101316</v>
       </c>
       <c r="C924" s="2">
         <f t="shared" si="75"/>
@@ -27435,7 +27435,7 @@
       </c>
       <c r="B925" s="2">
         <f t="shared" si="74"/>
-        <v>128654.86761700668</v>
+        <v>128894.86761700668</v>
       </c>
       <c r="C925" s="2">
         <f t="shared" si="75"/>
@@ -27464,7 +27464,7 @@
       </c>
       <c r="B926" s="2">
         <f t="shared" si="74"/>
-        <v>128933.32036299586</v>
+        <v>129173.32036299586</v>
       </c>
       <c r="C926" s="2">
         <f t="shared" si="75"/>
@@ -27493,7 +27493,7 @@
       </c>
       <c r="B927" s="2">
         <f t="shared" si="74"/>
-        <v>129212.07413898071</v>
+        <v>129452.07413898071</v>
       </c>
       <c r="C927" s="2">
         <f t="shared" si="75"/>
@@ -27522,7 +27522,7 @@
       </c>
       <c r="B928" s="2">
         <f t="shared" si="74"/>
-        <v>129491.12894496122</v>
+        <v>129731.12894496122</v>
       </c>
       <c r="C928" s="2">
         <f t="shared" si="75"/>
@@ -27551,7 +27551,7 @@
       </c>
       <c r="B929" s="2">
         <f t="shared" si="74"/>
-        <v>129770.4847809374</v>
+        <v>130010.4847809374</v>
       </c>
       <c r="C929" s="2">
         <f t="shared" si="75"/>
@@ -27580,7 +27580,7 @@
       </c>
       <c r="B930" s="2">
         <f t="shared" si="74"/>
-        <v>130050.14164690924</v>
+        <v>130290.14164690924</v>
       </c>
       <c r="C930" s="2">
         <f t="shared" si="75"/>
@@ -27609,7 +27609,7 @@
       </c>
       <c r="B931" s="2">
         <f t="shared" si="74"/>
-        <v>130330.09954287673</v>
+        <v>130570.09954287673</v>
       </c>
       <c r="C931" s="2">
         <f t="shared" si="75"/>
@@ -27638,7 +27638,7 @@
       </c>
       <c r="B932" s="2">
         <f t="shared" si="74"/>
-        <v>130610.3584688399</v>
+        <v>130850.3584688399</v>
       </c>
       <c r="C932" s="2">
         <f t="shared" si="75"/>
@@ -27667,7 +27667,7 @@
       </c>
       <c r="B933" s="2">
         <f t="shared" si="74"/>
-        <v>130890.91842479873</v>
+        <v>131130.91842479873</v>
       </c>
       <c r="C933" s="2">
         <f t="shared" si="75"/>
@@ -27696,7 +27696,7 @@
       </c>
       <c r="B934" s="2">
         <f t="shared" si="74"/>
-        <v>131171.77941075322</v>
+        <v>131411.77941075322</v>
       </c>
       <c r="C934" s="2">
         <f t="shared" si="75"/>
@@ -27725,7 +27725,7 @@
       </c>
       <c r="B935" s="2">
         <f t="shared" si="74"/>
-        <v>131452.94142670339</v>
+        <v>131692.94142670339</v>
       </c>
       <c r="C935" s="2">
         <f t="shared" si="75"/>
@@ -27754,7 +27754,7 @@
       </c>
       <c r="B936" s="2">
         <f t="shared" si="74"/>
-        <v>131734.40447264921</v>
+        <v>131974.40447264921</v>
       </c>
       <c r="C936" s="2">
         <f t="shared" si="75"/>
@@ -27783,7 +27783,7 @@
       </c>
       <c r="B937" s="2">
         <f t="shared" si="74"/>
-        <v>132016.16854859071</v>
+        <v>132256.16854859071</v>
       </c>
       <c r="C937" s="2">
         <f t="shared" si="75"/>
@@ -27812,7 +27812,7 @@
       </c>
       <c r="B938" s="2">
         <f t="shared" si="74"/>
-        <v>132298.23365452787</v>
+        <v>132538.23365452787</v>
       </c>
       <c r="C938" s="2">
         <f t="shared" si="75"/>
@@ -27841,7 +27841,7 @@
       </c>
       <c r="B939" s="2">
         <f t="shared" si="74"/>
-        <v>132580.59979046069</v>
+        <v>132820.59979046069</v>
       </c>
       <c r="C939" s="2">
         <f t="shared" si="75"/>
@@ -27870,7 +27870,7 @@
       </c>
       <c r="B940" s="2">
         <f t="shared" si="74"/>
-        <v>132863.26695638918</v>
+        <v>133103.26695638918</v>
       </c>
       <c r="C940" s="2">
         <f t="shared" si="75"/>
@@ -27899,7 +27899,7 @@
       </c>
       <c r="B941" s="2">
         <f t="shared" si="74"/>
-        <v>133146.23515231331</v>
+        <v>133386.23515231331</v>
       </c>
       <c r="C941" s="2">
         <f t="shared" si="75"/>
@@ -27928,7 +27928,7 @@
       </c>
       <c r="B942" s="2">
         <f t="shared" si="74"/>
-        <v>133429.5043782331</v>
+        <v>133669.5043782331</v>
       </c>
       <c r="C942" s="2">
         <f t="shared" si="75"/>
@@ -27957,7 +27957,7 @@
       </c>
       <c r="B943" s="2">
         <f t="shared" si="74"/>
-        <v>133713.07463414856</v>
+        <v>133953.07463414856</v>
       </c>
       <c r="C943" s="2">
         <f t="shared" si="75"/>
@@ -27986,7 +27986,7 @@
       </c>
       <c r="B944" s="2">
         <f t="shared" si="74"/>
-        <v>133996.94592005969</v>
+        <v>134236.94592005969</v>
       </c>
       <c r="C944" s="2">
         <f t="shared" si="75"/>
@@ -28015,7 +28015,7 @@
       </c>
       <c r="B945" s="2">
         <f t="shared" si="74"/>
-        <v>134281.11823596648</v>
+        <v>134521.11823596648</v>
       </c>
       <c r="C945" s="2">
         <f t="shared" si="75"/>
@@ -28044,7 +28044,7 @@
       </c>
       <c r="B946" s="2">
         <f t="shared" si="74"/>
-        <v>134565.59158186894</v>
+        <v>134805.59158186894</v>
       </c>
       <c r="C946" s="2">
         <f t="shared" si="75"/>
@@ -28073,7 +28073,7 @@
       </c>
       <c r="B947" s="2">
         <f t="shared" si="74"/>
-        <v>134850.36595776706</v>
+        <v>135090.36595776706</v>
       </c>
       <c r="C947" s="2">
         <f t="shared" si="75"/>
@@ -28102,7 +28102,7 @@
       </c>
       <c r="B948" s="2">
         <f t="shared" si="74"/>
-        <v>135135.44136366085</v>
+        <v>135375.44136366085</v>
       </c>
       <c r="C948" s="2">
         <f t="shared" si="75"/>
@@ -28131,7 +28131,7 @@
       </c>
       <c r="B949" s="2">
         <f t="shared" si="74"/>
-        <v>135420.81779955031</v>
+        <v>135660.81779955031</v>
       </c>
       <c r="C949" s="2">
         <f t="shared" si="75"/>
@@ -28160,7 +28160,7 @@
       </c>
       <c r="B950" s="2">
         <f t="shared" si="74"/>
-        <v>135706.49526543543</v>
+        <v>135946.49526543543</v>
       </c>
       <c r="C950" s="2">
         <f t="shared" si="75"/>
@@ -28189,7 +28189,7 @@
       </c>
       <c r="B951" s="2">
         <f t="shared" si="74"/>
-        <v>135992.47376131621</v>
+        <v>136232.47376131621</v>
       </c>
       <c r="C951" s="2">
         <f t="shared" si="75"/>
@@ -28218,7 +28218,7 @@
       </c>
       <c r="B952" s="2">
         <f t="shared" si="74"/>
-        <v>136278.75328719267</v>
+        <v>136518.75328719267</v>
       </c>
       <c r="C952" s="2">
         <f t="shared" si="75"/>
@@ -28247,7 +28247,7 @@
       </c>
       <c r="B953" s="2">
         <f t="shared" si="74"/>
-        <v>136565.33384306479</v>
+        <v>136805.33384306479</v>
       </c>
       <c r="C953" s="2">
         <f t="shared" si="75"/>
@@ -28276,7 +28276,7 @@
       </c>
       <c r="B954" s="2">
         <f t="shared" si="74"/>
-        <v>136852.21542893257</v>
+        <v>137092.21542893257</v>
       </c>
       <c r="C954" s="2">
         <f t="shared" si="75"/>
@@ -28305,7 +28305,7 @@
       </c>
       <c r="B955" s="2">
         <f t="shared" si="74"/>
-        <v>137139.39804479602</v>
+        <v>137379.39804479602</v>
       </c>
       <c r="C955" s="2">
         <f t="shared" si="75"/>
@@ -28334,7 +28334,7 @@
       </c>
       <c r="B956" s="2">
         <f t="shared" si="74"/>
-        <v>137426.88169065514</v>
+        <v>137666.88169065514</v>
       </c>
       <c r="C956" s="2">
         <f t="shared" si="75"/>
@@ -28363,7 +28363,7 @@
       </c>
       <c r="B957" s="2">
         <f t="shared" si="74"/>
-        <v>137714.66636650989</v>
+        <v>137954.66636650989</v>
       </c>
       <c r="C957" s="2">
         <f t="shared" si="75"/>
@@ -28392,7 +28392,7 @@
       </c>
       <c r="B958" s="2">
         <f t="shared" si="74"/>
-        <v>138002.75207236031</v>
+        <v>138242.75207236031</v>
       </c>
       <c r="C958" s="2">
         <f t="shared" si="75"/>
@@ -28421,7 +28421,7 @@
       </c>
       <c r="B959" s="2">
         <f t="shared" si="74"/>
-        <v>138291.13880820639</v>
+        <v>138531.13880820639</v>
       </c>
       <c r="C959" s="2">
         <f t="shared" si="75"/>
@@ -28450,7 +28450,7 @@
       </c>
       <c r="B960" s="2">
         <f t="shared" si="74"/>
-        <v>138579.82657404814</v>
+        <v>138819.82657404814</v>
       </c>
       <c r="C960" s="2">
         <f t="shared" si="75"/>
@@ -28479,7 +28479,7 @@
       </c>
       <c r="B961" s="2">
         <f t="shared" si="74"/>
-        <v>138868.81536988556</v>
+        <v>139108.81536988556</v>
       </c>
       <c r="C961" s="2">
         <f t="shared" si="75"/>
@@ -28508,7 +28508,7 @@
       </c>
       <c r="B962" s="2">
         <f t="shared" si="74"/>
-        <v>139158.10519571864</v>
+        <v>139398.10519571864</v>
       </c>
       <c r="C962" s="2">
         <f t="shared" si="75"/>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="B963" s="2">
         <f t="shared" si="74"/>
-        <v>139447.69605154739</v>
+        <v>139687.69605154739</v>
       </c>
       <c r="C963" s="2">
         <f t="shared" si="75"/>
@@ -28565,18 +28565,18 @@
         <v>963</v>
       </c>
       <c r="B964" s="2">
-        <f t="shared" ref="B964:B1027" si="79">LOG(2)*A964+B963</f>
-        <v>139737.58793737181</v>
+        <f t="shared" ref="B964:B1001" si="79">LOG(2)*A964+B963</f>
+        <v>139977.58793737181</v>
       </c>
       <c r="C964" s="2">
-        <f t="shared" ref="C964:C1027" si="80">LOG(2)*A964*2.5+C963</f>
+        <f t="shared" ref="C964:C1001" si="80">LOG(2)*A964*2.5+C963</f>
         <v>350318.96984342957</v>
       </c>
       <c r="D964" s="2">
         <v>100</v>
       </c>
       <c r="E964" s="2">
-        <f t="shared" ref="E964:E1027" si="81">LOG(2)*A964+E963</f>
+        <f t="shared" ref="E964:E1001" si="81">LOG(2)*A964+E963</f>
         <v>139737.58793737181</v>
       </c>
       <c r="F964" s="2">
@@ -28584,7 +28584,7 @@
         <v>0.01</v>
       </c>
       <c r="G964" s="2">
-        <f t="shared" ref="G964:G1027" si="82">LOG(2)* 2.71828^3*A964 +G963</f>
+        <f t="shared" ref="G964:G1001" si="82">LOG(2)* 2.71828^3*A964 +G963</f>
         <v>2806597.9633028703</v>
       </c>
       <c r="H964" s="5"/>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="B965" s="2">
         <f t="shared" si="79"/>
-        <v>140027.78085319189</v>
+        <v>140267.78085319189</v>
       </c>
       <c r="C965" s="2">
         <f t="shared" si="80"/>
@@ -28624,7 +28624,7 @@
       </c>
       <c r="B966" s="2">
         <f t="shared" si="79"/>
-        <v>140318.27479900763</v>
+        <v>140558.27479900763</v>
       </c>
       <c r="C966" s="2">
         <f t="shared" si="80"/>
@@ -28653,7 +28653,7 @@
       </c>
       <c r="B967" s="2">
         <f t="shared" si="79"/>
-        <v>140609.06977481904</v>
+        <v>140849.06977481904</v>
       </c>
       <c r="C967" s="2">
         <f t="shared" si="80"/>
@@ -28682,7 +28682,7 @@
       </c>
       <c r="B968" s="2">
         <f t="shared" si="79"/>
-        <v>140900.16578062612</v>
+        <v>141140.16578062612</v>
       </c>
       <c r="C968" s="2">
         <f t="shared" si="80"/>
@@ -28711,7 +28711,7 @@
       </c>
       <c r="B969" s="2">
         <f t="shared" si="79"/>
-        <v>141191.56281642886</v>
+        <v>141431.56281642886</v>
       </c>
       <c r="C969" s="2">
         <f t="shared" si="80"/>
@@ -28740,7 +28740,7 @@
       </c>
       <c r="B970" s="2">
         <f t="shared" si="79"/>
-        <v>141483.26088222727</v>
+        <v>141723.26088222727</v>
       </c>
       <c r="C970" s="2">
         <f t="shared" si="80"/>
@@ -28769,7 +28769,7 @@
       </c>
       <c r="B971" s="2">
         <f t="shared" si="79"/>
-        <v>141775.25997802135</v>
+        <v>142015.25997802135</v>
       </c>
       <c r="C971" s="2">
         <f t="shared" si="80"/>
@@ -28798,7 +28798,7 @@
       </c>
       <c r="B972" s="2">
         <f t="shared" si="79"/>
-        <v>142067.56010381106</v>
+        <v>142307.56010381106</v>
       </c>
       <c r="C972" s="2">
         <f t="shared" si="80"/>
@@ -28827,7 +28827,7 @@
       </c>
       <c r="B973" s="2">
         <f t="shared" si="79"/>
-        <v>142360.16125959644</v>
+        <v>142600.16125959644</v>
       </c>
       <c r="C973" s="2">
         <f t="shared" si="80"/>
@@ -28856,7 +28856,7 @@
       </c>
       <c r="B974" s="2">
         <f t="shared" si="79"/>
-        <v>142653.06344537748</v>
+        <v>142893.06344537748</v>
       </c>
       <c r="C974" s="2">
         <f t="shared" si="80"/>
@@ -28885,7 +28885,7 @@
       </c>
       <c r="B975" s="2">
         <f t="shared" si="79"/>
-        <v>142946.26666115419</v>
+        <v>143186.26666115419</v>
       </c>
       <c r="C975" s="2">
         <f t="shared" si="80"/>
@@ -28914,7 +28914,7 @@
       </c>
       <c r="B976" s="2">
         <f t="shared" si="79"/>
-        <v>143239.77090692657</v>
+        <v>143479.77090692657</v>
       </c>
       <c r="C976" s="2">
         <f t="shared" si="80"/>
@@ -28943,7 +28943,7 @@
       </c>
       <c r="B977" s="2">
         <f t="shared" si="79"/>
-        <v>143533.57618269461</v>
+        <v>143773.57618269461</v>
       </c>
       <c r="C977" s="2">
         <f t="shared" si="80"/>
@@ -28972,7 +28972,7 @@
       </c>
       <c r="B978" s="2">
         <f t="shared" si="79"/>
-        <v>143827.68248845832</v>
+        <v>144067.68248845832</v>
       </c>
       <c r="C978" s="2">
         <f t="shared" si="80"/>
@@ -29001,7 +29001,7 @@
       </c>
       <c r="B979" s="2">
         <f t="shared" si="79"/>
-        <v>144122.08982421769</v>
+        <v>144362.08982421769</v>
       </c>
       <c r="C979" s="2">
         <f t="shared" si="80"/>
@@ -29030,7 +29030,7 @@
       </c>
       <c r="B980" s="2">
         <f t="shared" si="79"/>
-        <v>144416.79818997273</v>
+        <v>144656.79818997273</v>
       </c>
       <c r="C980" s="2">
         <f t="shared" si="80"/>
@@ -29059,7 +29059,7 @@
       </c>
       <c r="B981" s="2">
         <f t="shared" si="79"/>
-        <v>144711.80758572344</v>
+        <v>144951.80758572344</v>
       </c>
       <c r="C981" s="2">
         <f t="shared" si="80"/>
@@ -29088,7 +29088,7 @@
       </c>
       <c r="B982" s="2">
         <f t="shared" si="79"/>
-        <v>145007.11801146981</v>
+        <v>145247.11801146981</v>
       </c>
       <c r="C982" s="2">
         <f t="shared" si="80"/>
@@ -29117,7 +29117,7 @@
       </c>
       <c r="B983" s="2">
         <f t="shared" si="79"/>
-        <v>145302.72946721184</v>
+        <v>145542.72946721184</v>
       </c>
       <c r="C983" s="2">
         <f t="shared" si="80"/>
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B984" s="2">
         <f t="shared" si="79"/>
-        <v>145598.64195294955</v>
+        <v>145838.64195294955</v>
       </c>
       <c r="C984" s="2">
         <f t="shared" si="80"/>
@@ -29175,7 +29175,7 @@
       </c>
       <c r="B985" s="2">
         <f t="shared" si="79"/>
-        <v>145894.85546868292</v>
+        <v>146134.85546868292</v>
       </c>
       <c r="C985" s="2">
         <f t="shared" si="80"/>
@@ -29189,7 +29189,7 @@
         <v>145894.85546868292</v>
       </c>
       <c r="F985" s="2">
-        <f t="shared" ref="F985:F1048" si="83">0.01</f>
+        <f t="shared" ref="F985:F1001" si="83">0.01</f>
         <v>0.01</v>
       </c>
       <c r="G985" s="2">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="B986" s="2">
         <f t="shared" si="79"/>
-        <v>146191.37001441195</v>
+        <v>146431.37001441195</v>
       </c>
       <c r="C986" s="2">
         <f t="shared" si="80"/>
@@ -29233,7 +29233,7 @@
       </c>
       <c r="B987" s="2">
         <f t="shared" si="79"/>
-        <v>146488.18559013662</v>
+        <v>146728.18559013662</v>
       </c>
       <c r="C987" s="2">
         <f t="shared" si="80"/>
@@ -29262,7 +29262,7 @@
       </c>
       <c r="B988" s="2">
         <f t="shared" si="79"/>
-        <v>146785.30219585696</v>
+        <v>147025.30219585696</v>
       </c>
       <c r="C988" s="2">
         <f t="shared" si="80"/>
@@ -29291,7 +29291,7 @@
       </c>
       <c r="B989" s="2">
         <f t="shared" si="79"/>
-        <v>147082.71983157296</v>
+        <v>147322.71983157296</v>
       </c>
       <c r="C989" s="2">
         <f t="shared" si="80"/>
@@ -29320,7 +29320,7 @@
       </c>
       <c r="B990" s="2">
         <f t="shared" si="79"/>
-        <v>147380.43849728463</v>
+        <v>147620.43849728463</v>
       </c>
       <c r="C990" s="2">
         <f t="shared" si="80"/>
@@ -29349,7 +29349,7 @@
       </c>
       <c r="B991" s="2">
         <f t="shared" si="79"/>
-        <v>147678.45819299197</v>
+        <v>147918.45819299197</v>
       </c>
       <c r="C991" s="2">
         <f t="shared" si="80"/>
@@ -29378,7 +29378,7 @@
       </c>
       <c r="B992" s="2">
         <f t="shared" si="79"/>
-        <v>147976.77891869497</v>
+        <v>148216.77891869497</v>
       </c>
       <c r="C992" s="2">
         <f t="shared" si="80"/>
@@ -29407,7 +29407,7 @@
       </c>
       <c r="B993" s="2">
         <f t="shared" si="79"/>
-        <v>148275.40067439363</v>
+        <v>148515.40067439363</v>
       </c>
       <c r="C993" s="2">
         <f t="shared" si="80"/>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="B994" s="2">
         <f t="shared" si="79"/>
-        <v>148574.32346008797</v>
+        <v>148814.32346008797</v>
       </c>
       <c r="C994" s="2">
         <f t="shared" si="80"/>
@@ -29465,7 +29465,7 @@
       </c>
       <c r="B995" s="2">
         <f t="shared" si="79"/>
-        <v>148873.54727577796</v>
+        <v>149113.54727577796</v>
       </c>
       <c r="C995" s="2">
         <f t="shared" si="80"/>
@@ -29494,7 +29494,7 @@
       </c>
       <c r="B996" s="2">
         <f t="shared" si="79"/>
-        <v>149173.07212146363</v>
+        <v>149413.07212146363</v>
       </c>
       <c r="C996" s="2">
         <f t="shared" si="80"/>
@@ -29523,7 +29523,7 @@
       </c>
       <c r="B997" s="2">
         <f t="shared" si="79"/>
-        <v>149472.89799714496</v>
+        <v>149712.89799714496</v>
       </c>
       <c r="C997" s="2">
         <f t="shared" si="80"/>
@@ -29552,7 +29552,7 @@
       </c>
       <c r="B998" s="2">
         <f t="shared" si="79"/>
-        <v>149773.02490282196</v>
+        <v>150013.02490282196</v>
       </c>
       <c r="C998" s="2">
         <f t="shared" si="80"/>
@@ -29581,7 +29581,7 @@
       </c>
       <c r="B999" s="2">
         <f t="shared" si="79"/>
-        <v>150073.45283849462</v>
+        <v>150313.45283849462</v>
       </c>
       <c r="C999" s="2">
         <f t="shared" si="80"/>
@@ -29610,7 +29610,7 @@
       </c>
       <c r="B1000" s="2">
         <f t="shared" si="79"/>
-        <v>150374.18180416294</v>
+        <v>150614.18180416294</v>
       </c>
       <c r="C1000" s="2">
         <f t="shared" si="80"/>
@@ -29639,7 +29639,7 @@
       </c>
       <c r="B1001" s="2">
         <f t="shared" si="79"/>
-        <v>150675.21179982694</v>
+        <v>150915.21179982694</v>
       </c>
       <c r="C1001" s="2">
         <f t="shared" si="80"/>
